--- a/BackTest/2020-01-19 BackTest HC.xlsx
+++ b/BackTest/2020-01-19 BackTest HC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M173"/>
+  <dimension ref="A1:M174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1754</v>
+        <v>1749</v>
       </c>
       <c r="C2" t="n">
-        <v>1755</v>
+        <v>1749</v>
       </c>
       <c r="D2" t="n">
-        <v>1755</v>
+        <v>1749</v>
       </c>
       <c r="E2" t="n">
-        <v>1754</v>
+        <v>1749</v>
       </c>
       <c r="F2" t="n">
-        <v>1045</v>
+        <v>0.3009</v>
       </c>
       <c r="G2" t="n">
-        <v>1765.5</v>
+        <v>1766.2</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>1754</v>
       </c>
       <c r="C3" t="n">
-        <v>1758</v>
+        <v>1755</v>
       </c>
       <c r="D3" t="n">
-        <v>1758</v>
+        <v>1755</v>
       </c>
       <c r="E3" t="n">
         <v>1754</v>
       </c>
       <c r="F3" t="n">
-        <v>685.6097</v>
+        <v>1045</v>
       </c>
       <c r="G3" t="n">
-        <v>1765.183333333333</v>
+        <v>1765.5</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,7 +503,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1758</v>
+        <v>1754</v>
       </c>
       <c r="C4" t="n">
         <v>1758</v>
@@ -512,13 +512,13 @@
         <v>1758</v>
       </c>
       <c r="E4" t="n">
-        <v>1758</v>
+        <v>1754</v>
       </c>
       <c r="F4" t="n">
-        <v>28.44141069</v>
+        <v>685.6097</v>
       </c>
       <c r="G4" t="n">
-        <v>1764.55</v>
+        <v>1765.183333333333</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>1758</v>
       </c>
       <c r="F5" t="n">
-        <v>27.3947</v>
+        <v>28.44141069</v>
       </c>
       <c r="G5" t="n">
-        <v>1763.916666666667</v>
+        <v>1764.55</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>1758</v>
       </c>
       <c r="F6" t="n">
-        <v>155.2423</v>
+        <v>27.3947</v>
       </c>
       <c r="G6" t="n">
-        <v>1763.283333333333</v>
+        <v>1763.916666666667</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>1758</v>
       </c>
       <c r="F7" t="n">
-        <v>87.7457</v>
+        <v>155.2423</v>
       </c>
       <c r="G7" t="n">
-        <v>1762.65</v>
+        <v>1763.283333333333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>1758</v>
       </c>
       <c r="F8" t="n">
-        <v>114.06938931</v>
+        <v>87.7457</v>
       </c>
       <c r="G8" t="n">
-        <v>1761.783333333333</v>
+        <v>1762.65</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -681,19 +681,19 @@
         <v>1758</v>
       </c>
       <c r="C9" t="n">
-        <v>1746</v>
+        <v>1758</v>
       </c>
       <c r="D9" t="n">
         <v>1758</v>
       </c>
       <c r="E9" t="n">
-        <v>1746</v>
+        <v>1758</v>
       </c>
       <c r="F9" t="n">
-        <v>1337.6306</v>
+        <v>114.06938931</v>
       </c>
       <c r="G9" t="n">
-        <v>1760.683333333333</v>
+        <v>1761.783333333333</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1747</v>
+        <v>1758</v>
       </c>
       <c r="C10" t="n">
-        <v>1738</v>
+        <v>1746</v>
       </c>
       <c r="D10" t="n">
-        <v>1747</v>
+        <v>1758</v>
       </c>
       <c r="E10" t="n">
-        <v>1738</v>
+        <v>1746</v>
       </c>
       <c r="F10" t="n">
-        <v>1337.6307</v>
+        <v>1337.6306</v>
       </c>
       <c r="G10" t="n">
-        <v>1759.2</v>
+        <v>1760.683333333333</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1738</v>
+        <v>1747</v>
       </c>
       <c r="C11" t="n">
         <v>1738</v>
       </c>
       <c r="D11" t="n">
-        <v>1738</v>
+        <v>1747</v>
       </c>
       <c r="E11" t="n">
         <v>1738</v>
       </c>
       <c r="F11" t="n">
-        <v>31.11</v>
+        <v>1337.6307</v>
       </c>
       <c r="G11" t="n">
-        <v>1757.716666666667</v>
+        <v>1759.2</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1747</v>
+        <v>1738</v>
       </c>
       <c r="C12" t="n">
-        <v>1764</v>
+        <v>1738</v>
       </c>
       <c r="D12" t="n">
-        <v>1764</v>
+        <v>1738</v>
       </c>
       <c r="E12" t="n">
-        <v>1747</v>
+        <v>1738</v>
       </c>
       <c r="F12" t="n">
-        <v>260</v>
+        <v>31.11</v>
       </c>
       <c r="G12" t="n">
-        <v>1756.633333333333</v>
+        <v>1757.716666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1753</v>
+        <v>1747</v>
       </c>
       <c r="C13" t="n">
-        <v>1753</v>
+        <v>1764</v>
       </c>
       <c r="D13" t="n">
-        <v>1753</v>
+        <v>1764</v>
       </c>
       <c r="E13" t="n">
-        <v>1753</v>
+        <v>1747</v>
       </c>
       <c r="F13" t="n">
-        <v>41.4884</v>
+        <v>260</v>
       </c>
       <c r="G13" t="n">
-        <v>1755.8</v>
+        <v>1756.633333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="C14" t="n">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="D14" t="n">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="E14" t="n">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="F14" t="n">
-        <v>4.7304</v>
+        <v>41.4884</v>
       </c>
       <c r="G14" t="n">
-        <v>1755.066666666667</v>
+        <v>1755.8</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1755</v>
+        <v>1752</v>
       </c>
       <c r="C15" t="n">
-        <v>1763</v>
+        <v>1752</v>
       </c>
       <c r="D15" t="n">
-        <v>1763</v>
+        <v>1752</v>
       </c>
       <c r="E15" t="n">
-        <v>1755</v>
+        <v>1752</v>
       </c>
       <c r="F15" t="n">
-        <v>260</v>
+        <v>4.7304</v>
       </c>
       <c r="G15" t="n">
-        <v>1754.55</v>
+        <v>1755.066666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1760</v>
+        <v>1755</v>
       </c>
       <c r="C16" t="n">
-        <v>1760</v>
+        <v>1763</v>
       </c>
       <c r="D16" t="n">
-        <v>1760</v>
+        <v>1763</v>
       </c>
       <c r="E16" t="n">
-        <v>1760</v>
+        <v>1755</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>260</v>
       </c>
       <c r="G16" t="n">
-        <v>1753.983333333333</v>
+        <v>1754.55</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1746</v>
+        <v>1760</v>
       </c>
       <c r="C17" t="n">
-        <v>1746</v>
+        <v>1760</v>
       </c>
       <c r="D17" t="n">
-        <v>1746</v>
+        <v>1760</v>
       </c>
       <c r="E17" t="n">
-        <v>1746</v>
+        <v>1760</v>
       </c>
       <c r="F17" t="n">
-        <v>17.7901</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>1753.183333333333</v>
+        <v>1753.983333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="C18" t="n">
-        <v>1752</v>
+        <v>1746</v>
       </c>
       <c r="D18" t="n">
-        <v>1752</v>
+        <v>1746</v>
       </c>
       <c r="E18" t="n">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="F18" t="n">
-        <v>16.1251</v>
+        <v>17.7901</v>
       </c>
       <c r="G18" t="n">
-        <v>1752.333333333333</v>
+        <v>1753.183333333333</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="C19" t="n">
-        <v>1750</v>
+        <v>1752</v>
       </c>
       <c r="D19" t="n">
         <v>1752</v>
       </c>
       <c r="E19" t="n">
-        <v>1720</v>
+        <v>1748</v>
       </c>
       <c r="F19" t="n">
-        <v>152.3095</v>
+        <v>16.1251</v>
       </c>
       <c r="G19" t="n">
-        <v>1751.35</v>
+        <v>1752.333333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1750</v>
+        <v>1745</v>
       </c>
       <c r="C20" t="n">
         <v>1750</v>
       </c>
       <c r="D20" t="n">
-        <v>1750</v>
+        <v>1752</v>
       </c>
       <c r="E20" t="n">
-        <v>1750</v>
+        <v>1720</v>
       </c>
       <c r="F20" t="n">
-        <v>0.5</v>
+        <v>152.3095</v>
       </c>
       <c r="G20" t="n">
-        <v>1750.683333333333</v>
+        <v>1751.35</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="C21" t="n">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="D21" t="n">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="E21" t="n">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0008</v>
+        <v>0.5</v>
       </c>
       <c r="G21" t="n">
-        <v>1750.15</v>
+        <v>1750.683333333333</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1756</v>
+        <v>1752</v>
       </c>
       <c r="C22" t="n">
-        <v>1759</v>
+        <v>1752</v>
       </c>
       <c r="D22" t="n">
-        <v>1759</v>
+        <v>1752</v>
       </c>
       <c r="E22" t="n">
-        <v>1756</v>
+        <v>1752</v>
       </c>
       <c r="F22" t="n">
-        <v>0.6199</v>
+        <v>0.0008</v>
       </c>
       <c r="G22" t="n">
-        <v>1749.733333333333</v>
+        <v>1750.15</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1760</v>
+        <v>1756</v>
       </c>
       <c r="C23" t="n">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="D23" t="n">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="E23" t="n">
-        <v>1760</v>
+        <v>1756</v>
       </c>
       <c r="F23" t="n">
-        <v>14.6522</v>
+        <v>0.6199</v>
       </c>
       <c r="G23" t="n">
-        <v>1749.333333333333</v>
+        <v>1749.733333333333</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1766</v>
+        <v>1760</v>
       </c>
       <c r="C24" t="n">
-        <v>1766</v>
+        <v>1760</v>
       </c>
       <c r="D24" t="n">
-        <v>1766</v>
+        <v>1760</v>
       </c>
       <c r="E24" t="n">
-        <v>1766</v>
+        <v>1760</v>
       </c>
       <c r="F24" t="n">
-        <v>32.9868</v>
+        <v>14.6522</v>
       </c>
       <c r="G24" t="n">
-        <v>1749.183333333333</v>
+        <v>1749.333333333333</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>1766</v>
       </c>
       <c r="C25" t="n">
-        <v>1775</v>
+        <v>1766</v>
       </c>
       <c r="D25" t="n">
-        <v>1775</v>
+        <v>1766</v>
       </c>
       <c r="E25" t="n">
         <v>1766</v>
       </c>
       <c r="F25" t="n">
-        <v>106.1014</v>
+        <v>32.9868</v>
       </c>
       <c r="G25" t="n">
-        <v>1749.3</v>
+        <v>1749.183333333333</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1783</v>
+        <v>1766</v>
       </c>
       <c r="C26" t="n">
-        <v>1783</v>
+        <v>1775</v>
       </c>
       <c r="D26" t="n">
-        <v>1783</v>
+        <v>1775</v>
       </c>
       <c r="E26" t="n">
-        <v>1783</v>
+        <v>1766</v>
       </c>
       <c r="F26" t="n">
-        <v>4.48681996</v>
+        <v>106.1014</v>
       </c>
       <c r="G26" t="n">
-        <v>1749.166666666667</v>
+        <v>1749.3</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="C27" t="n">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="D27" t="n">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="E27" t="n">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="F27" t="n">
-        <v>5</v>
+        <v>4.48681996</v>
       </c>
       <c r="G27" t="n">
-        <v>1749</v>
+        <v>1749.166666666667</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1786</v>
+        <v>1782</v>
       </c>
       <c r="C28" t="n">
-        <v>1787</v>
+        <v>1782</v>
       </c>
       <c r="D28" t="n">
-        <v>1787</v>
+        <v>1782</v>
       </c>
       <c r="E28" t="n">
-        <v>1786</v>
+        <v>1782</v>
       </c>
       <c r="F28" t="n">
-        <v>191.3144</v>
+        <v>5</v>
       </c>
       <c r="G28" t="n">
-        <v>1748.816666666667</v>
+        <v>1749</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="C29" t="n">
         <v>1787</v>
@@ -1387,13 +1387,13 @@
         <v>1787</v>
       </c>
       <c r="E29" t="n">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="F29" t="n">
-        <v>44.9058</v>
+        <v>191.3144</v>
       </c>
       <c r="G29" t="n">
-        <v>1748.6</v>
+        <v>1748.816666666667</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1785</v>
+        <v>1787</v>
       </c>
       <c r="C30" t="n">
-        <v>1785</v>
+        <v>1787</v>
       </c>
       <c r="D30" t="n">
-        <v>1785</v>
+        <v>1787</v>
       </c>
       <c r="E30" t="n">
-        <v>1785</v>
+        <v>1787</v>
       </c>
       <c r="F30" t="n">
-        <v>8</v>
+        <v>44.9058</v>
       </c>
       <c r="G30" t="n">
-        <v>1748.25</v>
+        <v>1748.6</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1451,19 +1451,19 @@
         <v>1785</v>
       </c>
       <c r="C31" t="n">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="D31" t="n">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="E31" t="n">
         <v>1785</v>
       </c>
       <c r="F31" t="n">
-        <v>32.6734</v>
+        <v>8</v>
       </c>
       <c r="G31" t="n">
-        <v>1747.933333333333</v>
+        <v>1748.25</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,7 +1483,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="C32" t="n">
         <v>1787</v>
@@ -1492,13 +1492,13 @@
         <v>1787</v>
       </c>
       <c r="E32" t="n">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="F32" t="n">
-        <v>12</v>
+        <v>32.6734</v>
       </c>
       <c r="G32" t="n">
-        <v>1748</v>
+        <v>1747.933333333333</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1521,19 +1521,19 @@
         <v>1787</v>
       </c>
       <c r="C33" t="n">
-        <v>1801</v>
+        <v>1787</v>
       </c>
       <c r="D33" t="n">
-        <v>1801</v>
+        <v>1787</v>
       </c>
       <c r="E33" t="n">
         <v>1787</v>
       </c>
       <c r="F33" t="n">
-        <v>11.8136</v>
+        <v>12</v>
       </c>
       <c r="G33" t="n">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1792</v>
+        <v>1787</v>
       </c>
       <c r="C34" t="n">
-        <v>1823</v>
+        <v>1801</v>
       </c>
       <c r="D34" t="n">
-        <v>1823</v>
+        <v>1801</v>
       </c>
       <c r="E34" t="n">
-        <v>1792</v>
+        <v>1787</v>
       </c>
       <c r="F34" t="n">
-        <v>356.5083</v>
+        <v>11.8136</v>
       </c>
       <c r="G34" t="n">
-        <v>1750.833333333333</v>
+        <v>1749</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
+        <v>1792</v>
+      </c>
+      <c r="C35" t="n">
         <v>1823</v>
       </c>
-      <c r="C35" t="n">
-        <v>1824</v>
-      </c>
       <c r="D35" t="n">
-        <v>1828</v>
+        <v>1823</v>
       </c>
       <c r="E35" t="n">
-        <v>1823</v>
+        <v>1792</v>
       </c>
       <c r="F35" t="n">
-        <v>195.065</v>
+        <v>356.5083</v>
       </c>
       <c r="G35" t="n">
-        <v>1752.7</v>
+        <v>1750.833333333333</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
+        <v>1823</v>
+      </c>
+      <c r="C36" t="n">
         <v>1824</v>
       </c>
-      <c r="C36" t="n">
-        <v>1807</v>
-      </c>
       <c r="D36" t="n">
-        <v>1824</v>
+        <v>1828</v>
       </c>
       <c r="E36" t="n">
-        <v>1807</v>
+        <v>1823</v>
       </c>
       <c r="F36" t="n">
-        <v>42.7369</v>
+        <v>195.065</v>
       </c>
       <c r="G36" t="n">
-        <v>1754</v>
+        <v>1752.7</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1820</v>
+        <v>1824</v>
       </c>
       <c r="C37" t="n">
-        <v>1820</v>
+        <v>1807</v>
       </c>
       <c r="D37" t="n">
-        <v>1820</v>
+        <v>1824</v>
       </c>
       <c r="E37" t="n">
-        <v>1820</v>
+        <v>1807</v>
       </c>
       <c r="F37" t="n">
-        <v>0.5</v>
+        <v>42.7369</v>
       </c>
       <c r="G37" t="n">
-        <v>1755.35</v>
+        <v>1754</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,28 +1693,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1807</v>
+        <v>1820</v>
       </c>
       <c r="C38" t="n">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="D38" t="n">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="E38" t="n">
-        <v>1807</v>
+        <v>1820</v>
       </c>
       <c r="F38" t="n">
-        <v>101.3571</v>
+        <v>0.5</v>
       </c>
       <c r="G38" t="n">
-        <v>1756.7</v>
+        <v>1755.35</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1728,28 +1728,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1818</v>
+        <v>1807</v>
       </c>
       <c r="C39" t="n">
         <v>1819</v>
       </c>
       <c r="D39" t="n">
-        <v>1823</v>
+        <v>1819</v>
       </c>
       <c r="E39" t="n">
-        <v>1818</v>
+        <v>1807</v>
       </c>
       <c r="F39" t="n">
-        <v>1801.0884</v>
+        <v>101.3571</v>
       </c>
       <c r="G39" t="n">
-        <v>1758.35</v>
+        <v>1756.7</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1763,28 +1763,28 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1821</v>
+        <v>1818</v>
       </c>
       <c r="C40" t="n">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="D40" t="n">
-        <v>1821</v>
+        <v>1823</v>
       </c>
       <c r="E40" t="n">
-        <v>1821</v>
+        <v>1818</v>
       </c>
       <c r="F40" t="n">
-        <v>265.8594</v>
+        <v>1801.0884</v>
       </c>
       <c r="G40" t="n">
-        <v>1760</v>
+        <v>1758.35</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1798,28 +1798,28 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="C41" t="n">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="D41" t="n">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="E41" t="n">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="F41" t="n">
-        <v>24.3</v>
+        <v>265.8594</v>
       </c>
       <c r="G41" t="n">
-        <v>1761.633333333333</v>
+        <v>1760</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1833,28 +1833,28 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="C42" t="n">
-        <v>1805</v>
+        <v>1820</v>
       </c>
       <c r="D42" t="n">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="E42" t="n">
-        <v>1805</v>
+        <v>1820</v>
       </c>
       <c r="F42" t="n">
-        <v>201.391</v>
+        <v>24.3</v>
       </c>
       <c r="G42" t="n">
-        <v>1762.9</v>
+        <v>1761.633333333333</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1827</v>
+        <v>1819</v>
       </c>
       <c r="C43" t="n">
-        <v>1827</v>
+        <v>1805</v>
       </c>
       <c r="D43" t="n">
-        <v>1827</v>
+        <v>1819</v>
       </c>
       <c r="E43" t="n">
-        <v>1827</v>
+        <v>1805</v>
       </c>
       <c r="F43" t="n">
-        <v>0.5</v>
+        <v>201.391</v>
       </c>
       <c r="G43" t="n">
-        <v>1764.666666666667</v>
+        <v>1762.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1807</v>
+        <v>1827</v>
       </c>
       <c r="C44" t="n">
-        <v>1805</v>
+        <v>1827</v>
       </c>
       <c r="D44" t="n">
-        <v>1807</v>
+        <v>1827</v>
       </c>
       <c r="E44" t="n">
-        <v>1805</v>
+        <v>1827</v>
       </c>
       <c r="F44" t="n">
-        <v>161.6951</v>
+        <v>0.5</v>
       </c>
       <c r="G44" t="n">
-        <v>1766.066666666667</v>
+        <v>1764.666666666667</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1811</v>
+        <v>1807</v>
       </c>
       <c r="C45" t="n">
-        <v>1811</v>
+        <v>1805</v>
       </c>
       <c r="D45" t="n">
-        <v>1811</v>
+        <v>1807</v>
       </c>
       <c r="E45" t="n">
-        <v>1811</v>
+        <v>1805</v>
       </c>
       <c r="F45" t="n">
-        <v>12.318</v>
+        <v>161.6951</v>
       </c>
       <c r="G45" t="n">
-        <v>1767.566666666667</v>
+        <v>1766.066666666667</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1822</v>
+        <v>1811</v>
       </c>
       <c r="C46" t="n">
-        <v>1822</v>
+        <v>1811</v>
       </c>
       <c r="D46" t="n">
-        <v>1822</v>
+        <v>1811</v>
       </c>
       <c r="E46" t="n">
-        <v>1822</v>
+        <v>1811</v>
       </c>
       <c r="F46" t="n">
-        <v>0.5</v>
+        <v>12.318</v>
       </c>
       <c r="G46" t="n">
-        <v>1769.1</v>
+        <v>1767.566666666667</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1820</v>
+        <v>1822</v>
       </c>
       <c r="C47" t="n">
-        <v>1830</v>
+        <v>1822</v>
       </c>
       <c r="D47" t="n">
-        <v>1830</v>
+        <v>1822</v>
       </c>
       <c r="E47" t="n">
-        <v>1820</v>
+        <v>1822</v>
       </c>
       <c r="F47" t="n">
-        <v>3437.0652</v>
+        <v>0.5</v>
       </c>
       <c r="G47" t="n">
-        <v>1770.9</v>
+        <v>1769.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="C48" t="n">
-        <v>1824</v>
+        <v>1830</v>
       </c>
       <c r="D48" t="n">
-        <v>1825</v>
+        <v>1830</v>
       </c>
       <c r="E48" t="n">
-        <v>1818</v>
+        <v>1820</v>
       </c>
       <c r="F48" t="n">
-        <v>3569.2888</v>
+        <v>3437.0652</v>
       </c>
       <c r="G48" t="n">
-        <v>1772.6</v>
+        <v>1770.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
+        <v>1822</v>
+      </c>
+      <c r="C49" t="n">
         <v>1824</v>
-      </c>
-      <c r="C49" t="n">
-        <v>1822</v>
       </c>
       <c r="D49" t="n">
         <v>1825</v>
       </c>
       <c r="E49" t="n">
-        <v>1812</v>
+        <v>1818</v>
       </c>
       <c r="F49" t="n">
-        <v>1385.8021</v>
+        <v>3569.2888</v>
       </c>
       <c r="G49" t="n">
-        <v>1774.266666666667</v>
+        <v>1772.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="C50" t="n">
-        <v>1825</v>
+        <v>1822</v>
       </c>
       <c r="D50" t="n">
         <v>1825</v>
       </c>
       <c r="E50" t="n">
-        <v>1806</v>
+        <v>1812</v>
       </c>
       <c r="F50" t="n">
-        <v>3449.1592</v>
+        <v>1385.8021</v>
       </c>
       <c r="G50" t="n">
-        <v>1775.816666666667</v>
+        <v>1774.266666666667</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,7 +2148,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="C51" t="n">
         <v>1825</v>
@@ -2157,13 +2157,13 @@
         <v>1825</v>
       </c>
       <c r="E51" t="n">
-        <v>1825</v>
+        <v>1806</v>
       </c>
       <c r="F51" t="n">
-        <v>546.5786000000001</v>
+        <v>3449.1592</v>
       </c>
       <c r="G51" t="n">
-        <v>1777.216666666667</v>
+        <v>1775.816666666667</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2195,10 +2195,10 @@
         <v>1825</v>
       </c>
       <c r="F52" t="n">
-        <v>463.6061</v>
+        <v>546.5786000000001</v>
       </c>
       <c r="G52" t="n">
-        <v>1778.616666666667</v>
+        <v>1777.216666666667</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1808</v>
+        <v>1825</v>
       </c>
       <c r="C53" t="n">
-        <v>1808</v>
+        <v>1825</v>
       </c>
       <c r="D53" t="n">
-        <v>1808</v>
+        <v>1825</v>
       </c>
       <c r="E53" t="n">
-        <v>1808</v>
+        <v>1825</v>
       </c>
       <c r="F53" t="n">
-        <v>41.4</v>
+        <v>463.6061</v>
       </c>
       <c r="G53" t="n">
-        <v>1779.533333333333</v>
+        <v>1778.616666666667</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2256,19 +2256,19 @@
         <v>1808</v>
       </c>
       <c r="C54" t="n">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="D54" t="n">
         <v>1808</v>
       </c>
       <c r="E54" t="n">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="F54" t="n">
-        <v>43.6178</v>
+        <v>41.4</v>
       </c>
       <c r="G54" t="n">
-        <v>1780.616666666667</v>
+        <v>1779.533333333333</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
+        <v>1808</v>
+      </c>
+      <c r="C55" t="n">
         <v>1807</v>
       </c>
-      <c r="C55" t="n">
-        <v>1806</v>
-      </c>
       <c r="D55" t="n">
+        <v>1808</v>
+      </c>
+      <c r="E55" t="n">
         <v>1807</v>
       </c>
-      <c r="E55" t="n">
-        <v>1806</v>
-      </c>
       <c r="F55" t="n">
-        <v>87.3096</v>
+        <v>43.6178</v>
       </c>
       <c r="G55" t="n">
-        <v>1781.683333333333</v>
+        <v>1780.616666666667</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
+        <v>1807</v>
+      </c>
+      <c r="C56" t="n">
         <v>1806</v>
       </c>
-      <c r="C56" t="n">
-        <v>1791</v>
-      </c>
       <c r="D56" t="n">
+        <v>1807</v>
+      </c>
+      <c r="E56" t="n">
         <v>1806</v>
       </c>
-      <c r="E56" t="n">
-        <v>1791</v>
-      </c>
       <c r="F56" t="n">
-        <v>460</v>
+        <v>87.3096</v>
       </c>
       <c r="G56" t="n">
-        <v>1782.516666666667</v>
+        <v>1781.683333333333</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1786</v>
+        <v>1806</v>
       </c>
       <c r="C57" t="n">
-        <v>1785</v>
+        <v>1791</v>
       </c>
       <c r="D57" t="n">
-        <v>1786</v>
+        <v>1806</v>
       </c>
       <c r="E57" t="n">
-        <v>1785</v>
+        <v>1791</v>
       </c>
       <c r="F57" t="n">
-        <v>284.6698</v>
+        <v>460</v>
       </c>
       <c r="G57" t="n">
-        <v>1783.25</v>
+        <v>1782.516666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
+        <v>1786</v>
+      </c>
+      <c r="C58" t="n">
         <v>1785</v>
       </c>
-      <c r="C58" t="n">
-        <v>1776</v>
-      </c>
       <c r="D58" t="n">
+        <v>1786</v>
+      </c>
+      <c r="E58" t="n">
         <v>1785</v>
       </c>
-      <c r="E58" t="n">
-        <v>1776</v>
-      </c>
       <c r="F58" t="n">
-        <v>1721.7753</v>
+        <v>284.6698</v>
       </c>
       <c r="G58" t="n">
-        <v>1783.633333333333</v>
+        <v>1783.25</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1776</v>
+        <v>1785</v>
       </c>
       <c r="C59" t="n">
         <v>1776</v>
       </c>
       <c r="D59" t="n">
-        <v>1776</v>
+        <v>1785</v>
       </c>
       <c r="E59" t="n">
         <v>1776</v>
       </c>
       <c r="F59" t="n">
-        <v>233.7372</v>
+        <v>1721.7753</v>
       </c>
       <c r="G59" t="n">
-        <v>1783.983333333333</v>
+        <v>1783.633333333333</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1782</v>
+        <v>1776</v>
       </c>
       <c r="C60" t="n">
-        <v>1782</v>
+        <v>1776</v>
       </c>
       <c r="D60" t="n">
-        <v>1782</v>
+        <v>1776</v>
       </c>
       <c r="E60" t="n">
-        <v>1782</v>
+        <v>1776</v>
       </c>
       <c r="F60" t="n">
-        <v>72.4571</v>
+        <v>233.7372</v>
       </c>
       <c r="G60" t="n">
-        <v>1784.666666666667</v>
+        <v>1783.983333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="C61" t="n">
-        <v>1807</v>
+        <v>1782</v>
       </c>
       <c r="D61" t="n">
-        <v>1807</v>
+        <v>1782</v>
       </c>
       <c r="E61" t="n">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="F61" t="n">
-        <v>1.3</v>
+        <v>72.4571</v>
       </c>
       <c r="G61" t="n">
-        <v>1785.633333333333</v>
+        <v>1784.666666666667</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1790</v>
+        <v>1784</v>
       </c>
       <c r="C62" t="n">
-        <v>1790</v>
+        <v>1807</v>
       </c>
       <c r="D62" t="n">
-        <v>1790</v>
+        <v>1807</v>
       </c>
       <c r="E62" t="n">
-        <v>1790</v>
+        <v>1784</v>
       </c>
       <c r="F62" t="n">
-        <v>39.4296</v>
+        <v>1.3</v>
       </c>
       <c r="G62" t="n">
-        <v>1786.216666666667</v>
+        <v>1785.633333333333</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2571,19 +2571,19 @@
         <v>1790</v>
       </c>
       <c r="C63" t="n">
-        <v>1806</v>
+        <v>1790</v>
       </c>
       <c r="D63" t="n">
-        <v>1806</v>
+        <v>1790</v>
       </c>
       <c r="E63" t="n">
         <v>1790</v>
       </c>
       <c r="F63" t="n">
-        <v>45</v>
+        <v>39.4296</v>
       </c>
       <c r="G63" t="n">
-        <v>1787.016666666667</v>
+        <v>1786.216666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
+        <v>1790</v>
+      </c>
+      <c r="C64" t="n">
         <v>1806</v>
       </c>
-      <c r="C64" t="n">
-        <v>1811</v>
-      </c>
       <c r="D64" t="n">
-        <v>1811</v>
+        <v>1806</v>
       </c>
       <c r="E64" t="n">
-        <v>1806</v>
+        <v>1790</v>
       </c>
       <c r="F64" t="n">
-        <v>784.1191</v>
+        <v>45</v>
       </c>
       <c r="G64" t="n">
-        <v>1787.9</v>
+        <v>1787.016666666667</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1799</v>
+        <v>1806</v>
       </c>
       <c r="C65" t="n">
-        <v>1799</v>
+        <v>1811</v>
       </c>
       <c r="D65" t="n">
-        <v>1800</v>
+        <v>1811</v>
       </c>
       <c r="E65" t="n">
-        <v>1799</v>
+        <v>1806</v>
       </c>
       <c r="F65" t="n">
-        <v>2325.316</v>
+        <v>784.1191</v>
       </c>
       <c r="G65" t="n">
-        <v>1788.583333333333</v>
+        <v>1787.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="C66" t="n">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="D66" t="n">
         <v>1800</v>
       </c>
       <c r="E66" t="n">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="F66" t="n">
-        <v>11.2935</v>
+        <v>2325.316</v>
       </c>
       <c r="G66" t="n">
-        <v>1789.283333333333</v>
+        <v>1788.583333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2720,10 +2720,10 @@
         <v>1800</v>
       </c>
       <c r="F67" t="n">
-        <v>15.0707</v>
+        <v>11.2935</v>
       </c>
       <c r="G67" t="n">
-        <v>1789.983333333333</v>
+        <v>1789.283333333333</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2746,19 +2746,19 @@
         <v>1800</v>
       </c>
       <c r="C68" t="n">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="D68" t="n">
         <v>1800</v>
       </c>
       <c r="E68" t="n">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="F68" t="n">
-        <v>276.126</v>
+        <v>15.0707</v>
       </c>
       <c r="G68" t="n">
-        <v>1790.666666666667</v>
+        <v>1789.983333333333</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="C69" t="n">
         <v>1799</v>
       </c>
       <c r="D69" t="n">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="E69" t="n">
         <v>1799</v>
       </c>
       <c r="F69" t="n">
-        <v>323</v>
+        <v>276.126</v>
       </c>
       <c r="G69" t="n">
-        <v>1791.55</v>
+        <v>1790.666666666667</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1805</v>
+        <v>1799</v>
       </c>
       <c r="C70" t="n">
-        <v>1805</v>
+        <v>1799</v>
       </c>
       <c r="D70" t="n">
-        <v>1805</v>
+        <v>1799</v>
       </c>
       <c r="E70" t="n">
-        <v>1805</v>
+        <v>1799</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6327</v>
+        <v>323</v>
       </c>
       <c r="G70" t="n">
-        <v>1792.666666666667</v>
+        <v>1791.55</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1799</v>
+        <v>1805</v>
       </c>
       <c r="C71" t="n">
-        <v>1799</v>
+        <v>1805</v>
       </c>
       <c r="D71" t="n">
-        <v>1799</v>
+        <v>1805</v>
       </c>
       <c r="E71" t="n">
-        <v>1799</v>
+        <v>1805</v>
       </c>
       <c r="F71" t="n">
-        <v>0.3182</v>
+        <v>0.6327</v>
       </c>
       <c r="G71" t="n">
-        <v>1793.683333333333</v>
+        <v>1792.666666666667</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1788</v>
+        <v>1799</v>
       </c>
       <c r="C72" t="n">
-        <v>1788</v>
+        <v>1799</v>
       </c>
       <c r="D72" t="n">
-        <v>1788</v>
+        <v>1799</v>
       </c>
       <c r="E72" t="n">
-        <v>1788</v>
+        <v>1799</v>
       </c>
       <c r="F72" t="n">
-        <v>98.3586</v>
+        <v>0.3182</v>
       </c>
       <c r="G72" t="n">
-        <v>1794.083333333333</v>
+        <v>1793.683333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1780</v>
+        <v>1788</v>
       </c>
       <c r="C73" t="n">
-        <v>1780</v>
+        <v>1788</v>
       </c>
       <c r="D73" t="n">
-        <v>1780</v>
+        <v>1788</v>
       </c>
       <c r="E73" t="n">
-        <v>1780</v>
+        <v>1788</v>
       </c>
       <c r="F73" t="n">
-        <v>839.5242</v>
+        <v>98.3586</v>
       </c>
       <c r="G73" t="n">
-        <v>1794.533333333333</v>
+        <v>1794.083333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1777</v>
+        <v>1780</v>
       </c>
       <c r="C74" t="n">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="D74" t="n">
-        <v>1777</v>
+        <v>1780</v>
       </c>
       <c r="E74" t="n">
-        <v>1776</v>
+        <v>1780</v>
       </c>
       <c r="F74" t="n">
-        <v>77.1503</v>
+        <v>839.5242</v>
       </c>
       <c r="G74" t="n">
-        <v>1794.933333333333</v>
+        <v>1794.533333333333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1786</v>
+        <v>1777</v>
       </c>
       <c r="C75" t="n">
-        <v>1787</v>
+        <v>1776</v>
       </c>
       <c r="D75" t="n">
-        <v>1787</v>
+        <v>1777</v>
       </c>
       <c r="E75" t="n">
-        <v>1786</v>
+        <v>1776</v>
       </c>
       <c r="F75" t="n">
-        <v>1558.068</v>
+        <v>77.1503</v>
       </c>
       <c r="G75" t="n">
-        <v>1795.333333333333</v>
+        <v>1794.933333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,7 +3023,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="C76" t="n">
         <v>1787</v>
@@ -3032,13 +3032,13 @@
         <v>1787</v>
       </c>
       <c r="E76" t="n">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="F76" t="n">
-        <v>19.7155</v>
+        <v>1558.068</v>
       </c>
       <c r="G76" t="n">
-        <v>1795.783333333333</v>
+        <v>1795.333333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="C77" t="n">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="D77" t="n">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="E77" t="n">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="F77" t="n">
-        <v>335.7313</v>
+        <v>19.7155</v>
       </c>
       <c r="G77" t="n">
-        <v>1796.45</v>
+        <v>1795.783333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1774</v>
+        <v>1786</v>
       </c>
       <c r="C78" t="n">
-        <v>1774</v>
+        <v>1786</v>
       </c>
       <c r="D78" t="n">
-        <v>1774</v>
+        <v>1786</v>
       </c>
       <c r="E78" t="n">
-        <v>1774</v>
+        <v>1786</v>
       </c>
       <c r="F78" t="n">
-        <v>10.8392</v>
+        <v>335.7313</v>
       </c>
       <c r="G78" t="n">
-        <v>1796.816666666667</v>
+        <v>1796.45</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1789</v>
+        <v>1774</v>
       </c>
       <c r="C79" t="n">
-        <v>1789</v>
+        <v>1774</v>
       </c>
       <c r="D79" t="n">
-        <v>1789</v>
+        <v>1774</v>
       </c>
       <c r="E79" t="n">
-        <v>1789</v>
+        <v>1774</v>
       </c>
       <c r="F79" t="n">
-        <v>0.28</v>
+        <v>10.8392</v>
       </c>
       <c r="G79" t="n">
-        <v>1797.466666666667</v>
+        <v>1796.816666666667</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1777</v>
+        <v>1789</v>
       </c>
       <c r="C80" t="n">
-        <v>1776</v>
+        <v>1789</v>
       </c>
       <c r="D80" t="n">
-        <v>1777</v>
+        <v>1789</v>
       </c>
       <c r="E80" t="n">
-        <v>1776</v>
+        <v>1789</v>
       </c>
       <c r="F80" t="n">
-        <v>784.1191</v>
+        <v>0.28</v>
       </c>
       <c r="G80" t="n">
-        <v>1797.9</v>
+        <v>1797.466666666667</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1790</v>
+        <v>1777</v>
       </c>
       <c r="C81" t="n">
-        <v>1791</v>
+        <v>1776</v>
       </c>
       <c r="D81" t="n">
-        <v>1791</v>
+        <v>1777</v>
       </c>
       <c r="E81" t="n">
-        <v>1790</v>
+        <v>1776</v>
       </c>
       <c r="F81" t="n">
-        <v>1040</v>
+        <v>784.1191</v>
       </c>
       <c r="G81" t="n">
-        <v>1798.55</v>
+        <v>1797.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,7 +3233,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="C82" t="n">
         <v>1791</v>
@@ -3242,13 +3242,13 @@
         <v>1791</v>
       </c>
       <c r="E82" t="n">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="F82" t="n">
-        <v>54.3085</v>
+        <v>1040</v>
       </c>
       <c r="G82" t="n">
-        <v>1799.083333333333</v>
+        <v>1798.55</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1803</v>
+        <v>1791</v>
       </c>
       <c r="C83" t="n">
-        <v>1803</v>
+        <v>1791</v>
       </c>
       <c r="D83" t="n">
-        <v>1803</v>
+        <v>1791</v>
       </c>
       <c r="E83" t="n">
-        <v>1803</v>
+        <v>1791</v>
       </c>
       <c r="F83" t="n">
-        <v>0.55463117</v>
+        <v>54.3085</v>
       </c>
       <c r="G83" t="n">
-        <v>1799.8</v>
+        <v>1799.083333333333</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1800</v>
+        <v>1803</v>
       </c>
       <c r="C84" t="n">
-        <v>1800</v>
+        <v>1803</v>
       </c>
       <c r="D84" t="n">
-        <v>1800</v>
+        <v>1803</v>
       </c>
       <c r="E84" t="n">
-        <v>1800</v>
+        <v>1803</v>
       </c>
       <c r="F84" t="n">
-        <v>33.3944</v>
+        <v>0.55463117</v>
       </c>
       <c r="G84" t="n">
-        <v>1800.366666666667</v>
+        <v>1799.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,7 +3338,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="C85" t="n">
         <v>1800</v>
@@ -3347,13 +3347,13 @@
         <v>1800</v>
       </c>
       <c r="E85" t="n">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="F85" t="n">
-        <v>1200</v>
+        <v>33.3944</v>
       </c>
       <c r="G85" t="n">
-        <v>1800.783333333333</v>
+        <v>1800.366666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3376,19 +3376,19 @@
         <v>1799</v>
       </c>
       <c r="C86" t="n">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="D86" t="n">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="E86" t="n">
         <v>1799</v>
       </c>
       <c r="F86" t="n">
-        <v>1017.255</v>
+        <v>1200</v>
       </c>
       <c r="G86" t="n">
-        <v>1801.05</v>
+        <v>1800.783333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1781</v>
+        <v>1799</v>
       </c>
       <c r="C87" t="n">
-        <v>1781</v>
+        <v>1799</v>
       </c>
       <c r="D87" t="n">
-        <v>1781</v>
+        <v>1799</v>
       </c>
       <c r="E87" t="n">
-        <v>1781</v>
+        <v>1799</v>
       </c>
       <c r="F87" t="n">
-        <v>29.9699</v>
+        <v>1017.255</v>
       </c>
       <c r="G87" t="n">
-        <v>1801.033333333333</v>
+        <v>1801.05</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3455,10 +3455,10 @@
         <v>1781</v>
       </c>
       <c r="F88" t="n">
-        <v>38.9609</v>
+        <v>29.9699</v>
       </c>
       <c r="G88" t="n">
-        <v>1800.933333333333</v>
+        <v>1801.033333333333</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="C89" t="n">
-        <v>1778</v>
+        <v>1781</v>
       </c>
       <c r="D89" t="n">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="E89" t="n">
-        <v>1770</v>
+        <v>1781</v>
       </c>
       <c r="F89" t="n">
-        <v>1166.137</v>
+        <v>38.9609</v>
       </c>
       <c r="G89" t="n">
-        <v>1800.783333333333</v>
+        <v>1800.933333333333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1771</v>
+        <v>1780</v>
       </c>
       <c r="C90" t="n">
-        <v>1770</v>
+        <v>1778</v>
       </c>
       <c r="D90" t="n">
-        <v>1771</v>
+        <v>1780</v>
       </c>
       <c r="E90" t="n">
         <v>1770</v>
       </c>
       <c r="F90" t="n">
-        <v>126.38</v>
+        <v>1166.137</v>
       </c>
       <c r="G90" t="n">
-        <v>1800.533333333333</v>
+        <v>1800.783333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1769</v>
+        <v>1771</v>
       </c>
       <c r="C91" t="n">
-        <v>1767</v>
+        <v>1770</v>
       </c>
       <c r="D91" t="n">
-        <v>1769</v>
+        <v>1771</v>
       </c>
       <c r="E91" t="n">
-        <v>1767</v>
+        <v>1770</v>
       </c>
       <c r="F91" t="n">
-        <v>69.2132</v>
+        <v>126.38</v>
       </c>
       <c r="G91" t="n">
-        <v>1800.2</v>
+        <v>1800.533333333333</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1767</v>
+        <v>1769</v>
       </c>
       <c r="C92" t="n">
         <v>1767</v>
       </c>
       <c r="D92" t="n">
-        <v>1767</v>
+        <v>1769</v>
       </c>
       <c r="E92" t="n">
         <v>1767</v>
       </c>
       <c r="F92" t="n">
-        <v>20.1122</v>
+        <v>69.2132</v>
       </c>
       <c r="G92" t="n">
-        <v>1799.866666666667</v>
+        <v>1800.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1743</v>
+        <v>1767</v>
       </c>
       <c r="C93" t="n">
-        <v>1737</v>
+        <v>1767</v>
       </c>
       <c r="D93" t="n">
-        <v>1743</v>
+        <v>1767</v>
       </c>
       <c r="E93" t="n">
-        <v>1737</v>
+        <v>1767</v>
       </c>
       <c r="F93" t="n">
-        <v>33.88</v>
+        <v>20.1122</v>
       </c>
       <c r="G93" t="n">
-        <v>1798.8</v>
+        <v>1799.866666666667</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1737</v>
+        <v>1743</v>
       </c>
       <c r="C94" t="n">
         <v>1737</v>
       </c>
       <c r="D94" t="n">
-        <v>1737</v>
+        <v>1743</v>
       </c>
       <c r="E94" t="n">
         <v>1737</v>
       </c>
       <c r="F94" t="n">
-        <v>1.8068</v>
+        <v>33.88</v>
       </c>
       <c r="G94" t="n">
-        <v>1797.366666666667</v>
+        <v>1798.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1754</v>
+        <v>1737</v>
       </c>
       <c r="C95" t="n">
-        <v>1754</v>
+        <v>1737</v>
       </c>
       <c r="D95" t="n">
-        <v>1754</v>
+        <v>1737</v>
       </c>
       <c r="E95" t="n">
-        <v>1754</v>
+        <v>1737</v>
       </c>
       <c r="F95" t="n">
-        <v>129.587</v>
+        <v>1.8068</v>
       </c>
       <c r="G95" t="n">
-        <v>1796.2</v>
+        <v>1797.366666666667</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1741</v>
+        <v>1754</v>
       </c>
       <c r="C96" t="n">
-        <v>1739</v>
+        <v>1754</v>
       </c>
       <c r="D96" t="n">
-        <v>1741</v>
+        <v>1754</v>
       </c>
       <c r="E96" t="n">
-        <v>1739</v>
+        <v>1754</v>
       </c>
       <c r="F96" t="n">
-        <v>260</v>
+        <v>129.587</v>
       </c>
       <c r="G96" t="n">
-        <v>1795.066666666667</v>
+        <v>1796.2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1749</v>
+        <v>1741</v>
       </c>
       <c r="C97" t="n">
-        <v>1749</v>
+        <v>1739</v>
       </c>
       <c r="D97" t="n">
-        <v>1750</v>
+        <v>1741</v>
       </c>
       <c r="E97" t="n">
-        <v>1749</v>
+        <v>1739</v>
       </c>
       <c r="F97" t="n">
-        <v>1386.2611</v>
+        <v>260</v>
       </c>
       <c r="G97" t="n">
-        <v>1793.883333333333</v>
+        <v>1795.066666666667</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1760</v>
+        <v>1749</v>
       </c>
       <c r="C98" t="n">
-        <v>1760</v>
+        <v>1749</v>
       </c>
       <c r="D98" t="n">
-        <v>1760</v>
+        <v>1750</v>
       </c>
       <c r="E98" t="n">
-        <v>1760</v>
+        <v>1749</v>
       </c>
       <c r="F98" t="n">
-        <v>17.43181818</v>
+        <v>1386.2611</v>
       </c>
       <c r="G98" t="n">
-        <v>1792.9</v>
+        <v>1793.883333333333</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1749</v>
+        <v>1760</v>
       </c>
       <c r="C99" t="n">
-        <v>1749</v>
+        <v>1760</v>
       </c>
       <c r="D99" t="n">
-        <v>1749</v>
+        <v>1760</v>
       </c>
       <c r="E99" t="n">
-        <v>1749</v>
+        <v>1760</v>
       </c>
       <c r="F99" t="n">
-        <v>190.16</v>
+        <v>17.43181818</v>
       </c>
       <c r="G99" t="n">
-        <v>1791.733333333333</v>
+        <v>1792.9</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3875,10 +3875,10 @@
         <v>1749</v>
       </c>
       <c r="F100" t="n">
-        <v>247.2245</v>
+        <v>190.16</v>
       </c>
       <c r="G100" t="n">
-        <v>1790.533333333333</v>
+        <v>1791.733333333333</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1733</v>
+        <v>1749</v>
       </c>
       <c r="C101" t="n">
-        <v>1730</v>
+        <v>1749</v>
       </c>
       <c r="D101" t="n">
-        <v>1733</v>
+        <v>1749</v>
       </c>
       <c r="E101" t="n">
-        <v>1730</v>
+        <v>1749</v>
       </c>
       <c r="F101" t="n">
-        <v>291.7395</v>
+        <v>247.2245</v>
       </c>
       <c r="G101" t="n">
-        <v>1789.033333333333</v>
+        <v>1790.533333333333</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1721</v>
+        <v>1733</v>
       </c>
       <c r="C102" t="n">
-        <v>1722</v>
+        <v>1730</v>
       </c>
       <c r="D102" t="n">
-        <v>1722</v>
+        <v>1733</v>
       </c>
       <c r="E102" t="n">
-        <v>1721</v>
+        <v>1730</v>
       </c>
       <c r="F102" t="n">
-        <v>218.8623</v>
+        <v>291.7395</v>
       </c>
       <c r="G102" t="n">
-        <v>1787.65</v>
+        <v>1789.033333333333</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1728</v>
+        <v>1721</v>
       </c>
       <c r="C103" t="n">
-        <v>1719</v>
+        <v>1722</v>
       </c>
       <c r="D103" t="n">
-        <v>1728</v>
+        <v>1722</v>
       </c>
       <c r="E103" t="n">
-        <v>1719</v>
+        <v>1721</v>
       </c>
       <c r="F103" t="n">
-        <v>2213.3885</v>
+        <v>218.8623</v>
       </c>
       <c r="G103" t="n">
-        <v>1785.85</v>
+        <v>1787.65</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1719</v>
+        <v>1728</v>
       </c>
       <c r="C104" t="n">
         <v>1719</v>
       </c>
       <c r="D104" t="n">
-        <v>1719</v>
+        <v>1728</v>
       </c>
       <c r="E104" t="n">
         <v>1719</v>
       </c>
       <c r="F104" t="n">
-        <v>486.5321</v>
+        <v>2213.3885</v>
       </c>
       <c r="G104" t="n">
-        <v>1784.416666666667</v>
+        <v>1785.85</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4041,19 +4041,19 @@
         <v>1719</v>
       </c>
       <c r="C105" t="n">
-        <v>1717</v>
+        <v>1719</v>
       </c>
       <c r="D105" t="n">
         <v>1719</v>
       </c>
       <c r="E105" t="n">
-        <v>1717</v>
+        <v>1719</v>
       </c>
       <c r="F105" t="n">
-        <v>1128.3375</v>
+        <v>486.5321</v>
       </c>
       <c r="G105" t="n">
-        <v>1782.85</v>
+        <v>1784.416666666667</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1700</v>
+        <v>1719</v>
       </c>
       <c r="C106" t="n">
-        <v>1700</v>
+        <v>1717</v>
       </c>
       <c r="D106" t="n">
-        <v>1700</v>
+        <v>1719</v>
       </c>
       <c r="E106" t="n">
-        <v>1700</v>
+        <v>1717</v>
       </c>
       <c r="F106" t="n">
-        <v>534.525</v>
+        <v>1128.3375</v>
       </c>
       <c r="G106" t="n">
-        <v>1780.816666666667</v>
+        <v>1782.85</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4108,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1721</v>
+        <v>1700</v>
       </c>
       <c r="C107" t="n">
-        <v>1723</v>
+        <v>1700</v>
       </c>
       <c r="D107" t="n">
-        <v>1723</v>
+        <v>1700</v>
       </c>
       <c r="E107" t="n">
-        <v>1721</v>
+        <v>1700</v>
       </c>
       <c r="F107" t="n">
-        <v>1830.6382</v>
+        <v>534.525</v>
       </c>
       <c r="G107" t="n">
-        <v>1779.033333333333</v>
+        <v>1780.816666666667</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1724</v>
+        <v>1721</v>
       </c>
       <c r="C108" t="n">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="D108" t="n">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="E108" t="n">
-        <v>1724</v>
+        <v>1721</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9167999999999999</v>
+        <v>1830.6382</v>
       </c>
       <c r="G108" t="n">
-        <v>1777.366666666667</v>
+        <v>1779.033333333333</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4178,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1709</v>
+        <v>1724</v>
       </c>
       <c r="C109" t="n">
-        <v>1709</v>
+        <v>1724</v>
       </c>
       <c r="D109" t="n">
-        <v>1709</v>
+        <v>1724</v>
       </c>
       <c r="E109" t="n">
-        <v>1709</v>
+        <v>1724</v>
       </c>
       <c r="F109" t="n">
-        <v>285.2936</v>
+        <v>0.9167999999999999</v>
       </c>
       <c r="G109" t="n">
-        <v>1775.483333333333</v>
+        <v>1777.366666666667</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4225,10 +4225,10 @@
         <v>1709</v>
       </c>
       <c r="F110" t="n">
-        <v>157.3126</v>
+        <v>285.2936</v>
       </c>
       <c r="G110" t="n">
-        <v>1773.55</v>
+        <v>1775.483333333333</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4260,10 +4260,10 @@
         <v>1709</v>
       </c>
       <c r="F111" t="n">
-        <v>45</v>
+        <v>157.3126</v>
       </c>
       <c r="G111" t="n">
-        <v>1771.616666666667</v>
+        <v>1773.55</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4295,10 +4295,10 @@
         <v>1709</v>
       </c>
       <c r="F112" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G112" t="n">
-        <v>1769.683333333333</v>
+        <v>1771.616666666667</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,38 +4318,32 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1706</v>
+        <v>1709</v>
       </c>
       <c r="C113" t="n">
-        <v>1705</v>
+        <v>1709</v>
       </c>
       <c r="D113" t="n">
-        <v>1706</v>
+        <v>1709</v>
       </c>
       <c r="E113" t="n">
-        <v>1705</v>
+        <v>1709</v>
       </c>
       <c r="F113" t="n">
-        <v>25.4189</v>
+        <v>50</v>
       </c>
       <c r="G113" t="n">
-        <v>1767.966666666667</v>
+        <v>1769.683333333333</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>1709</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4359,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="C114" t="n">
+        <v>1705</v>
+      </c>
+      <c r="D114" t="n">
         <v>1706</v>
       </c>
-      <c r="D114" t="n">
-        <v>1707</v>
-      </c>
       <c r="E114" t="n">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="F114" t="n">
-        <v>116.7282</v>
+        <v>25.4189</v>
       </c>
       <c r="G114" t="n">
-        <v>1766.283333333333</v>
+        <v>1767.966666666667</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4384,11 +4378,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4398,22 +4388,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
+        <v>1707</v>
+      </c>
+      <c r="C115" t="n">
         <v>1706</v>
       </c>
-      <c r="C115" t="n">
-        <v>1690</v>
-      </c>
       <c r="D115" t="n">
+        <v>1707</v>
+      </c>
+      <c r="E115" t="n">
         <v>1706</v>
       </c>
-      <c r="E115" t="n">
-        <v>1690</v>
-      </c>
       <c r="F115" t="n">
-        <v>260.7987</v>
+        <v>116.7282</v>
       </c>
       <c r="G115" t="n">
-        <v>1764.35</v>
+        <v>1766.283333333333</v>
       </c>
       <c r="H115" t="n">
         <v>1</v>
@@ -4422,14 +4412,12 @@
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>1706</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1705</v>
+      </c>
+      <c r="K115" t="n">
+        <v>1705</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4439,22 +4427,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1688</v>
+        <v>1706</v>
       </c>
       <c r="C116" t="n">
-        <v>1688</v>
+        <v>1690</v>
       </c>
       <c r="D116" t="n">
-        <v>1688</v>
+        <v>1706</v>
       </c>
       <c r="E116" t="n">
-        <v>1688</v>
+        <v>1690</v>
       </c>
       <c r="F116" t="n">
-        <v>49.7884</v>
+        <v>260.7987</v>
       </c>
       <c r="G116" t="n">
-        <v>1762.633333333333</v>
+        <v>1764.35</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4463,10 +4451,12 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1705</v>
+      </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M116" t="n">
@@ -4481,28 +4471,32 @@
         <v>1688</v>
       </c>
       <c r="C117" t="n">
-        <v>1709</v>
+        <v>1688</v>
       </c>
       <c r="D117" t="n">
-        <v>1709</v>
+        <v>1688</v>
       </c>
       <c r="E117" t="n">
         <v>1688</v>
       </c>
       <c r="F117" t="n">
-        <v>33</v>
+        <v>49.7884</v>
       </c>
       <c r="G117" t="n">
-        <v>1761.366666666667</v>
+        <v>1762.633333333333</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>1690</v>
+      </c>
+      <c r="K117" t="n">
+        <v>1705</v>
+      </c>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4517,22 +4511,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1710</v>
+        <v>1688</v>
       </c>
       <c r="C118" t="n">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D118" t="n">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="E118" t="n">
-        <v>1710</v>
+        <v>1688</v>
       </c>
       <c r="F118" t="n">
-        <v>0.6463</v>
+        <v>33</v>
       </c>
       <c r="G118" t="n">
-        <v>1760.266666666667</v>
+        <v>1761.366666666667</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4541,7 +4535,9 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1705</v>
+      </c>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4556,22 +4552,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1717</v>
+        <v>1710</v>
       </c>
       <c r="C119" t="n">
-        <v>1731</v>
+        <v>1710</v>
       </c>
       <c r="D119" t="n">
-        <v>1731</v>
+        <v>1710</v>
       </c>
       <c r="E119" t="n">
-        <v>1717</v>
+        <v>1710</v>
       </c>
       <c r="F119" t="n">
-        <v>1890.9326</v>
+        <v>0.6463</v>
       </c>
       <c r="G119" t="n">
-        <v>1759.516666666667</v>
+        <v>1760.266666666667</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4580,7 +4576,9 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1705</v>
+      </c>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4595,22 +4593,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1744</v>
+        <v>1717</v>
       </c>
       <c r="C120" t="n">
-        <v>1744</v>
+        <v>1731</v>
       </c>
       <c r="D120" t="n">
-        <v>1744</v>
+        <v>1731</v>
       </c>
       <c r="E120" t="n">
-        <v>1744</v>
+        <v>1717</v>
       </c>
       <c r="F120" t="n">
-        <v>753.6427</v>
+        <v>1890.9326</v>
       </c>
       <c r="G120" t="n">
-        <v>1758.883333333333</v>
+        <v>1759.516666666667</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4619,7 +4617,9 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1705</v>
+      </c>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4634,22 +4634,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1725</v>
+        <v>1744</v>
       </c>
       <c r="C121" t="n">
-        <v>1724</v>
+        <v>1744</v>
       </c>
       <c r="D121" t="n">
-        <v>1725</v>
+        <v>1744</v>
       </c>
       <c r="E121" t="n">
-        <v>1724</v>
+        <v>1744</v>
       </c>
       <c r="F121" t="n">
-        <v>84.396</v>
+        <v>753.6427</v>
       </c>
       <c r="G121" t="n">
-        <v>1757.5</v>
+        <v>1758.883333333333</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4658,7 +4658,9 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1705</v>
+      </c>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4673,22 +4675,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1723</v>
+        <v>1725</v>
       </c>
       <c r="C122" t="n">
-        <v>1742</v>
+        <v>1724</v>
       </c>
       <c r="D122" t="n">
-        <v>1742</v>
+        <v>1725</v>
       </c>
       <c r="E122" t="n">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="F122" t="n">
-        <v>15.5</v>
+        <v>84.396</v>
       </c>
       <c r="G122" t="n">
-        <v>1756.7</v>
+        <v>1757.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4697,7 +4699,9 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1705</v>
+      </c>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4712,22 +4716,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1731</v>
+        <v>1723</v>
       </c>
       <c r="C123" t="n">
-        <v>1732</v>
+        <v>1742</v>
       </c>
       <c r="D123" t="n">
-        <v>1732</v>
+        <v>1742</v>
       </c>
       <c r="E123" t="n">
-        <v>1731</v>
+        <v>1723</v>
       </c>
       <c r="F123" t="n">
-        <v>196.8085</v>
+        <v>15.5</v>
       </c>
       <c r="G123" t="n">
-        <v>1755.466666666667</v>
+        <v>1756.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4736,7 +4740,9 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1705</v>
+      </c>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4751,10 +4757,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
+        <v>1731</v>
+      </c>
+      <c r="C124" t="n">
         <v>1732</v>
-      </c>
-      <c r="C124" t="n">
-        <v>1731</v>
       </c>
       <c r="D124" t="n">
         <v>1732</v>
@@ -4763,10 +4769,10 @@
         <v>1731</v>
       </c>
       <c r="F124" t="n">
-        <v>121.6593</v>
+        <v>196.8085</v>
       </c>
       <c r="G124" t="n">
-        <v>1754.133333333333</v>
+        <v>1755.466666666667</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4775,7 +4781,9 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1705</v>
+      </c>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4790,22 +4798,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1739</v>
+        <v>1732</v>
       </c>
       <c r="C125" t="n">
-        <v>1721</v>
+        <v>1731</v>
       </c>
       <c r="D125" t="n">
-        <v>1739</v>
+        <v>1732</v>
       </c>
       <c r="E125" t="n">
-        <v>1721</v>
+        <v>1731</v>
       </c>
       <c r="F125" t="n">
-        <v>16.8822</v>
+        <v>121.6593</v>
       </c>
       <c r="G125" t="n">
-        <v>1752.833333333333</v>
+        <v>1754.133333333333</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4814,7 +4822,9 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1705</v>
+      </c>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4829,22 +4839,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="C126" t="n">
-        <v>1738</v>
+        <v>1721</v>
       </c>
       <c r="D126" t="n">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="E126" t="n">
-        <v>1738</v>
+        <v>1721</v>
       </c>
       <c r="F126" t="n">
-        <v>0.5</v>
+        <v>16.8822</v>
       </c>
       <c r="G126" t="n">
-        <v>1751.8</v>
+        <v>1752.833333333333</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4853,7 +4863,9 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1705</v>
+      </c>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4880,10 +4892,10 @@
         <v>1738</v>
       </c>
       <c r="F127" t="n">
-        <v>31.57192174</v>
+        <v>0.5</v>
       </c>
       <c r="G127" t="n">
-        <v>1750.766666666667</v>
+        <v>1751.8</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4892,7 +4904,9 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1705</v>
+      </c>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4907,22 +4921,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1734</v>
+        <v>1738</v>
       </c>
       <c r="C128" t="n">
-        <v>1735</v>
+        <v>1738</v>
       </c>
       <c r="D128" t="n">
-        <v>1736</v>
+        <v>1738</v>
       </c>
       <c r="E128" t="n">
-        <v>1734</v>
+        <v>1738</v>
       </c>
       <c r="F128" t="n">
-        <v>1366.3323</v>
+        <v>31.57192174</v>
       </c>
       <c r="G128" t="n">
-        <v>1749.7</v>
+        <v>1750.766666666667</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4931,7 +4945,9 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1705</v>
+      </c>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4946,7 +4962,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="C129" t="n">
         <v>1735</v>
@@ -4955,13 +4971,13 @@
         <v>1736</v>
       </c>
       <c r="E129" t="n">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="F129" t="n">
-        <v>479.4109</v>
+        <v>1366.3323</v>
       </c>
       <c r="G129" t="n">
-        <v>1748.633333333333</v>
+        <v>1749.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4970,7 +4986,9 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1705</v>
+      </c>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4985,22 +5003,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1723</v>
+        <v>1735</v>
       </c>
       <c r="C130" t="n">
-        <v>1722</v>
+        <v>1735</v>
       </c>
       <c r="D130" t="n">
-        <v>1723</v>
+        <v>1736</v>
       </c>
       <c r="E130" t="n">
-        <v>1722</v>
+        <v>1735</v>
       </c>
       <c r="F130" t="n">
-        <v>326.17</v>
+        <v>479.4109</v>
       </c>
       <c r="G130" t="n">
-        <v>1747.25</v>
+        <v>1748.633333333333</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5009,7 +5027,9 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1705</v>
+      </c>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5024,22 +5044,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>1738</v>
+        <v>1723</v>
       </c>
       <c r="C131" t="n">
-        <v>1738</v>
+        <v>1722</v>
       </c>
       <c r="D131" t="n">
-        <v>1738</v>
+        <v>1723</v>
       </c>
       <c r="E131" t="n">
-        <v>1738</v>
+        <v>1722</v>
       </c>
       <c r="F131" t="n">
-        <v>0.5</v>
+        <v>326.17</v>
       </c>
       <c r="G131" t="n">
-        <v>1746.233333333333</v>
+        <v>1747.25</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5048,7 +5068,9 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1705</v>
+      </c>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5063,22 +5085,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1735</v>
+        <v>1738</v>
       </c>
       <c r="C132" t="n">
-        <v>1741</v>
+        <v>1738</v>
       </c>
       <c r="D132" t="n">
-        <v>1741</v>
+        <v>1738</v>
       </c>
       <c r="E132" t="n">
-        <v>1724</v>
+        <v>1738</v>
       </c>
       <c r="F132" t="n">
-        <v>149.0995</v>
+        <v>0.5</v>
       </c>
       <c r="G132" t="n">
-        <v>1745.45</v>
+        <v>1746.233333333333</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5087,7 +5109,9 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1705</v>
+      </c>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5102,22 +5126,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1724</v>
+        <v>1735</v>
       </c>
       <c r="C133" t="n">
-        <v>1724</v>
+        <v>1741</v>
       </c>
       <c r="D133" t="n">
-        <v>1724</v>
+        <v>1741</v>
       </c>
       <c r="E133" t="n">
         <v>1724</v>
       </c>
       <c r="F133" t="n">
-        <v>44.423</v>
+        <v>149.0995</v>
       </c>
       <c r="G133" t="n">
-        <v>1744.516666666667</v>
+        <v>1745.45</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5126,7 +5150,9 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1705</v>
+      </c>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5141,22 +5167,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="C134" t="n">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="D134" t="n">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="E134" t="n">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="F134" t="n">
-        <v>42.1169</v>
+        <v>44.423</v>
       </c>
       <c r="G134" t="n">
-        <v>1743.666666666667</v>
+        <v>1744.516666666667</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5165,7 +5191,9 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1705</v>
+      </c>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5180,22 +5208,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>1724</v>
+        <v>1726</v>
       </c>
       <c r="C135" t="n">
-        <v>1723</v>
+        <v>1725</v>
       </c>
       <c r="D135" t="n">
-        <v>1724</v>
+        <v>1726</v>
       </c>
       <c r="E135" t="n">
-        <v>1723</v>
+        <v>1725</v>
       </c>
       <c r="F135" t="n">
-        <v>1344.2888</v>
+        <v>42.1169</v>
       </c>
       <c r="G135" t="n">
-        <v>1742.6</v>
+        <v>1743.666666666667</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5204,7 +5232,9 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1705</v>
+      </c>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5219,7 +5249,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="C136" t="n">
         <v>1723</v>
@@ -5231,10 +5261,10 @@
         <v>1723</v>
       </c>
       <c r="F136" t="n">
-        <v>5493.8386</v>
+        <v>1344.2888</v>
       </c>
       <c r="G136" t="n">
-        <v>1741.533333333333</v>
+        <v>1742.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5243,7 +5273,9 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1705</v>
+      </c>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5261,19 +5293,19 @@
         <v>1723</v>
       </c>
       <c r="C137" t="n">
-        <v>1720</v>
+        <v>1723</v>
       </c>
       <c r="D137" t="n">
+        <v>1724</v>
+      </c>
+      <c r="E137" t="n">
         <v>1723</v>
       </c>
-      <c r="E137" t="n">
-        <v>1720</v>
-      </c>
       <c r="F137" t="n">
-        <v>1696.7212</v>
+        <v>5493.8386</v>
       </c>
       <c r="G137" t="n">
-        <v>1740.433333333333</v>
+        <v>1741.533333333333</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5282,7 +5314,9 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1705</v>
+      </c>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5297,22 +5331,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1721</v>
+        <v>1723</v>
       </c>
       <c r="C138" t="n">
         <v>1720</v>
       </c>
       <c r="D138" t="n">
-        <v>1721</v>
+        <v>1723</v>
       </c>
       <c r="E138" t="n">
         <v>1720</v>
       </c>
       <c r="F138" t="n">
-        <v>349.79</v>
+        <v>1696.7212</v>
       </c>
       <c r="G138" t="n">
-        <v>1739.533333333333</v>
+        <v>1740.433333333333</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5321,7 +5355,9 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1705</v>
+      </c>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5336,22 +5372,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="C139" t="n">
         <v>1720</v>
       </c>
       <c r="D139" t="n">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="E139" t="n">
         <v>1720</v>
       </c>
       <c r="F139" t="n">
-        <v>23.23</v>
+        <v>349.79</v>
       </c>
       <c r="G139" t="n">
-        <v>1738.383333333333</v>
+        <v>1739.533333333333</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5360,7 +5396,9 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1705</v>
+      </c>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5375,22 +5413,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1724</v>
+        <v>1720</v>
       </c>
       <c r="C140" t="n">
-        <v>1800</v>
+        <v>1720</v>
       </c>
       <c r="D140" t="n">
-        <v>1800</v>
+        <v>1720</v>
       </c>
       <c r="E140" t="n">
-        <v>1724</v>
+        <v>1720</v>
       </c>
       <c r="F140" t="n">
-        <v>5309.44775622</v>
+        <v>23.23</v>
       </c>
       <c r="G140" t="n">
-        <v>1738.783333333333</v>
+        <v>1738.383333333333</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5399,7 +5437,9 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1705</v>
+      </c>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5414,22 +5454,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1727</v>
+        <v>1724</v>
       </c>
       <c r="C141" t="n">
-        <v>1726</v>
+        <v>1800</v>
       </c>
       <c r="D141" t="n">
-        <v>1727</v>
+        <v>1800</v>
       </c>
       <c r="E141" t="n">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="F141" t="n">
-        <v>82.56</v>
+        <v>5309.44775622</v>
       </c>
       <c r="G141" t="n">
-        <v>1737.7</v>
+        <v>1738.783333333333</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5438,7 +5478,9 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1705</v>
+      </c>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5453,22 +5495,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>1780</v>
+        <v>1727</v>
       </c>
       <c r="C142" t="n">
-        <v>1780</v>
+        <v>1726</v>
       </c>
       <c r="D142" t="n">
-        <v>1780</v>
+        <v>1727</v>
       </c>
       <c r="E142" t="n">
-        <v>1780</v>
+        <v>1726</v>
       </c>
       <c r="F142" t="n">
-        <v>0.3</v>
+        <v>82.56</v>
       </c>
       <c r="G142" t="n">
-        <v>1737.516666666667</v>
+        <v>1737.7</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5477,7 +5519,9 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1705</v>
+      </c>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5492,22 +5536,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1732</v>
+        <v>1780</v>
       </c>
       <c r="C143" t="n">
-        <v>1732</v>
+        <v>1780</v>
       </c>
       <c r="D143" t="n">
-        <v>1733</v>
+        <v>1780</v>
       </c>
       <c r="E143" t="n">
-        <v>1730</v>
+        <v>1780</v>
       </c>
       <c r="F143" t="n">
-        <v>35.7392</v>
+        <v>0.3</v>
       </c>
       <c r="G143" t="n">
-        <v>1736.333333333333</v>
+        <v>1737.516666666667</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5516,7 +5560,9 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1705</v>
+      </c>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5531,22 +5577,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1724</v>
+        <v>1732</v>
       </c>
       <c r="C144" t="n">
+        <v>1732</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1733</v>
+      </c>
+      <c r="E144" t="n">
         <v>1730</v>
       </c>
-      <c r="D144" t="n">
-        <v>1775</v>
-      </c>
-      <c r="E144" t="n">
-        <v>1724</v>
-      </c>
       <c r="F144" t="n">
-        <v>1449.1124</v>
+        <v>35.7392</v>
       </c>
       <c r="G144" t="n">
-        <v>1735.166666666667</v>
+        <v>1736.333333333333</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5555,7 +5601,9 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1705</v>
+      </c>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5570,22 +5618,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>1768</v>
+        <v>1724</v>
       </c>
       <c r="C145" t="n">
-        <v>1768</v>
+        <v>1730</v>
       </c>
       <c r="D145" t="n">
-        <v>1768</v>
+        <v>1775</v>
       </c>
       <c r="E145" t="n">
-        <v>1768</v>
+        <v>1724</v>
       </c>
       <c r="F145" t="n">
-        <v>0.5</v>
+        <v>1449.1124</v>
       </c>
       <c r="G145" t="n">
-        <v>1734.633333333333</v>
+        <v>1735.166666666667</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5594,7 +5642,9 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1705</v>
+      </c>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5609,22 +5659,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1723</v>
+        <v>1768</v>
       </c>
       <c r="C146" t="n">
-        <v>1721</v>
+        <v>1768</v>
       </c>
       <c r="D146" t="n">
-        <v>1723</v>
+        <v>1768</v>
       </c>
       <c r="E146" t="n">
-        <v>1721</v>
+        <v>1768</v>
       </c>
       <c r="F146" t="n">
-        <v>117.7821</v>
+        <v>0.5</v>
       </c>
       <c r="G146" t="n">
-        <v>1733.333333333333</v>
+        <v>1734.633333333333</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5633,7 +5683,9 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1705</v>
+      </c>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5648,22 +5700,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1746</v>
+        <v>1723</v>
       </c>
       <c r="C147" t="n">
-        <v>1771</v>
+        <v>1721</v>
       </c>
       <c r="D147" t="n">
-        <v>1771</v>
+        <v>1723</v>
       </c>
       <c r="E147" t="n">
-        <v>1746</v>
+        <v>1721</v>
       </c>
       <c r="F147" t="n">
-        <v>56.56148481</v>
+        <v>117.7821</v>
       </c>
       <c r="G147" t="n">
-        <v>1733.166666666667</v>
+        <v>1733.333333333333</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5672,7 +5724,9 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1705</v>
+      </c>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5687,22 +5741,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>1734</v>
+        <v>1746</v>
       </c>
       <c r="C148" t="n">
-        <v>1735</v>
+        <v>1771</v>
       </c>
       <c r="D148" t="n">
-        <v>1735</v>
+        <v>1771</v>
       </c>
       <c r="E148" t="n">
-        <v>1734</v>
+        <v>1746</v>
       </c>
       <c r="F148" t="n">
-        <v>17.5323</v>
+        <v>56.56148481</v>
       </c>
       <c r="G148" t="n">
-        <v>1732.4</v>
+        <v>1733.166666666667</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5711,7 +5765,9 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1705</v>
+      </c>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5726,22 +5782,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>1726</v>
+        <v>1734</v>
       </c>
       <c r="C149" t="n">
-        <v>1725</v>
+        <v>1735</v>
       </c>
       <c r="D149" t="n">
-        <v>1726</v>
+        <v>1735</v>
       </c>
       <c r="E149" t="n">
-        <v>1725</v>
+        <v>1734</v>
       </c>
       <c r="F149" t="n">
-        <v>110.6914</v>
+        <v>17.5323</v>
       </c>
       <c r="G149" t="n">
-        <v>1731.516666666667</v>
+        <v>1732.4</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5750,7 +5806,9 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1705</v>
+      </c>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5765,22 +5823,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>1738</v>
+        <v>1726</v>
       </c>
       <c r="C150" t="n">
         <v>1725</v>
       </c>
       <c r="D150" t="n">
-        <v>1739</v>
+        <v>1726</v>
       </c>
       <c r="E150" t="n">
         <v>1725</v>
       </c>
       <c r="F150" t="n">
-        <v>625.9045</v>
+        <v>110.6914</v>
       </c>
       <c r="G150" t="n">
-        <v>1730.766666666667</v>
+        <v>1731.516666666667</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5789,7 +5847,9 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1705</v>
+      </c>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5804,22 +5864,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="C151" t="n">
-        <v>1740</v>
+        <v>1725</v>
       </c>
       <c r="D151" t="n">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="E151" t="n">
-        <v>1740</v>
+        <v>1725</v>
       </c>
       <c r="F151" t="n">
-        <v>0.5</v>
+        <v>625.9045</v>
       </c>
       <c r="G151" t="n">
-        <v>1730.316666666667</v>
+        <v>1730.766666666667</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5828,7 +5888,9 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1705</v>
+      </c>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5843,22 +5905,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>1734</v>
+        <v>1740</v>
       </c>
       <c r="C152" t="n">
-        <v>1734</v>
+        <v>1740</v>
       </c>
       <c r="D152" t="n">
-        <v>1734</v>
+        <v>1740</v>
       </c>
       <c r="E152" t="n">
-        <v>1734</v>
+        <v>1740</v>
       </c>
       <c r="F152" t="n">
-        <v>82.179</v>
+        <v>0.5</v>
       </c>
       <c r="G152" t="n">
-        <v>1729.766666666667</v>
+        <v>1730.316666666667</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5867,7 +5929,9 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1705</v>
+      </c>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5882,22 +5946,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>1750</v>
+        <v>1734</v>
       </c>
       <c r="C153" t="n">
-        <v>1750</v>
+        <v>1734</v>
       </c>
       <c r="D153" t="n">
-        <v>1750</v>
+        <v>1734</v>
       </c>
       <c r="E153" t="n">
-        <v>1750</v>
+        <v>1734</v>
       </c>
       <c r="F153" t="n">
-        <v>0.2883</v>
+        <v>82.179</v>
       </c>
       <c r="G153" t="n">
-        <v>1729.983333333333</v>
+        <v>1729.766666666667</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5906,7 +5970,9 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1705</v>
+      </c>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5921,22 +5987,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>1746</v>
+        <v>1750</v>
       </c>
       <c r="C154" t="n">
-        <v>1771</v>
+        <v>1750</v>
       </c>
       <c r="D154" t="n">
-        <v>1771</v>
+        <v>1750</v>
       </c>
       <c r="E154" t="n">
-        <v>1746</v>
+        <v>1750</v>
       </c>
       <c r="F154" t="n">
-        <v>309.4296</v>
+        <v>0.2883</v>
       </c>
       <c r="G154" t="n">
-        <v>1730.55</v>
+        <v>1729.983333333333</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5945,7 +6011,9 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1705</v>
+      </c>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5960,31 +6028,35 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>1735</v>
+        <v>1746</v>
       </c>
       <c r="C155" t="n">
-        <v>1707</v>
+        <v>1771</v>
       </c>
       <c r="D155" t="n">
-        <v>1735</v>
+        <v>1771</v>
       </c>
       <c r="E155" t="n">
-        <v>1707</v>
+        <v>1746</v>
       </c>
       <c r="F155" t="n">
-        <v>3822.6844</v>
+        <v>309.4296</v>
       </c>
       <c r="G155" t="n">
-        <v>1729.766666666667</v>
+        <v>1730.55</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>1750</v>
+      </c>
+      <c r="K155" t="n">
+        <v>1705</v>
+      </c>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5999,22 +6071,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>1739</v>
+        <v>1735</v>
       </c>
       <c r="C156" t="n">
-        <v>1740</v>
+        <v>1707</v>
       </c>
       <c r="D156" t="n">
-        <v>1742</v>
+        <v>1735</v>
       </c>
       <c r="E156" t="n">
-        <v>1739</v>
+        <v>1707</v>
       </c>
       <c r="F156" t="n">
-        <v>3120.7014</v>
+        <v>3822.6844</v>
       </c>
       <c r="G156" t="n">
-        <v>1729.783333333333</v>
+        <v>1729.766666666667</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6023,7 +6095,9 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1705</v>
+      </c>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6038,22 +6112,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="C157" t="n">
+        <v>1740</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1742</v>
+      </c>
+      <c r="E157" t="n">
         <v>1739</v>
       </c>
-      <c r="D157" t="n">
-        <v>1739</v>
-      </c>
-      <c r="E157" t="n">
-        <v>1738</v>
-      </c>
       <c r="F157" t="n">
-        <v>79.3229</v>
+        <v>3120.7014</v>
       </c>
       <c r="G157" t="n">
-        <v>1729.616666666667</v>
+        <v>1729.783333333333</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6062,7 +6136,9 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1705</v>
+      </c>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6077,22 +6153,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>1752</v>
+        <v>1738</v>
       </c>
       <c r="C158" t="n">
-        <v>1754</v>
+        <v>1739</v>
       </c>
       <c r="D158" t="n">
-        <v>1754</v>
+        <v>1739</v>
       </c>
       <c r="E158" t="n">
-        <v>1752</v>
+        <v>1738</v>
       </c>
       <c r="F158" t="n">
-        <v>873.0547</v>
+        <v>79.3229</v>
       </c>
       <c r="G158" t="n">
-        <v>1729.516666666667</v>
+        <v>1729.616666666667</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6101,7 +6177,9 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1705</v>
+      </c>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6116,22 +6194,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>1740</v>
+        <v>1752</v>
       </c>
       <c r="C159" t="n">
-        <v>1719</v>
+        <v>1754</v>
       </c>
       <c r="D159" t="n">
-        <v>1742</v>
+        <v>1754</v>
       </c>
       <c r="E159" t="n">
-        <v>1719</v>
+        <v>1752</v>
       </c>
       <c r="F159" t="n">
-        <v>262.085</v>
+        <v>873.0547</v>
       </c>
       <c r="G159" t="n">
-        <v>1729.016666666667</v>
+        <v>1729.516666666667</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6140,7 +6218,9 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1705</v>
+      </c>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6155,22 +6235,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>1751</v>
+        <v>1740</v>
       </c>
       <c r="C160" t="n">
-        <v>1751</v>
+        <v>1719</v>
       </c>
       <c r="D160" t="n">
-        <v>1751</v>
+        <v>1742</v>
       </c>
       <c r="E160" t="n">
-        <v>1751</v>
+        <v>1719</v>
       </c>
       <c r="F160" t="n">
-        <v>0.5</v>
+        <v>262.085</v>
       </c>
       <c r="G160" t="n">
-        <v>1729.05</v>
+        <v>1729.016666666667</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6179,7 +6259,9 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1705</v>
+      </c>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6194,22 +6276,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>1724</v>
+        <v>1751</v>
       </c>
       <c r="C161" t="n">
-        <v>1756</v>
+        <v>1751</v>
       </c>
       <c r="D161" t="n">
-        <v>1756</v>
+        <v>1751</v>
       </c>
       <c r="E161" t="n">
-        <v>1722</v>
+        <v>1751</v>
       </c>
       <c r="F161" t="n">
-        <v>1082.8493</v>
+        <v>0.5</v>
       </c>
       <c r="G161" t="n">
-        <v>1729.483333333333</v>
+        <v>1729.05</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6218,7 +6300,9 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1705</v>
+      </c>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6233,7 +6317,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>1755</v>
+        <v>1724</v>
       </c>
       <c r="C162" t="n">
         <v>1756</v>
@@ -6242,13 +6326,13 @@
         <v>1756</v>
       </c>
       <c r="E162" t="n">
-        <v>1755</v>
+        <v>1722</v>
       </c>
       <c r="F162" t="n">
-        <v>282.6302</v>
+        <v>1082.8493</v>
       </c>
       <c r="G162" t="n">
-        <v>1730.05</v>
+        <v>1729.483333333333</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6257,7 +6341,9 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1705</v>
+      </c>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6272,22 +6358,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
+        <v>1755</v>
+      </c>
+      <c r="C163" t="n">
         <v>1756</v>
       </c>
-      <c r="C163" t="n">
-        <v>1772</v>
-      </c>
       <c r="D163" t="n">
-        <v>1772</v>
+        <v>1756</v>
       </c>
       <c r="E163" t="n">
-        <v>1726</v>
+        <v>1755</v>
       </c>
       <c r="F163" t="n">
-        <v>809.35</v>
+        <v>282.6302</v>
       </c>
       <c r="G163" t="n">
-        <v>1730.933333333333</v>
+        <v>1730.05</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6296,7 +6382,9 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1705</v>
+      </c>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6311,22 +6399,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>1743</v>
+        <v>1756</v>
       </c>
       <c r="C164" t="n">
-        <v>1743</v>
+        <v>1772</v>
       </c>
       <c r="D164" t="n">
-        <v>1744</v>
+        <v>1772</v>
       </c>
       <c r="E164" t="n">
-        <v>1743</v>
+        <v>1726</v>
       </c>
       <c r="F164" t="n">
-        <v>133.407</v>
+        <v>809.35</v>
       </c>
       <c r="G164" t="n">
-        <v>1731.333333333333</v>
+        <v>1730.933333333333</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6335,7 +6423,9 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1705</v>
+      </c>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6350,22 +6440,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>1741</v>
+        <v>1743</v>
       </c>
       <c r="C165" t="n">
-        <v>1740</v>
+        <v>1743</v>
       </c>
       <c r="D165" t="n">
-        <v>1741</v>
+        <v>1744</v>
       </c>
       <c r="E165" t="n">
-        <v>1740</v>
+        <v>1743</v>
       </c>
       <c r="F165" t="n">
-        <v>21.4</v>
+        <v>133.407</v>
       </c>
       <c r="G165" t="n">
-        <v>1731.716666666667</v>
+        <v>1731.333333333333</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6374,7 +6464,9 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1705</v>
+      </c>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6389,22 +6481,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>1734</v>
+        <v>1741</v>
       </c>
       <c r="C166" t="n">
-        <v>1720</v>
+        <v>1740</v>
       </c>
       <c r="D166" t="n">
-        <v>1734</v>
+        <v>1741</v>
       </c>
       <c r="E166" t="n">
-        <v>1720</v>
+        <v>1740</v>
       </c>
       <c r="F166" t="n">
-        <v>1052.0531</v>
+        <v>21.4</v>
       </c>
       <c r="G166" t="n">
-        <v>1732.05</v>
+        <v>1731.716666666667</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6413,7 +6505,9 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1705</v>
+      </c>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6428,22 +6522,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>1747</v>
+        <v>1734</v>
       </c>
       <c r="C167" t="n">
-        <v>1747</v>
+        <v>1720</v>
       </c>
       <c r="D167" t="n">
-        <v>1747</v>
+        <v>1734</v>
       </c>
       <c r="E167" t="n">
-        <v>1747</v>
+        <v>1720</v>
       </c>
       <c r="F167" t="n">
-        <v>0.5</v>
+        <v>1052.0531</v>
       </c>
       <c r="G167" t="n">
-        <v>1732.45</v>
+        <v>1732.05</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6452,7 +6546,9 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1705</v>
+      </c>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6467,22 +6563,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>1721</v>
+        <v>1747</v>
       </c>
       <c r="C168" t="n">
-        <v>1721</v>
+        <v>1747</v>
       </c>
       <c r="D168" t="n">
-        <v>1721</v>
+        <v>1747</v>
       </c>
       <c r="E168" t="n">
-        <v>1721</v>
+        <v>1747</v>
       </c>
       <c r="F168" t="n">
-        <v>18</v>
+        <v>0.5</v>
       </c>
       <c r="G168" t="n">
-        <v>1732.4</v>
+        <v>1732.45</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6491,7 +6587,9 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1705</v>
+      </c>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6506,22 +6604,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>1726</v>
+        <v>1721</v>
       </c>
       <c r="C169" t="n">
-        <v>1726</v>
+        <v>1721</v>
       </c>
       <c r="D169" t="n">
-        <v>1726</v>
+        <v>1721</v>
       </c>
       <c r="E169" t="n">
-        <v>1726</v>
+        <v>1721</v>
       </c>
       <c r="F169" t="n">
-        <v>87.1069</v>
+        <v>18</v>
       </c>
       <c r="G169" t="n">
-        <v>1732.683333333333</v>
+        <v>1732.4</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6530,7 +6628,9 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1705</v>
+      </c>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6548,19 +6648,19 @@
         <v>1726</v>
       </c>
       <c r="C170" t="n">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="D170" t="n">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="E170" t="n">
         <v>1726</v>
       </c>
       <c r="F170" t="n">
-        <v>49.8065</v>
+        <v>87.1069</v>
       </c>
       <c r="G170" t="n">
-        <v>1732.983333333333</v>
+        <v>1732.683333333333</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6569,7 +6669,9 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1705</v>
+      </c>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6584,7 +6686,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="C171" t="n">
         <v>1727</v>
@@ -6593,13 +6695,13 @@
         <v>1727</v>
       </c>
       <c r="E171" t="n">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="F171" t="n">
-        <v>65.80159999999999</v>
+        <v>49.8065</v>
       </c>
       <c r="G171" t="n">
-        <v>1733.283333333333</v>
+        <v>1732.983333333333</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6608,7 +6710,9 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1705</v>
+      </c>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6623,7 +6727,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>1720</v>
+        <v>1727</v>
       </c>
       <c r="C172" t="n">
         <v>1727</v>
@@ -6632,13 +6736,13 @@
         <v>1727</v>
       </c>
       <c r="E172" t="n">
-        <v>1720</v>
+        <v>1727</v>
       </c>
       <c r="F172" t="n">
-        <v>78.73099999999999</v>
+        <v>65.80159999999999</v>
       </c>
       <c r="G172" t="n">
-        <v>1733.583333333333</v>
+        <v>1733.283333333333</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6647,7 +6751,9 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1705</v>
+      </c>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6662,7 +6768,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>1727</v>
+        <v>1720</v>
       </c>
       <c r="C173" t="n">
         <v>1727</v>
@@ -6671,28 +6777,71 @@
         <v>1727</v>
       </c>
       <c r="E173" t="n">
+        <v>1720</v>
+      </c>
+      <c r="F173" t="n">
+        <v>78.73099999999999</v>
+      </c>
+      <c r="G173" t="n">
+        <v>1733.583333333333</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1705</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
         <v>1727</v>
       </c>
-      <c r="F173" t="n">
+      <c r="C174" t="n">
+        <v>1727</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1727</v>
+      </c>
+      <c r="E174" t="n">
+        <v>1727</v>
+      </c>
+      <c r="F174" t="n">
         <v>604.3737</v>
       </c>
-      <c r="G173" t="n">
+      <c r="G174" t="n">
         <v>1733.95</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1705</v>
+      </c>
+      <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M173" t="n">
+      <c r="M174" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-19 BackTest HC.xlsx
+++ b/BackTest/2020-01-19 BackTest HC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M174"/>
+  <dimension ref="A1:N184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>0.3009</v>
       </c>
       <c r="G2" t="n">
+        <v>1739.8</v>
+      </c>
+      <c r="H2" t="n">
         <v>1766.2</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>1045</v>
       </c>
       <c r="G3" t="n">
+        <v>1742</v>
+      </c>
+      <c r="H3" t="n">
         <v>1765.5</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>685.6097</v>
       </c>
       <c r="G4" t="n">
+        <v>1744.4</v>
+      </c>
+      <c r="H4" t="n">
         <v>1765.183333333333</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>28.44141069</v>
       </c>
       <c r="G5" t="n">
+        <v>1746.8</v>
+      </c>
+      <c r="H5" t="n">
         <v>1764.55</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>27.3947</v>
       </c>
       <c r="G6" t="n">
+        <v>1748.533333333333</v>
+      </c>
+      <c r="H6" t="n">
         <v>1763.916666666667</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>155.2423</v>
       </c>
       <c r="G7" t="n">
+        <v>1749.666666666667</v>
+      </c>
+      <c r="H7" t="n">
         <v>1763.283333333333</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>87.7457</v>
       </c>
       <c r="G8" t="n">
+        <v>1750.8</v>
+      </c>
+      <c r="H8" t="n">
         <v>1762.65</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>114.06938931</v>
       </c>
       <c r="G9" t="n">
+        <v>1751.133333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>1761.783333333333</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>1337.6306</v>
       </c>
       <c r="G10" t="n">
+        <v>1751.4</v>
+      </c>
+      <c r="H10" t="n">
         <v>1760.683333333333</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>1337.6307</v>
       </c>
       <c r="G11" t="n">
+        <v>1751.133333333333</v>
+      </c>
+      <c r="H11" t="n">
         <v>1759.2</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>31.11</v>
       </c>
       <c r="G12" t="n">
+        <v>1750.933333333333</v>
+      </c>
+      <c r="H12" t="n">
         <v>1757.716666666667</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>260</v>
       </c>
       <c r="G13" t="n">
+        <v>1752.466666666667</v>
+      </c>
+      <c r="H13" t="n">
         <v>1756.633333333333</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>41.4884</v>
       </c>
       <c r="G14" t="n">
+        <v>1752.466666666667</v>
+      </c>
+      <c r="H14" t="n">
         <v>1755.8</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>4.7304</v>
       </c>
       <c r="G15" t="n">
+        <v>1752.266666666667</v>
+      </c>
+      <c r="H15" t="n">
         <v>1755.066666666667</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>260</v>
       </c>
       <c r="G16" t="n">
+        <v>1753.733333333333</v>
+      </c>
+      <c r="H16" t="n">
         <v>1754.55</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>1</v>
       </c>
       <c r="G17" t="n">
+        <v>1754.466666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>1753.983333333333</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>17.7901</v>
       </c>
       <c r="G18" t="n">
+        <v>1753.866666666667</v>
+      </c>
+      <c r="H18" t="n">
         <v>1753.183333333333</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>16.1251</v>
       </c>
       <c r="G19" t="n">
+        <v>1753.466666666667</v>
+      </c>
+      <c r="H19" t="n">
         <v>1752.333333333333</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>152.3095</v>
       </c>
       <c r="G20" t="n">
+        <v>1752.933333333333</v>
+      </c>
+      <c r="H20" t="n">
         <v>1751.35</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>0.5</v>
       </c>
       <c r="G21" t="n">
+        <v>1752.4</v>
+      </c>
+      <c r="H21" t="n">
         <v>1750.683333333333</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>0.0008</v>
       </c>
       <c r="G22" t="n">
+        <v>1752</v>
+      </c>
+      <c r="H22" t="n">
         <v>1750.15</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>0.6199</v>
       </c>
       <c r="G23" t="n">
+        <v>1752.066666666667</v>
+      </c>
+      <c r="H23" t="n">
         <v>1749.733333333333</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>14.6522</v>
       </c>
       <c r="G24" t="n">
+        <v>1752.2</v>
+      </c>
+      <c r="H24" t="n">
         <v>1749.333333333333</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>32.9868</v>
       </c>
       <c r="G25" t="n">
+        <v>1753.533333333333</v>
+      </c>
+      <c r="H25" t="n">
         <v>1749.183333333333</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>106.1014</v>
       </c>
       <c r="G26" t="n">
+        <v>1756</v>
+      </c>
+      <c r="H26" t="n">
         <v>1749.3</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>4.48681996</v>
       </c>
       <c r="G27" t="n">
+        <v>1759</v>
+      </c>
+      <c r="H27" t="n">
         <v>1749.166666666667</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>5</v>
       </c>
       <c r="G28" t="n">
+        <v>1760.2</v>
+      </c>
+      <c r="H28" t="n">
         <v>1749</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>191.3144</v>
       </c>
       <c r="G29" t="n">
+        <v>1762.466666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>1748.816666666667</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>44.9058</v>
       </c>
       <c r="G30" t="n">
+        <v>1764.8</v>
+      </c>
+      <c r="H30" t="n">
         <v>1748.6</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>8</v>
       </c>
       <c r="G31" t="n">
+        <v>1766.266666666667</v>
+      </c>
+      <c r="H31" t="n">
         <v>1748.25</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>32.6734</v>
       </c>
       <c r="G32" t="n">
+        <v>1768.066666666667</v>
+      </c>
+      <c r="H32" t="n">
         <v>1747.933333333333</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>12</v>
       </c>
       <c r="G33" t="n">
+        <v>1770.8</v>
+      </c>
+      <c r="H33" t="n">
         <v>1748</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>11.8136</v>
       </c>
       <c r="G34" t="n">
+        <v>1774.066666666667</v>
+      </c>
+      <c r="H34" t="n">
         <v>1749</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>356.5083</v>
       </c>
       <c r="G35" t="n">
+        <v>1778.933333333333</v>
+      </c>
+      <c r="H35" t="n">
         <v>1750.833333333333</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>195.065</v>
       </c>
       <c r="G36" t="n">
+        <v>1783.866666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>1752.7</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>42.7369</v>
       </c>
       <c r="G37" t="n">
+        <v>1787.533333333333</v>
+      </c>
+      <c r="H37" t="n">
         <v>1754</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>0.5</v>
       </c>
       <c r="G38" t="n">
+        <v>1791.6</v>
+      </c>
+      <c r="H38" t="n">
         <v>1755.35</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
-        <v>1</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>101.3571</v>
       </c>
       <c r="G39" t="n">
+        <v>1795.533333333333</v>
+      </c>
+      <c r="H39" t="n">
         <v>1756.7</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>1801.0884</v>
       </c>
       <c r="G40" t="n">
+        <v>1799.066666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>1758.35</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>265.8594</v>
       </c>
       <c r="G41" t="n">
+        <v>1802.133333333333</v>
+      </c>
+      <c r="H41" t="n">
         <v>1760</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>24.3</v>
       </c>
       <c r="G42" t="n">
+        <v>1804.6</v>
+      </c>
+      <c r="H42" t="n">
         <v>1761.633333333333</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>201.391</v>
       </c>
       <c r="G43" t="n">
+        <v>1806.133333333333</v>
+      </c>
+      <c r="H43" t="n">
         <v>1762.9</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>0.5</v>
       </c>
       <c r="G44" t="n">
+        <v>1808.8</v>
+      </c>
+      <c r="H44" t="n">
         <v>1764.666666666667</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>161.6951</v>
       </c>
       <c r="G45" t="n">
+        <v>1810</v>
+      </c>
+      <c r="H45" t="n">
         <v>1766.066666666667</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>12.318</v>
       </c>
       <c r="G46" t="n">
+        <v>1811.733333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>1767.566666666667</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>0.5</v>
       </c>
       <c r="G47" t="n">
+        <v>1814.066666666667</v>
+      </c>
+      <c r="H47" t="n">
         <v>1769.1</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>3437.0652</v>
       </c>
       <c r="G48" t="n">
+        <v>1816.933333333333</v>
+      </c>
+      <c r="H48" t="n">
         <v>1770.9</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>3569.2888</v>
       </c>
       <c r="G49" t="n">
+        <v>1818.466666666667</v>
+      </c>
+      <c r="H49" t="n">
         <v>1772.6</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>1385.8021</v>
       </c>
       <c r="G50" t="n">
+        <v>1818.4</v>
+      </c>
+      <c r="H50" t="n">
         <v>1774.266666666667</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>3449.1592</v>
       </c>
       <c r="G51" t="n">
+        <v>1818.466666666667</v>
+      </c>
+      <c r="H51" t="n">
         <v>1775.816666666667</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>546.5786000000001</v>
       </c>
       <c r="G52" t="n">
+        <v>1819.666666666667</v>
+      </c>
+      <c r="H52" t="n">
         <v>1777.216666666667</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>463.6061</v>
       </c>
       <c r="G53" t="n">
+        <v>1820</v>
+      </c>
+      <c r="H53" t="n">
         <v>1778.616666666667</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>41.4</v>
       </c>
       <c r="G54" t="n">
+        <v>1819.266666666667</v>
+      </c>
+      <c r="H54" t="n">
         <v>1779.533333333333</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>1</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>43.6178</v>
       </c>
       <c r="G55" t="n">
+        <v>1818.466666666667</v>
+      </c>
+      <c r="H55" t="n">
         <v>1780.616666666667</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>1</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>87.3096</v>
       </c>
       <c r="G56" t="n">
+        <v>1817.466666666667</v>
+      </c>
+      <c r="H56" t="n">
         <v>1781.683333333333</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>1</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>460</v>
       </c>
       <c r="G57" t="n">
+        <v>1815.533333333333</v>
+      </c>
+      <c r="H57" t="n">
         <v>1782.516666666667</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>284.6698</v>
       </c>
       <c r="G58" t="n">
+        <v>1814.2</v>
+      </c>
+      <c r="H58" t="n">
         <v>1783.25</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>1721.7753</v>
       </c>
       <c r="G59" t="n">
+        <v>1810.8</v>
+      </c>
+      <c r="H59" t="n">
         <v>1783.633333333333</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>233.7372</v>
       </c>
       <c r="G60" t="n">
+        <v>1808.866666666667</v>
+      </c>
+      <c r="H60" t="n">
         <v>1783.983333333333</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>72.4571</v>
       </c>
       <c r="G61" t="n">
+        <v>1806.933333333333</v>
+      </c>
+      <c r="H61" t="n">
         <v>1784.666666666667</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>1.3</v>
       </c>
       <c r="G62" t="n">
+        <v>1805.933333333333</v>
+      </c>
+      <c r="H62" t="n">
         <v>1785.633333333333</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>39.4296</v>
       </c>
       <c r="G63" t="n">
+        <v>1803.266666666667</v>
+      </c>
+      <c r="H63" t="n">
         <v>1786.216666666667</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>45</v>
       </c>
       <c r="G64" t="n">
+        <v>1802.066666666667</v>
+      </c>
+      <c r="H64" t="n">
         <v>1787.016666666667</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>784.1191</v>
       </c>
       <c r="G65" t="n">
+        <v>1801.333333333333</v>
+      </c>
+      <c r="H65" t="n">
         <v>1787.9</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>2325.316</v>
       </c>
       <c r="G66" t="n">
+        <v>1799.6</v>
+      </c>
+      <c r="H66" t="n">
         <v>1788.583333333333</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>11.2935</v>
       </c>
       <c r="G67" t="n">
+        <v>1797.933333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>1789.283333333333</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>15.0707</v>
       </c>
       <c r="G68" t="n">
+        <v>1796.266666666667</v>
+      </c>
+      <c r="H68" t="n">
         <v>1789.983333333333</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>276.126</v>
       </c>
       <c r="G69" t="n">
+        <v>1795.666666666667</v>
+      </c>
+      <c r="H69" t="n">
         <v>1790.666666666667</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>323</v>
       </c>
       <c r="G70" t="n">
+        <v>1795.133333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>1791.55</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>0.6327</v>
       </c>
       <c r="G71" t="n">
+        <v>1795.066666666667</v>
+      </c>
+      <c r="H71" t="n">
         <v>1792.666666666667</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>0.3182</v>
       </c>
       <c r="G72" t="n">
+        <v>1795.6</v>
+      </c>
+      <c r="H72" t="n">
         <v>1793.683333333333</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>98.3586</v>
       </c>
       <c r="G73" t="n">
+        <v>1795.8</v>
+      </c>
+      <c r="H73" t="n">
         <v>1794.083333333333</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>839.5242</v>
       </c>
       <c r="G74" t="n">
+        <v>1796.066666666667</v>
+      </c>
+      <c r="H74" t="n">
         <v>1794.533333333333</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>77.1503</v>
       </c>
       <c r="G75" t="n">
+        <v>1796.066666666667</v>
+      </c>
+      <c r="H75" t="n">
         <v>1794.933333333333</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>1558.068</v>
       </c>
       <c r="G76" t="n">
+        <v>1796.4</v>
+      </c>
+      <c r="H76" t="n">
         <v>1795.333333333333</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>19.7155</v>
       </c>
       <c r="G77" t="n">
+        <v>1795.066666666667</v>
+      </c>
+      <c r="H77" t="n">
         <v>1795.783333333333</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>335.7313</v>
       </c>
       <c r="G78" t="n">
+        <v>1794.8</v>
+      </c>
+      <c r="H78" t="n">
         <v>1796.45</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>10.8392</v>
       </c>
       <c r="G79" t="n">
+        <v>1792.666666666667</v>
+      </c>
+      <c r="H79" t="n">
         <v>1796.816666666667</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>0.28</v>
       </c>
       <c r="G80" t="n">
+        <v>1791.2</v>
+      </c>
+      <c r="H80" t="n">
         <v>1797.466666666667</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>784.1191</v>
       </c>
       <c r="G81" t="n">
+        <v>1789.666666666667</v>
+      </c>
+      <c r="H81" t="n">
         <v>1797.9</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>1040</v>
       </c>
       <c r="G82" t="n">
+        <v>1789.066666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>1798.55</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>54.3085</v>
       </c>
       <c r="G83" t="n">
+        <v>1788.466666666667</v>
+      </c>
+      <c r="H83" t="n">
         <v>1799.083333333333</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>0.55463117</v>
       </c>
       <c r="G84" t="n">
+        <v>1788.733333333333</v>
+      </c>
+      <c r="H84" t="n">
         <v>1799.8</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>33.3944</v>
       </c>
       <c r="G85" t="n">
+        <v>1788.8</v>
+      </c>
+      <c r="H85" t="n">
         <v>1800.366666666667</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>1200</v>
       </c>
       <c r="G86" t="n">
+        <v>1788.466666666667</v>
+      </c>
+      <c r="H86" t="n">
         <v>1800.783333333333</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>1017.255</v>
       </c>
       <c r="G87" t="n">
+        <v>1788.466666666667</v>
+      </c>
+      <c r="H87" t="n">
         <v>1801.05</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>29.9699</v>
       </c>
       <c r="G88" t="n">
+        <v>1788</v>
+      </c>
+      <c r="H88" t="n">
         <v>1801.033333333333</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>38.9609</v>
       </c>
       <c r="G89" t="n">
+        <v>1788.066666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>1800.933333333333</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>1166.137</v>
       </c>
       <c r="G90" t="n">
+        <v>1788.2</v>
+      </c>
+      <c r="H90" t="n">
         <v>1800.783333333333</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>126.38</v>
       </c>
       <c r="G91" t="n">
+        <v>1787.066666666667</v>
+      </c>
+      <c r="H91" t="n">
         <v>1800.533333333333</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>69.2132</v>
       </c>
       <c r="G92" t="n">
+        <v>1785.733333333333</v>
+      </c>
+      <c r="H92" t="n">
         <v>1800.2</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>20.1122</v>
       </c>
       <c r="G93" t="n">
+        <v>1784.466666666667</v>
+      </c>
+      <c r="H93" t="n">
         <v>1799.866666666667</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,21 @@
         <v>33.88</v>
       </c>
       <c r="G94" t="n">
+        <v>1782</v>
+      </c>
+      <c r="H94" t="n">
         <v>1798.8</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3987,21 @@
         <v>1.8068</v>
       </c>
       <c r="G95" t="n">
+        <v>1778.533333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>1797.366666666667</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4025,21 @@
         <v>129.587</v>
       </c>
       <c r="G96" t="n">
+        <v>1777.066666666667</v>
+      </c>
+      <c r="H96" t="n">
         <v>1796.2</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4063,21 @@
         <v>260</v>
       </c>
       <c r="G97" t="n">
+        <v>1773.6</v>
+      </c>
+      <c r="H97" t="n">
         <v>1795.066666666667</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4101,21 @@
         <v>1386.2611</v>
       </c>
       <c r="G98" t="n">
+        <v>1770.8</v>
+      </c>
+      <c r="H98" t="n">
         <v>1793.883333333333</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4139,21 @@
         <v>17.43181818</v>
       </c>
       <c r="G99" t="n">
+        <v>1767.933333333333</v>
+      </c>
+      <c r="H99" t="n">
         <v>1792.9</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4177,21 @@
         <v>190.16</v>
       </c>
       <c r="G100" t="n">
+        <v>1764.533333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>1791.733333333333</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4215,21 @@
         <v>247.2245</v>
       </c>
       <c r="G101" t="n">
+        <v>1761.133333333333</v>
+      </c>
+      <c r="H101" t="n">
         <v>1790.533333333333</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4253,21 @@
         <v>291.7395</v>
       </c>
       <c r="G102" t="n">
+        <v>1756.533333333333</v>
+      </c>
+      <c r="H102" t="n">
         <v>1789.033333333333</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4291,21 @@
         <v>218.8623</v>
       </c>
       <c r="G103" t="n">
+        <v>1752.6</v>
+      </c>
+      <c r="H103" t="n">
         <v>1787.65</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4329,21 @@
         <v>2213.3885</v>
       </c>
       <c r="G104" t="n">
+        <v>1748.466666666667</v>
+      </c>
+      <c r="H104" t="n">
         <v>1785.85</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4367,21 @@
         <v>486.5321</v>
       </c>
       <c r="G105" t="n">
+        <v>1744.533333333333</v>
+      </c>
+      <c r="H105" t="n">
         <v>1784.416666666667</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4405,21 @@
         <v>1128.3375</v>
       </c>
       <c r="G106" t="n">
+        <v>1741</v>
+      </c>
+      <c r="H106" t="n">
         <v>1782.85</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4443,21 @@
         <v>534.525</v>
       </c>
       <c r="G107" t="n">
+        <v>1736.533333333333</v>
+      </c>
+      <c r="H107" t="n">
         <v>1780.816666666667</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4481,21 @@
         <v>1830.6382</v>
       </c>
       <c r="G108" t="n">
+        <v>1733.6</v>
+      </c>
+      <c r="H108" t="n">
         <v>1779.033333333333</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4519,21 @@
         <v>0.9167999999999999</v>
       </c>
       <c r="G109" t="n">
+        <v>1732.733333333333</v>
+      </c>
+      <c r="H109" t="n">
         <v>1777.366666666667</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4557,21 @@
         <v>285.2936</v>
       </c>
       <c r="G110" t="n">
+        <v>1730.866666666667</v>
+      </c>
+      <c r="H110" t="n">
         <v>1775.483333333333</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4595,21 @@
         <v>157.3126</v>
       </c>
       <c r="G111" t="n">
+        <v>1727.866666666667</v>
+      </c>
+      <c r="H111" t="n">
         <v>1773.55</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4633,21 @@
         <v>45</v>
       </c>
       <c r="G112" t="n">
+        <v>1725.866666666667</v>
+      </c>
+      <c r="H112" t="n">
         <v>1771.616666666667</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4671,21 @@
         <v>50</v>
       </c>
       <c r="G113" t="n">
+        <v>1723.2</v>
+      </c>
+      <c r="H113" t="n">
         <v>1769.683333333333</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4709,21 @@
         <v>25.4189</v>
       </c>
       <c r="G114" t="n">
+        <v>1719.533333333333</v>
+      </c>
+      <c r="H114" t="n">
         <v>1767.966666666667</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,22 +4747,21 @@
         <v>116.7282</v>
       </c>
       <c r="G115" t="n">
+        <v>1716.666666666667</v>
+      </c>
+      <c r="H115" t="n">
         <v>1766.283333333333</v>
       </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>1705</v>
-      </c>
-      <c r="K115" t="n">
-        <v>1705</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4442,2406 +4785,2987 @@
         <v>260.7987</v>
       </c>
       <c r="G116" t="n">
+        <v>1712.733333333333</v>
+      </c>
+      <c r="H116" t="n">
         <v>1764.35</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>1705</v>
-      </c>
-      <c r="L116" t="inlineStr">
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1688</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1688</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1688</v>
+      </c>
+      <c r="E117" t="n">
+        <v>1688</v>
+      </c>
+      <c r="F117" t="n">
+        <v>49.7884</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1709.933333333333</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1762.633333333333</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1688</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1709</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1709</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1688</v>
+      </c>
+      <c r="F118" t="n">
+        <v>33</v>
+      </c>
+      <c r="G118" t="n">
+        <v>1709.066666666667</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1761.366666666667</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1710</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1710</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1710</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1710</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.6463</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1708.466666666667</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1760.266666666667</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>1709</v>
+      </c>
+      <c r="L119" t="n">
+        <v>1709</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1717</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1731</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1731</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1717</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1890.9326</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1709.266666666667</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1759.516666666667</v>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>1710</v>
+      </c>
+      <c r="L120" t="n">
+        <v>1709</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1744</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1744</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1744</v>
+      </c>
+      <c r="E121" t="n">
+        <v>1744</v>
+      </c>
+      <c r="F121" t="n">
+        <v>753.6427</v>
+      </c>
+      <c r="G121" t="n">
+        <v>1711.066666666667</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1758.883333333333</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1709</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1725</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1724</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1725</v>
+      </c>
+      <c r="E122" t="n">
+        <v>1724</v>
+      </c>
+      <c r="F122" t="n">
+        <v>84.396</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1712.666666666667</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1757.5</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1723</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1742</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1742</v>
+      </c>
+      <c r="E123" t="n">
+        <v>1723</v>
+      </c>
+      <c r="F123" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1713.933333333333</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1756.7</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1731</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1732</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1732</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1731</v>
+      </c>
+      <c r="F124" t="n">
+        <v>196.8085</v>
+      </c>
+      <c r="G124" t="n">
+        <v>1714.466666666667</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1755.466666666667</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1732</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1731</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1732</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1731</v>
+      </c>
+      <c r="F125" t="n">
+        <v>121.6593</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1715.933333333333</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1754.133333333333</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1739</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1721</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1739</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1721</v>
+      </c>
+      <c r="F126" t="n">
+        <v>16.8822</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1716.733333333333</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1752.833333333333</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1738</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1738</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1738</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1738</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G127" t="n">
+        <v>1718.666666666667</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1751.8</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>1721</v>
+      </c>
+      <c r="L127" t="n">
+        <v>1721</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1738</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1738</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1738</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1738</v>
+      </c>
+      <c r="F128" t="n">
+        <v>31.57192174</v>
+      </c>
+      <c r="G128" t="n">
+        <v>1720.6</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1750.766666666667</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>1738</v>
+      </c>
+      <c r="L128" t="n">
+        <v>1721</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1734</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1735</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1736</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1734</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1366.3323</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1722.6</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1749.7</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>1738</v>
+      </c>
+      <c r="L129" t="n">
+        <v>1721</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1735</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1735</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1736</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1735</v>
+      </c>
+      <c r="F130" t="n">
+        <v>479.4109</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1724.533333333333</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1748.633333333333</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>1735</v>
+      </c>
+      <c r="L130" t="n">
+        <v>1721</v>
+      </c>
+      <c r="M130" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>1688</v>
-      </c>
-      <c r="C117" t="n">
-        <v>1688</v>
-      </c>
-      <c r="D117" t="n">
-        <v>1688</v>
-      </c>
-      <c r="E117" t="n">
-        <v>1688</v>
-      </c>
-      <c r="F117" t="n">
-        <v>49.7884</v>
-      </c>
-      <c r="G117" t="n">
-        <v>1762.633333333333</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="n">
-        <v>1690</v>
-      </c>
-      <c r="K117" t="n">
-        <v>1705</v>
-      </c>
-      <c r="L117" t="inlineStr">
+      <c r="N130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1723</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1722</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1723</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1722</v>
+      </c>
+      <c r="F131" t="n">
+        <v>326.17</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1726.666666666667</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1747.25</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>1735</v>
+      </c>
+      <c r="L131" t="n">
+        <v>1721</v>
+      </c>
+      <c r="M131" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>1688</v>
-      </c>
-      <c r="C118" t="n">
-        <v>1709</v>
-      </c>
-      <c r="D118" t="n">
-        <v>1709</v>
-      </c>
-      <c r="E118" t="n">
-        <v>1688</v>
-      </c>
-      <c r="F118" t="n">
-        <v>33</v>
-      </c>
-      <c r="G118" t="n">
-        <v>1761.366666666667</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>1705</v>
-      </c>
-      <c r="L118" t="inlineStr">
+      <c r="N131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1738</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1738</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1738</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1738</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1730</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1746.233333333333</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="n">
+        <v>1722</v>
+      </c>
+      <c r="L132" t="n">
+        <v>1721</v>
+      </c>
+      <c r="M132" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>1710</v>
-      </c>
-      <c r="C119" t="n">
-        <v>1710</v>
-      </c>
-      <c r="D119" t="n">
-        <v>1710</v>
-      </c>
-      <c r="E119" t="n">
-        <v>1710</v>
-      </c>
-      <c r="F119" t="n">
-        <v>0.6463</v>
-      </c>
-      <c r="G119" t="n">
-        <v>1760.266666666667</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>1705</v>
-      </c>
-      <c r="L119" t="inlineStr">
+      <c r="N132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1735</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1741</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1741</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1724</v>
+      </c>
+      <c r="F133" t="n">
+        <v>149.0995</v>
+      </c>
+      <c r="G133" t="n">
+        <v>1732.133333333333</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1745.45</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>1738</v>
+      </c>
+      <c r="L133" t="n">
+        <v>1721</v>
+      </c>
+      <c r="M133" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>1717</v>
-      </c>
-      <c r="C120" t="n">
-        <v>1731</v>
-      </c>
-      <c r="D120" t="n">
-        <v>1731</v>
-      </c>
-      <c r="E120" t="n">
-        <v>1717</v>
-      </c>
-      <c r="F120" t="n">
-        <v>1890.9326</v>
-      </c>
-      <c r="G120" t="n">
-        <v>1759.516666666667</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>1705</v>
-      </c>
-      <c r="L120" t="inlineStr">
+      <c r="N133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1724</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1724</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1724</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1724</v>
+      </c>
+      <c r="F134" t="n">
+        <v>44.423</v>
+      </c>
+      <c r="G134" t="n">
+        <v>1733.066666666667</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1744.516666666667</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>1741</v>
+      </c>
+      <c r="L134" t="n">
+        <v>1721</v>
+      </c>
+      <c r="M134" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>1744</v>
-      </c>
-      <c r="C121" t="n">
-        <v>1744</v>
-      </c>
-      <c r="D121" t="n">
-        <v>1744</v>
-      </c>
-      <c r="E121" t="n">
-        <v>1744</v>
-      </c>
-      <c r="F121" t="n">
-        <v>753.6427</v>
-      </c>
-      <c r="G121" t="n">
-        <v>1758.883333333333</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>1705</v>
-      </c>
-      <c r="L121" t="inlineStr">
+      <c r="N134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1726</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1725</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1726</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1725</v>
+      </c>
+      <c r="F135" t="n">
+        <v>42.1169</v>
+      </c>
+      <c r="G135" t="n">
+        <v>1732.666666666667</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1743.666666666667</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>1724</v>
+      </c>
+      <c r="L135" t="n">
+        <v>1721</v>
+      </c>
+      <c r="M135" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
+      <c r="N135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1724</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1723</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1724</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1723</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1344.2888</v>
+      </c>
+      <c r="G136" t="n">
+        <v>1731.266666666667</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1742.6</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="n">
         <v>1725</v>
       </c>
-      <c r="C122" t="n">
-        <v>1724</v>
-      </c>
-      <c r="D122" t="n">
-        <v>1725</v>
-      </c>
-      <c r="E122" t="n">
-        <v>1724</v>
-      </c>
-      <c r="F122" t="n">
-        <v>84.396</v>
-      </c>
-      <c r="G122" t="n">
-        <v>1757.5</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>1705</v>
-      </c>
-      <c r="L122" t="inlineStr">
+      <c r="L136" t="n">
+        <v>1721</v>
+      </c>
+      <c r="M136" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
+      <c r="N136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
         <v>1723</v>
       </c>
-      <c r="C123" t="n">
-        <v>1742</v>
-      </c>
-      <c r="D123" t="n">
-        <v>1742</v>
-      </c>
-      <c r="E123" t="n">
+      <c r="C137" t="n">
         <v>1723</v>
       </c>
-      <c r="F123" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="G123" t="n">
-        <v>1756.7</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>1705</v>
-      </c>
-      <c r="L123" t="inlineStr">
+      <c r="D137" t="n">
+        <v>1724</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1723</v>
+      </c>
+      <c r="F137" t="n">
+        <v>5493.8386</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1731.2</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1741.533333333333</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1721</v>
+      </c>
+      <c r="M137" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>1731</v>
-      </c>
-      <c r="C124" t="n">
-        <v>1732</v>
-      </c>
-      <c r="D124" t="n">
-        <v>1732</v>
-      </c>
-      <c r="E124" t="n">
-        <v>1731</v>
-      </c>
-      <c r="F124" t="n">
-        <v>196.8085</v>
-      </c>
-      <c r="G124" t="n">
-        <v>1755.466666666667</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>1705</v>
-      </c>
-      <c r="L124" t="inlineStr">
+      <c r="N137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1723</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1720</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1723</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1720</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1696.7212</v>
+      </c>
+      <c r="G138" t="n">
+        <v>1729.733333333333</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1740.433333333333</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1721</v>
+      </c>
+      <c r="M138" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>1732</v>
-      </c>
-      <c r="C125" t="n">
-        <v>1731</v>
-      </c>
-      <c r="D125" t="n">
-        <v>1732</v>
-      </c>
-      <c r="E125" t="n">
-        <v>1731</v>
-      </c>
-      <c r="F125" t="n">
-        <v>121.6593</v>
-      </c>
-      <c r="G125" t="n">
-        <v>1754.133333333333</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>1705</v>
-      </c>
-      <c r="L125" t="inlineStr">
+      <c r="N138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1721</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1720</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1721</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1720</v>
+      </c>
+      <c r="F139" t="n">
+        <v>349.79</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1728.933333333333</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1739.533333333333</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1721</v>
+      </c>
+      <c r="M139" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>1739</v>
-      </c>
-      <c r="C126" t="n">
+      <c r="N139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1720</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1720</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1720</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1720</v>
+      </c>
+      <c r="F140" t="n">
+        <v>23.23</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1728.2</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1738.383333333333</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
         <v>1721</v>
       </c>
-      <c r="D126" t="n">
-        <v>1739</v>
-      </c>
-      <c r="E126" t="n">
-        <v>1721</v>
-      </c>
-      <c r="F126" t="n">
-        <v>16.8822</v>
-      </c>
-      <c r="G126" t="n">
-        <v>1752.833333333333</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>1705</v>
-      </c>
-      <c r="L126" t="inlineStr">
+      <c r="M140" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>1738</v>
-      </c>
-      <c r="C127" t="n">
-        <v>1738</v>
-      </c>
-      <c r="D127" t="n">
-        <v>1738</v>
-      </c>
-      <c r="E127" t="n">
-        <v>1738</v>
-      </c>
-      <c r="F127" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G127" t="n">
-        <v>1751.8</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>1705</v>
-      </c>
-      <c r="L127" t="inlineStr">
+      <c r="N140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1724</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1800</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1724</v>
+      </c>
+      <c r="F141" t="n">
+        <v>5309.44775622</v>
+      </c>
+      <c r="G141" t="n">
+        <v>1733.466666666667</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1738.783333333333</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1721</v>
+      </c>
+      <c r="M141" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>1738</v>
-      </c>
-      <c r="C128" t="n">
-        <v>1738</v>
-      </c>
-      <c r="D128" t="n">
-        <v>1738</v>
-      </c>
-      <c r="E128" t="n">
-        <v>1738</v>
-      </c>
-      <c r="F128" t="n">
-        <v>31.57192174</v>
-      </c>
-      <c r="G128" t="n">
-        <v>1750.766666666667</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>1705</v>
-      </c>
-      <c r="L128" t="inlineStr">
+      <c r="N141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1727</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1726</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1727</v>
+      </c>
+      <c r="E142" t="n">
+        <v>1726</v>
+      </c>
+      <c r="F142" t="n">
+        <v>82.56</v>
+      </c>
+      <c r="G142" t="n">
+        <v>1732.666666666667</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1737.7</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1721</v>
+      </c>
+      <c r="M142" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>1734</v>
-      </c>
-      <c r="C129" t="n">
-        <v>1735</v>
-      </c>
-      <c r="D129" t="n">
-        <v>1736</v>
-      </c>
-      <c r="E129" t="n">
-        <v>1734</v>
-      </c>
-      <c r="F129" t="n">
-        <v>1366.3323</v>
-      </c>
-      <c r="G129" t="n">
-        <v>1749.7</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>1705</v>
-      </c>
-      <c r="L129" t="inlineStr">
+      <c r="N142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1780</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1780</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1780</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1780</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G143" t="n">
+        <v>1735.466666666667</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1737.516666666667</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1721</v>
+      </c>
+      <c r="M143" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>1735</v>
-      </c>
-      <c r="C130" t="n">
-        <v>1735</v>
-      </c>
-      <c r="D130" t="n">
-        <v>1736</v>
-      </c>
-      <c r="E130" t="n">
-        <v>1735</v>
-      </c>
-      <c r="F130" t="n">
-        <v>479.4109</v>
-      </c>
-      <c r="G130" t="n">
-        <v>1748.633333333333</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>1705</v>
-      </c>
-      <c r="L130" t="inlineStr">
+      <c r="N143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1732</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1732</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1733</v>
+      </c>
+      <c r="E144" t="n">
+        <v>1730</v>
+      </c>
+      <c r="F144" t="n">
+        <v>35.7392</v>
+      </c>
+      <c r="G144" t="n">
+        <v>1735.266666666667</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1736.333333333333</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1721</v>
+      </c>
+      <c r="M144" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>1723</v>
-      </c>
-      <c r="C131" t="n">
-        <v>1722</v>
-      </c>
-      <c r="D131" t="n">
-        <v>1723</v>
-      </c>
-      <c r="E131" t="n">
-        <v>1722</v>
-      </c>
-      <c r="F131" t="n">
-        <v>326.17</v>
-      </c>
-      <c r="G131" t="n">
-        <v>1747.25</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>1705</v>
-      </c>
-      <c r="L131" t="inlineStr">
+      <c r="N144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1724</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1730</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1775</v>
+      </c>
+      <c r="E145" t="n">
+        <v>1724</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1449.1124</v>
+      </c>
+      <c r="G145" t="n">
+        <v>1734.933333333333</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1735.166666666667</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1721</v>
+      </c>
+      <c r="M145" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
+      <c r="N145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1768</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1768</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1768</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1768</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G146" t="n">
         <v>1738</v>
       </c>
-      <c r="C132" t="n">
-        <v>1738</v>
-      </c>
-      <c r="D132" t="n">
-        <v>1738</v>
-      </c>
-      <c r="E132" t="n">
-        <v>1738</v>
-      </c>
-      <c r="F132" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G132" t="n">
-        <v>1746.233333333333</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>1705</v>
-      </c>
-      <c r="L132" t="inlineStr">
+      <c r="H146" t="n">
+        <v>1734.633333333333</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1721</v>
+      </c>
+      <c r="M146" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>1735</v>
-      </c>
-      <c r="C133" t="n">
-        <v>1741</v>
-      </c>
-      <c r="D133" t="n">
-        <v>1741</v>
-      </c>
-      <c r="E133" t="n">
-        <v>1724</v>
-      </c>
-      <c r="F133" t="n">
-        <v>149.0995</v>
-      </c>
-      <c r="G133" t="n">
-        <v>1745.45</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>1705</v>
-      </c>
-      <c r="L133" t="inlineStr">
+      <c r="N146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1723</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1721</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1723</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1721</v>
+      </c>
+      <c r="F147" t="n">
+        <v>117.7821</v>
+      </c>
+      <c r="G147" t="n">
+        <v>1736.866666666667</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1733.333333333333</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1721</v>
+      </c>
+      <c r="M147" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>1724</v>
-      </c>
-      <c r="C134" t="n">
-        <v>1724</v>
-      </c>
-      <c r="D134" t="n">
-        <v>1724</v>
-      </c>
-      <c r="E134" t="n">
-        <v>1724</v>
-      </c>
-      <c r="F134" t="n">
-        <v>44.423</v>
-      </c>
-      <c r="G134" t="n">
-        <v>1744.516666666667</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>1705</v>
-      </c>
-      <c r="L134" t="inlineStr">
+      <c r="N147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1746</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1771</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1771</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1746</v>
+      </c>
+      <c r="F148" t="n">
+        <v>56.56148481</v>
+      </c>
+      <c r="G148" t="n">
+        <v>1738.866666666667</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1733.166666666667</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1721</v>
+      </c>
+      <c r="M148" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>1726</v>
-      </c>
-      <c r="C135" t="n">
-        <v>1725</v>
-      </c>
-      <c r="D135" t="n">
-        <v>1726</v>
-      </c>
-      <c r="E135" t="n">
-        <v>1725</v>
-      </c>
-      <c r="F135" t="n">
-        <v>42.1169</v>
-      </c>
-      <c r="G135" t="n">
-        <v>1743.666666666667</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>1705</v>
-      </c>
-      <c r="L135" t="inlineStr">
+      <c r="N148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1734</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1735</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1735</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1734</v>
+      </c>
+      <c r="F149" t="n">
+        <v>17.5323</v>
+      </c>
+      <c r="G149" t="n">
+        <v>1739.6</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1732.4</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1721</v>
+      </c>
+      <c r="M149" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>1724</v>
-      </c>
-      <c r="C136" t="n">
-        <v>1723</v>
-      </c>
-      <c r="D136" t="n">
-        <v>1724</v>
-      </c>
-      <c r="E136" t="n">
-        <v>1723</v>
-      </c>
-      <c r="F136" t="n">
-        <v>1344.2888</v>
-      </c>
-      <c r="G136" t="n">
-        <v>1742.6</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>1705</v>
-      </c>
-      <c r="L136" t="inlineStr">
+      <c r="N149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1726</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1725</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1726</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1725</v>
+      </c>
+      <c r="F150" t="n">
+        <v>110.6914</v>
+      </c>
+      <c r="G150" t="n">
+        <v>1739.6</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1731.516666666667</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1721</v>
+      </c>
+      <c r="M150" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>1723</v>
-      </c>
-      <c r="C137" t="n">
-        <v>1723</v>
-      </c>
-      <c r="D137" t="n">
-        <v>1724</v>
-      </c>
-      <c r="E137" t="n">
-        <v>1723</v>
-      </c>
-      <c r="F137" t="n">
-        <v>5493.8386</v>
-      </c>
-      <c r="G137" t="n">
-        <v>1741.533333333333</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>1705</v>
-      </c>
-      <c r="L137" t="inlineStr">
+      <c r="N150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1738</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1725</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1739</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1725</v>
+      </c>
+      <c r="F151" t="n">
+        <v>625.9045</v>
+      </c>
+      <c r="G151" t="n">
+        <v>1739.733333333333</v>
+      </c>
+      <c r="H151" t="n">
+        <v>1730.766666666667</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1721</v>
+      </c>
+      <c r="M151" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>1723</v>
-      </c>
-      <c r="C138" t="n">
-        <v>1720</v>
-      </c>
-      <c r="D138" t="n">
-        <v>1723</v>
-      </c>
-      <c r="E138" t="n">
-        <v>1720</v>
-      </c>
-      <c r="F138" t="n">
-        <v>1696.7212</v>
-      </c>
-      <c r="G138" t="n">
-        <v>1740.433333333333</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>1705</v>
-      </c>
-      <c r="L138" t="inlineStr">
+      <c r="N151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1740</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1740</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1740</v>
+      </c>
+      <c r="E152" t="n">
+        <v>1740</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G152" t="n">
+        <v>1740.866666666667</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1730.316666666667</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1721</v>
+      </c>
+      <c r="M152" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
+      <c r="N152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1734</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1734</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1734</v>
+      </c>
+      <c r="E153" t="n">
+        <v>1734</v>
+      </c>
+      <c r="F153" t="n">
+        <v>82.179</v>
+      </c>
+      <c r="G153" t="n">
+        <v>1741.8</v>
+      </c>
+      <c r="H153" t="n">
+        <v>1729.766666666667</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
         <v>1721</v>
       </c>
-      <c r="C139" t="n">
-        <v>1720</v>
-      </c>
-      <c r="D139" t="n">
-        <v>1721</v>
-      </c>
-      <c r="E139" t="n">
-        <v>1720</v>
-      </c>
-      <c r="F139" t="n">
-        <v>349.79</v>
-      </c>
-      <c r="G139" t="n">
-        <v>1739.533333333333</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>1705</v>
-      </c>
-      <c r="L139" t="inlineStr">
+      <c r="M153" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>1720</v>
-      </c>
-      <c r="C140" t="n">
-        <v>1720</v>
-      </c>
-      <c r="D140" t="n">
-        <v>1720</v>
-      </c>
-      <c r="E140" t="n">
-        <v>1720</v>
-      </c>
-      <c r="F140" t="n">
-        <v>23.23</v>
-      </c>
-      <c r="G140" t="n">
-        <v>1738.383333333333</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>1705</v>
-      </c>
-      <c r="L140" t="inlineStr">
+      <c r="N153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1750</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1750</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1750</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1750</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.2883</v>
+      </c>
+      <c r="G154" t="n">
+        <v>1743.8</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1729.983333333333</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1721</v>
+      </c>
+      <c r="M154" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>1724</v>
-      </c>
-      <c r="C141" t="n">
-        <v>1800</v>
-      </c>
-      <c r="D141" t="n">
-        <v>1800</v>
-      </c>
-      <c r="E141" t="n">
-        <v>1724</v>
-      </c>
-      <c r="F141" t="n">
-        <v>5309.44775622</v>
-      </c>
-      <c r="G141" t="n">
-        <v>1738.783333333333</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>1705</v>
-      </c>
-      <c r="L141" t="inlineStr">
+      <c r="N154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1746</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1771</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1771</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1746</v>
+      </c>
+      <c r="F155" t="n">
+        <v>309.4296</v>
+      </c>
+      <c r="G155" t="n">
+        <v>1747.2</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1730.55</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1721</v>
+      </c>
+      <c r="M155" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>1727</v>
-      </c>
-      <c r="C142" t="n">
-        <v>1726</v>
-      </c>
-      <c r="D142" t="n">
-        <v>1727</v>
-      </c>
-      <c r="E142" t="n">
-        <v>1726</v>
-      </c>
-      <c r="F142" t="n">
-        <v>82.56</v>
-      </c>
-      <c r="G142" t="n">
-        <v>1737.7</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>1705</v>
-      </c>
-      <c r="L142" t="inlineStr">
+      <c r="N155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1735</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1707</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1735</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1707</v>
+      </c>
+      <c r="F156" t="n">
+        <v>3822.6844</v>
+      </c>
+      <c r="G156" t="n">
+        <v>1741</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1729.766666666667</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1721</v>
+      </c>
+      <c r="M156" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>1780</v>
-      </c>
-      <c r="C143" t="n">
-        <v>1780</v>
-      </c>
-      <c r="D143" t="n">
-        <v>1780</v>
-      </c>
-      <c r="E143" t="n">
-        <v>1780</v>
-      </c>
-      <c r="F143" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="G143" t="n">
-        <v>1737.516666666667</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>1705</v>
-      </c>
-      <c r="L143" t="inlineStr">
+      <c r="N156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1739</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1740</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1742</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1739</v>
+      </c>
+      <c r="F157" t="n">
+        <v>3120.7014</v>
+      </c>
+      <c r="G157" t="n">
+        <v>1741.933333333333</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1729.783333333333</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1721</v>
+      </c>
+      <c r="M157" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>1732</v>
-      </c>
-      <c r="C144" t="n">
-        <v>1732</v>
-      </c>
-      <c r="D144" t="n">
-        <v>1733</v>
-      </c>
-      <c r="E144" t="n">
-        <v>1730</v>
-      </c>
-      <c r="F144" t="n">
-        <v>35.7392</v>
-      </c>
-      <c r="G144" t="n">
-        <v>1736.333333333333</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>1705</v>
-      </c>
-      <c r="L144" t="inlineStr">
+      <c r="N157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1738</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1739</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1739</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1738</v>
+      </c>
+      <c r="F158" t="n">
+        <v>79.3229</v>
+      </c>
+      <c r="G158" t="n">
+        <v>1739.2</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1729.616666666667</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1721</v>
+      </c>
+      <c r="M158" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>1724</v>
-      </c>
-      <c r="C145" t="n">
-        <v>1730</v>
-      </c>
-      <c r="D145" t="n">
-        <v>1775</v>
-      </c>
-      <c r="E145" t="n">
-        <v>1724</v>
-      </c>
-      <c r="F145" t="n">
-        <v>1449.1124</v>
-      </c>
-      <c r="G145" t="n">
-        <v>1735.166666666667</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>1705</v>
-      </c>
-      <c r="L145" t="inlineStr">
+      <c r="N158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1752</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1754</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1754</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1752</v>
+      </c>
+      <c r="F159" t="n">
+        <v>873.0547</v>
+      </c>
+      <c r="G159" t="n">
+        <v>1740.666666666667</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1729.516666666667</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1721</v>
+      </c>
+      <c r="M159" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>1768</v>
-      </c>
-      <c r="C146" t="n">
-        <v>1768</v>
-      </c>
-      <c r="D146" t="n">
-        <v>1768</v>
-      </c>
-      <c r="E146" t="n">
-        <v>1768</v>
-      </c>
-      <c r="F146" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G146" t="n">
-        <v>1734.633333333333</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>1705</v>
-      </c>
-      <c r="L146" t="inlineStr">
+      <c r="N159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1740</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1719</v>
+      </c>
+      <c r="D160" t="n">
+        <v>1742</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1719</v>
+      </c>
+      <c r="F160" t="n">
+        <v>262.085</v>
+      </c>
+      <c r="G160" t="n">
+        <v>1739.933333333333</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1729.016666666667</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1721</v>
+      </c>
+      <c r="M160" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>1723</v>
-      </c>
-      <c r="C147" t="n">
+      <c r="N160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>1751</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1751</v>
+      </c>
+      <c r="D161" t="n">
+        <v>1751</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1751</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G161" t="n">
+        <v>1738.8</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1729.05</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
         <v>1721</v>
       </c>
-      <c r="D147" t="n">
-        <v>1723</v>
-      </c>
-      <c r="E147" t="n">
-        <v>1721</v>
-      </c>
-      <c r="F147" t="n">
-        <v>117.7821</v>
-      </c>
-      <c r="G147" t="n">
-        <v>1733.333333333333</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>1705</v>
-      </c>
-      <c r="L147" t="inlineStr">
+      <c r="M161" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>1746</v>
-      </c>
-      <c r="C148" t="n">
-        <v>1771</v>
-      </c>
-      <c r="D148" t="n">
-        <v>1771</v>
-      </c>
-      <c r="E148" t="n">
-        <v>1746</v>
-      </c>
-      <c r="F148" t="n">
-        <v>56.56148481</v>
-      </c>
-      <c r="G148" t="n">
-        <v>1733.166666666667</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>1705</v>
-      </c>
-      <c r="L148" t="inlineStr">
+      <c r="N161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1724</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1756</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1756</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1722</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1082.8493</v>
+      </c>
+      <c r="G162" t="n">
+        <v>1741.133333333333</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1729.483333333333</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1721</v>
+      </c>
+      <c r="M162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>1734</v>
-      </c>
-      <c r="C149" t="n">
-        <v>1735</v>
-      </c>
-      <c r="D149" t="n">
-        <v>1735</v>
-      </c>
-      <c r="E149" t="n">
-        <v>1734</v>
-      </c>
-      <c r="F149" t="n">
-        <v>17.5323</v>
-      </c>
-      <c r="G149" t="n">
-        <v>1732.4</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>1705</v>
-      </c>
-      <c r="L149" t="inlineStr">
+      <c r="N162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1755</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1756</v>
+      </c>
+      <c r="D163" t="n">
+        <v>1756</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1755</v>
+      </c>
+      <c r="F163" t="n">
+        <v>282.6302</v>
+      </c>
+      <c r="G163" t="n">
+        <v>1740.133333333333</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1730.05</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1721</v>
+      </c>
+      <c r="M163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
+      <c r="N163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1756</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1772</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1772</v>
+      </c>
+      <c r="E164" t="n">
         <v>1726</v>
       </c>
-      <c r="C150" t="n">
-        <v>1725</v>
-      </c>
-      <c r="D150" t="n">
-        <v>1726</v>
-      </c>
-      <c r="E150" t="n">
-        <v>1725</v>
-      </c>
-      <c r="F150" t="n">
-        <v>110.6914</v>
-      </c>
-      <c r="G150" t="n">
-        <v>1731.516666666667</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>1705</v>
-      </c>
-      <c r="L150" t="inlineStr">
+      <c r="F164" t="n">
+        <v>809.35</v>
+      </c>
+      <c r="G164" t="n">
+        <v>1742.6</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1730.933333333333</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1721</v>
+      </c>
+      <c r="M164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>1738</v>
-      </c>
-      <c r="C151" t="n">
-        <v>1725</v>
-      </c>
-      <c r="D151" t="n">
-        <v>1739</v>
-      </c>
-      <c r="E151" t="n">
-        <v>1725</v>
-      </c>
-      <c r="F151" t="n">
-        <v>625.9045</v>
-      </c>
-      <c r="G151" t="n">
-        <v>1730.766666666667</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>1705</v>
-      </c>
-      <c r="L151" t="inlineStr">
+      <c r="N164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1743</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1743</v>
+      </c>
+      <c r="D165" t="n">
+        <v>1744</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1743</v>
+      </c>
+      <c r="F165" t="n">
+        <v>133.407</v>
+      </c>
+      <c r="G165" t="n">
+        <v>1743.8</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1731.333333333333</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1721</v>
+      </c>
+      <c r="M165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
+      <c r="N165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1741</v>
+      </c>
+      <c r="C166" t="n">
         <v>1740</v>
       </c>
-      <c r="C152" t="n">
+      <c r="D166" t="n">
+        <v>1741</v>
+      </c>
+      <c r="E166" t="n">
         <v>1740</v>
       </c>
-      <c r="D152" t="n">
-        <v>1740</v>
-      </c>
-      <c r="E152" t="n">
-        <v>1740</v>
-      </c>
-      <c r="F152" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G152" t="n">
-        <v>1730.316666666667</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>1705</v>
-      </c>
-      <c r="L152" t="inlineStr">
+      <c r="F166" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="G166" t="n">
+        <v>1744.8</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1731.716666666667</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1721</v>
+      </c>
+      <c r="M166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
+      <c r="N166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
         <v>1734</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C167" t="n">
+        <v>1720</v>
+      </c>
+      <c r="D167" t="n">
         <v>1734</v>
       </c>
-      <c r="D153" t="n">
-        <v>1734</v>
-      </c>
-      <c r="E153" t="n">
-        <v>1734</v>
-      </c>
-      <c r="F153" t="n">
-        <v>82.179</v>
-      </c>
-      <c r="G153" t="n">
-        <v>1729.766666666667</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>1705</v>
-      </c>
-      <c r="L153" t="inlineStr">
+      <c r="E167" t="n">
+        <v>1720</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1052.0531</v>
+      </c>
+      <c r="G167" t="n">
+        <v>1743.466666666667</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1732.05</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1721</v>
+      </c>
+      <c r="M167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>1750</v>
-      </c>
-      <c r="C154" t="n">
-        <v>1750</v>
-      </c>
-      <c r="D154" t="n">
-        <v>1750</v>
-      </c>
-      <c r="E154" t="n">
-        <v>1750</v>
-      </c>
-      <c r="F154" t="n">
-        <v>0.2883</v>
-      </c>
-      <c r="G154" t="n">
-        <v>1729.983333333333</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>1705</v>
-      </c>
-      <c r="L154" t="inlineStr">
+      <c r="N167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>1747</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1747</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1747</v>
+      </c>
+      <c r="E168" t="n">
+        <v>1747</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G168" t="n">
+        <v>1744.333333333333</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1732.45</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1721</v>
+      </c>
+      <c r="M168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>1746</v>
-      </c>
-      <c r="C155" t="n">
-        <v>1771</v>
-      </c>
-      <c r="D155" t="n">
-        <v>1771</v>
-      </c>
-      <c r="E155" t="n">
-        <v>1746</v>
-      </c>
-      <c r="F155" t="n">
-        <v>309.4296</v>
-      </c>
-      <c r="G155" t="n">
-        <v>1730.55</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="n">
-        <v>1750</v>
-      </c>
-      <c r="K155" t="n">
-        <v>1705</v>
-      </c>
-      <c r="L155" t="inlineStr">
+      <c r="N168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1721</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1721</v>
+      </c>
+      <c r="D169" t="n">
+        <v>1721</v>
+      </c>
+      <c r="E169" t="n">
+        <v>1721</v>
+      </c>
+      <c r="F169" t="n">
+        <v>18</v>
+      </c>
+      <c r="G169" t="n">
+        <v>1742.4</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1732.4</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1721</v>
+      </c>
+      <c r="M169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>1735</v>
-      </c>
-      <c r="C156" t="n">
-        <v>1707</v>
-      </c>
-      <c r="D156" t="n">
-        <v>1735</v>
-      </c>
-      <c r="E156" t="n">
-        <v>1707</v>
-      </c>
-      <c r="F156" t="n">
-        <v>3822.6844</v>
-      </c>
-      <c r="G156" t="n">
-        <v>1729.766666666667</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>1705</v>
-      </c>
-      <c r="L156" t="inlineStr">
+      <c r="N169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>1726</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1726</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1726</v>
+      </c>
+      <c r="E170" t="n">
+        <v>1726</v>
+      </c>
+      <c r="F170" t="n">
+        <v>87.1069</v>
+      </c>
+      <c r="G170" t="n">
+        <v>1739.4</v>
+      </c>
+      <c r="H170" t="n">
+        <v>1732.683333333333</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1721</v>
+      </c>
+      <c r="M170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>1739</v>
-      </c>
-      <c r="C157" t="n">
-        <v>1740</v>
-      </c>
-      <c r="D157" t="n">
-        <v>1742</v>
-      </c>
-      <c r="E157" t="n">
-        <v>1739</v>
-      </c>
-      <c r="F157" t="n">
-        <v>3120.7014</v>
-      </c>
-      <c r="G157" t="n">
-        <v>1729.783333333333</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>1705</v>
-      </c>
-      <c r="L157" t="inlineStr">
+      <c r="N170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1726</v>
+      </c>
+      <c r="C171" t="n">
+        <v>1727</v>
+      </c>
+      <c r="D171" t="n">
+        <v>1727</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1726</v>
+      </c>
+      <c r="F171" t="n">
+        <v>49.8065</v>
+      </c>
+      <c r="G171" t="n">
+        <v>1740.733333333333</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1732.983333333333</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1721</v>
+      </c>
+      <c r="M171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>1738</v>
-      </c>
-      <c r="C158" t="n">
-        <v>1739</v>
-      </c>
-      <c r="D158" t="n">
-        <v>1739</v>
-      </c>
-      <c r="E158" t="n">
-        <v>1738</v>
-      </c>
-      <c r="F158" t="n">
-        <v>79.3229</v>
-      </c>
-      <c r="G158" t="n">
-        <v>1729.616666666667</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>1705</v>
-      </c>
-      <c r="L158" t="inlineStr">
+      <c r="N171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>1727</v>
+      </c>
+      <c r="C172" t="n">
+        <v>1727</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1727</v>
+      </c>
+      <c r="E172" t="n">
+        <v>1727</v>
+      </c>
+      <c r="F172" t="n">
+        <v>65.80159999999999</v>
+      </c>
+      <c r="G172" t="n">
+        <v>1739.866666666667</v>
+      </c>
+      <c r="H172" t="n">
+        <v>1733.283333333333</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1721</v>
+      </c>
+      <c r="M172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>1752</v>
-      </c>
-      <c r="C159" t="n">
-        <v>1754</v>
-      </c>
-      <c r="D159" t="n">
-        <v>1754</v>
-      </c>
-      <c r="E159" t="n">
-        <v>1752</v>
-      </c>
-      <c r="F159" t="n">
-        <v>873.0547</v>
-      </c>
-      <c r="G159" t="n">
-        <v>1729.516666666667</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>1705</v>
-      </c>
-      <c r="L159" t="inlineStr">
+      <c r="N172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>1720</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1727</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1727</v>
+      </c>
+      <c r="E173" t="n">
+        <v>1720</v>
+      </c>
+      <c r="F173" t="n">
+        <v>78.73099999999999</v>
+      </c>
+      <c r="G173" t="n">
+        <v>1739.066666666667</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1733.583333333333</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1721</v>
+      </c>
+      <c r="M173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>1740</v>
-      </c>
-      <c r="C160" t="n">
-        <v>1719</v>
-      </c>
-      <c r="D160" t="n">
-        <v>1742</v>
-      </c>
-      <c r="E160" t="n">
-        <v>1719</v>
-      </c>
-      <c r="F160" t="n">
-        <v>262.085</v>
-      </c>
-      <c r="G160" t="n">
-        <v>1729.016666666667</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>1705</v>
-      </c>
-      <c r="L160" t="inlineStr">
+      <c r="N173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1727</v>
+      </c>
+      <c r="C174" t="n">
+        <v>1727</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1727</v>
+      </c>
+      <c r="E174" t="n">
+        <v>1727</v>
+      </c>
+      <c r="F174" t="n">
+        <v>604.3737</v>
+      </c>
+      <c r="G174" t="n">
+        <v>1737.266666666667</v>
+      </c>
+      <c r="H174" t="n">
+        <v>1733.95</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1721</v>
+      </c>
+      <c r="M174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>1751</v>
-      </c>
-      <c r="C161" t="n">
-        <v>1751</v>
-      </c>
-      <c r="D161" t="n">
-        <v>1751</v>
-      </c>
-      <c r="E161" t="n">
-        <v>1751</v>
-      </c>
-      <c r="F161" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G161" t="n">
-        <v>1729.05</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>1705</v>
-      </c>
-      <c r="L161" t="inlineStr">
+      <c r="N174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1727</v>
+      </c>
+      <c r="C175" t="n">
+        <v>1727</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1727</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1727</v>
+      </c>
+      <c r="F175" t="n">
+        <v>649.172</v>
+      </c>
+      <c r="G175" t="n">
+        <v>1737.8</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1734.3</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1721</v>
+      </c>
+      <c r="M175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>1724</v>
-      </c>
-      <c r="C162" t="n">
-        <v>1756</v>
-      </c>
-      <c r="D162" t="n">
-        <v>1756</v>
-      </c>
-      <c r="E162" t="n">
-        <v>1722</v>
-      </c>
-      <c r="F162" t="n">
-        <v>1082.8493</v>
-      </c>
-      <c r="G162" t="n">
-        <v>1729.483333333333</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>1705</v>
-      </c>
-      <c r="L162" t="inlineStr">
+      <c r="N175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>1731</v>
+      </c>
+      <c r="C176" t="n">
+        <v>1730</v>
+      </c>
+      <c r="D176" t="n">
+        <v>1731</v>
+      </c>
+      <c r="E176" t="n">
+        <v>1730</v>
+      </c>
+      <c r="F176" t="n">
+        <v>131.3007</v>
+      </c>
+      <c r="G176" t="n">
+        <v>1736.4</v>
+      </c>
+      <c r="H176" t="n">
+        <v>1734.966666666667</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1721</v>
+      </c>
+      <c r="M176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>1755</v>
-      </c>
-      <c r="C163" t="n">
-        <v>1756</v>
-      </c>
-      <c r="D163" t="n">
-        <v>1756</v>
-      </c>
-      <c r="E163" t="n">
-        <v>1755</v>
-      </c>
-      <c r="F163" t="n">
-        <v>282.6302</v>
-      </c>
-      <c r="G163" t="n">
-        <v>1730.05</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>1705</v>
-      </c>
-      <c r="L163" t="inlineStr">
+      <c r="N176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>1752</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1752</v>
+      </c>
+      <c r="D177" t="n">
+        <v>1752</v>
+      </c>
+      <c r="E177" t="n">
+        <v>1752</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G177" t="n">
+        <v>1736.133333333333</v>
+      </c>
+      <c r="H177" t="n">
+        <v>1736.033333333333</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1721</v>
+      </c>
+      <c r="M177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>1756</v>
-      </c>
-      <c r="C164" t="n">
-        <v>1772</v>
-      </c>
-      <c r="D164" t="n">
-        <v>1772</v>
-      </c>
-      <c r="E164" t="n">
-        <v>1726</v>
-      </c>
-      <c r="F164" t="n">
-        <v>809.35</v>
-      </c>
-      <c r="G164" t="n">
-        <v>1730.933333333333</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>1705</v>
-      </c>
-      <c r="L164" t="inlineStr">
+      <c r="N177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>1751</v>
+      </c>
+      <c r="C178" t="n">
+        <v>1751</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1751</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1751</v>
+      </c>
+      <c r="F178" t="n">
+        <v>50.6701</v>
+      </c>
+      <c r="G178" t="n">
+        <v>1735.8</v>
+      </c>
+      <c r="H178" t="n">
+        <v>1736.733333333333</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1721</v>
+      </c>
+      <c r="M178" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>1743</v>
-      </c>
-      <c r="C165" t="n">
-        <v>1743</v>
-      </c>
-      <c r="D165" t="n">
-        <v>1744</v>
-      </c>
-      <c r="E165" t="n">
-        <v>1743</v>
-      </c>
-      <c r="F165" t="n">
-        <v>133.407</v>
-      </c>
-      <c r="G165" t="n">
-        <v>1731.333333333333</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>1705</v>
-      </c>
-      <c r="L165" t="inlineStr">
+      <c r="N178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>1754</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1754</v>
+      </c>
+      <c r="D179" t="n">
+        <v>1754</v>
+      </c>
+      <c r="E179" t="n">
+        <v>1754</v>
+      </c>
+      <c r="F179" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G179" t="n">
+        <v>1734.6</v>
+      </c>
+      <c r="H179" t="n">
+        <v>1737.466666666667</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1721</v>
+      </c>
+      <c r="M179" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>1741</v>
-      </c>
-      <c r="C166" t="n">
-        <v>1740</v>
-      </c>
-      <c r="D166" t="n">
-        <v>1741</v>
-      </c>
-      <c r="E166" t="n">
-        <v>1740</v>
-      </c>
-      <c r="F166" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="G166" t="n">
-        <v>1731.716666666667</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>1705</v>
-      </c>
-      <c r="L166" t="inlineStr">
+      <c r="N179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>1761</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1761</v>
+      </c>
+      <c r="D180" t="n">
+        <v>1761</v>
+      </c>
+      <c r="E180" t="n">
+        <v>1761</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G180" t="n">
+        <v>1735.8</v>
+      </c>
+      <c r="H180" t="n">
+        <v>1737.966666666667</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1721</v>
+      </c>
+      <c r="M180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>1734</v>
-      </c>
-      <c r="C167" t="n">
-        <v>1720</v>
-      </c>
-      <c r="D167" t="n">
-        <v>1734</v>
-      </c>
-      <c r="E167" t="n">
-        <v>1720</v>
-      </c>
-      <c r="F167" t="n">
-        <v>1052.0531</v>
-      </c>
-      <c r="G167" t="n">
-        <v>1732.05</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>1705</v>
-      </c>
-      <c r="L167" t="inlineStr">
+      <c r="N180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>1761</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1761</v>
+      </c>
+      <c r="D181" t="n">
+        <v>1761</v>
+      </c>
+      <c r="E181" t="n">
+        <v>1761</v>
+      </c>
+      <c r="F181" t="n">
+        <v>33.3827</v>
+      </c>
+      <c r="G181" t="n">
+        <v>1737.2</v>
+      </c>
+      <c r="H181" t="n">
+        <v>1738.25</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1721</v>
+      </c>
+      <c r="M181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>1747</v>
-      </c>
-      <c r="C168" t="n">
-        <v>1747</v>
-      </c>
-      <c r="D168" t="n">
-        <v>1747</v>
-      </c>
-      <c r="E168" t="n">
-        <v>1747</v>
-      </c>
-      <c r="F168" t="n">
+      <c r="N181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>1772</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1772</v>
+      </c>
+      <c r="D182" t="n">
+        <v>1772</v>
+      </c>
+      <c r="E182" t="n">
+        <v>1772</v>
+      </c>
+      <c r="F182" t="n">
         <v>0.5</v>
       </c>
-      <c r="G168" t="n">
-        <v>1732.45</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>1705</v>
-      </c>
-      <c r="L168" t="inlineStr">
+      <c r="G182" t="n">
+        <v>1740.666666666667</v>
+      </c>
+      <c r="H182" t="n">
+        <v>1739.05</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1721</v>
+      </c>
+      <c r="M182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
+      <c r="N182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>1756</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1756</v>
+      </c>
+      <c r="D183" t="n">
+        <v>1756</v>
+      </c>
+      <c r="E183" t="n">
+        <v>1756</v>
+      </c>
+      <c r="F183" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="G183" t="n">
+        <v>1741.266666666667</v>
+      </c>
+      <c r="H183" t="n">
+        <v>1739.283333333333</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
         <v>1721</v>
       </c>
-      <c r="C169" t="n">
-        <v>1721</v>
-      </c>
-      <c r="D169" t="n">
-        <v>1721</v>
-      </c>
-      <c r="E169" t="n">
-        <v>1721</v>
-      </c>
-      <c r="F169" t="n">
-        <v>18</v>
-      </c>
-      <c r="G169" t="n">
-        <v>1732.4</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>1705</v>
-      </c>
-      <c r="L169" t="inlineStr">
+      <c r="M183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>1726</v>
-      </c>
-      <c r="C170" t="n">
-        <v>1726</v>
-      </c>
-      <c r="D170" t="n">
-        <v>1726</v>
-      </c>
-      <c r="E170" t="n">
-        <v>1726</v>
-      </c>
-      <c r="F170" t="n">
-        <v>87.1069</v>
-      </c>
-      <c r="G170" t="n">
-        <v>1732.683333333333</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>1705</v>
-      </c>
-      <c r="L170" t="inlineStr">
+      <c r="N183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>1766</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1769</v>
+      </c>
+      <c r="D184" t="n">
+        <v>1770</v>
+      </c>
+      <c r="E184" t="n">
+        <v>1766</v>
+      </c>
+      <c r="F184" t="n">
+        <v>509.3367</v>
+      </c>
+      <c r="G184" t="n">
+        <v>1744.466666666667</v>
+      </c>
+      <c r="H184" t="n">
+        <v>1739.9</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1721</v>
+      </c>
+      <c r="M184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>1726</v>
-      </c>
-      <c r="C171" t="n">
-        <v>1727</v>
-      </c>
-      <c r="D171" t="n">
-        <v>1727</v>
-      </c>
-      <c r="E171" t="n">
-        <v>1726</v>
-      </c>
-      <c r="F171" t="n">
-        <v>49.8065</v>
-      </c>
-      <c r="G171" t="n">
-        <v>1732.983333333333</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>1705</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>1727</v>
-      </c>
-      <c r="C172" t="n">
-        <v>1727</v>
-      </c>
-      <c r="D172" t="n">
-        <v>1727</v>
-      </c>
-      <c r="E172" t="n">
-        <v>1727</v>
-      </c>
-      <c r="F172" t="n">
-        <v>65.80159999999999</v>
-      </c>
-      <c r="G172" t="n">
-        <v>1733.283333333333</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>1705</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>1720</v>
-      </c>
-      <c r="C173" t="n">
-        <v>1727</v>
-      </c>
-      <c r="D173" t="n">
-        <v>1727</v>
-      </c>
-      <c r="E173" t="n">
-        <v>1720</v>
-      </c>
-      <c r="F173" t="n">
-        <v>78.73099999999999</v>
-      </c>
-      <c r="G173" t="n">
-        <v>1733.583333333333</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>1705</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>1727</v>
-      </c>
-      <c r="C174" t="n">
-        <v>1727</v>
-      </c>
-      <c r="D174" t="n">
-        <v>1727</v>
-      </c>
-      <c r="E174" t="n">
-        <v>1727</v>
-      </c>
-      <c r="F174" t="n">
-        <v>604.3737</v>
-      </c>
-      <c r="G174" t="n">
-        <v>1733.95</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>1705</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-19 BackTest HC.xlsx
+++ b/BackTest/2020-01-19 BackTest HC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M213"/>
+  <dimension ref="A1:N171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1788</v>
+        <v>1752</v>
       </c>
       <c r="C2" t="n">
-        <v>1783</v>
+        <v>1752</v>
       </c>
       <c r="D2" t="n">
-        <v>1788</v>
+        <v>1752</v>
       </c>
       <c r="E2" t="n">
-        <v>1783</v>
+        <v>1752</v>
       </c>
       <c r="F2" t="n">
-        <v>40.323</v>
+        <v>4.7304</v>
       </c>
       <c r="G2" t="n">
-        <v>9671.904601980003</v>
+        <v>7737.725501980003</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1783</v>
+        <v>1755</v>
       </c>
       <c r="C3" t="n">
-        <v>1741</v>
+        <v>1763</v>
       </c>
       <c r="D3" t="n">
-        <v>1783</v>
+        <v>1763</v>
       </c>
       <c r="E3" t="n">
-        <v>1741</v>
+        <v>1755</v>
       </c>
       <c r="F3" t="n">
-        <v>1756.822</v>
+        <v>260</v>
       </c>
       <c r="G3" t="n">
-        <v>7915.082601980002</v>
+        <v>7997.725501980003</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1743</v>
+        <v>1760</v>
       </c>
       <c r="C4" t="n">
-        <v>1713</v>
+        <v>1760</v>
       </c>
       <c r="D4" t="n">
-        <v>1743</v>
+        <v>1760</v>
       </c>
       <c r="E4" t="n">
-        <v>1713</v>
+        <v>1760</v>
       </c>
       <c r="F4" t="n">
-        <v>162.6052</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>7752.477401980002</v>
+        <v>7996.725501980003</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1712</v>
+        <v>1746</v>
       </c>
       <c r="C5" t="n">
-        <v>1712</v>
+        <v>1746</v>
       </c>
       <c r="D5" t="n">
-        <v>1712</v>
+        <v>1746</v>
       </c>
       <c r="E5" t="n">
-        <v>1712</v>
+        <v>1746</v>
       </c>
       <c r="F5" t="n">
-        <v>57.45</v>
+        <v>17.7901</v>
       </c>
       <c r="G5" t="n">
-        <v>7695.027401980003</v>
+        <v>7978.935401980003</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1728</v>
+        <v>1748</v>
       </c>
       <c r="C6" t="n">
-        <v>1729</v>
+        <v>1752</v>
       </c>
       <c r="D6" t="n">
-        <v>1730</v>
+        <v>1752</v>
       </c>
       <c r="E6" t="n">
-        <v>1728</v>
+        <v>1748</v>
       </c>
       <c r="F6" t="n">
-        <v>479.2789</v>
+        <v>16.1251</v>
       </c>
       <c r="G6" t="n">
-        <v>8174.306301980003</v>
+        <v>7995.060501980003</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1739</v>
+        <v>1745</v>
       </c>
       <c r="C7" t="n">
-        <v>1739</v>
+        <v>1750</v>
       </c>
       <c r="D7" t="n">
-        <v>1739</v>
+        <v>1752</v>
       </c>
       <c r="E7" t="n">
-        <v>1739</v>
+        <v>1720</v>
       </c>
       <c r="F7" t="n">
-        <v>39.4518</v>
+        <v>152.3095</v>
       </c>
       <c r="G7" t="n">
-        <v>8213.758101980004</v>
+        <v>7842.751001980003</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1738</v>
+        <v>1750</v>
       </c>
       <c r="C8" t="n">
-        <v>1738</v>
+        <v>1750</v>
       </c>
       <c r="D8" t="n">
-        <v>1738</v>
+        <v>1750</v>
       </c>
       <c r="E8" t="n">
-        <v>1738</v>
+        <v>1750</v>
       </c>
       <c r="F8" t="n">
-        <v>253.0844</v>
+        <v>0.5</v>
       </c>
       <c r="G8" t="n">
-        <v>7960.673701980004</v>
+        <v>7842.751001980003</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1720</v>
+        <v>1752</v>
       </c>
       <c r="C9" t="n">
-        <v>1720</v>
+        <v>1752</v>
       </c>
       <c r="D9" t="n">
-        <v>1720</v>
+        <v>1752</v>
       </c>
       <c r="E9" t="n">
-        <v>1720</v>
+        <v>1752</v>
       </c>
       <c r="F9" t="n">
-        <v>29.4</v>
+        <v>0.0008</v>
       </c>
       <c r="G9" t="n">
-        <v>7931.273701980004</v>
+        <v>7842.751801980003</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1722</v>
+        <v>1756</v>
       </c>
       <c r="C10" t="n">
-        <v>1722</v>
+        <v>1759</v>
       </c>
       <c r="D10" t="n">
-        <v>1722</v>
+        <v>1759</v>
       </c>
       <c r="E10" t="n">
-        <v>1722</v>
+        <v>1756</v>
       </c>
       <c r="F10" t="n">
-        <v>46.4982</v>
+        <v>0.6199</v>
       </c>
       <c r="G10" t="n">
-        <v>7977.771901980004</v>
+        <v>7843.371701980002</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1722</v>
+        <v>1760</v>
       </c>
       <c r="C11" t="n">
-        <v>1722</v>
+        <v>1760</v>
       </c>
       <c r="D11" t="n">
-        <v>1722</v>
+        <v>1760</v>
       </c>
       <c r="E11" t="n">
-        <v>1722</v>
+        <v>1760</v>
       </c>
       <c r="F11" t="n">
-        <v>46.177</v>
+        <v>14.6522</v>
       </c>
       <c r="G11" t="n">
-        <v>7977.771901980004</v>
+        <v>7858.023901980003</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1729</v>
+        <v>1766</v>
       </c>
       <c r="C12" t="n">
-        <v>1729</v>
+        <v>1766</v>
       </c>
       <c r="D12" t="n">
-        <v>1729</v>
+        <v>1766</v>
       </c>
       <c r="E12" t="n">
-        <v>1729</v>
+        <v>1766</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3019</v>
+        <v>32.9868</v>
       </c>
       <c r="G12" t="n">
-        <v>7978.073801980005</v>
+        <v>7891.010701980003</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1721</v>
+        <v>1766</v>
       </c>
       <c r="C13" t="n">
-        <v>1721</v>
+        <v>1775</v>
       </c>
       <c r="D13" t="n">
-        <v>1721</v>
+        <v>1775</v>
       </c>
       <c r="E13" t="n">
-        <v>1721</v>
+        <v>1766</v>
       </c>
       <c r="F13" t="n">
-        <v>66.41</v>
+        <v>106.1014</v>
       </c>
       <c r="G13" t="n">
-        <v>7911.663801980005</v>
+        <v>7997.112101980002</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1729</v>
+        <v>1783</v>
       </c>
       <c r="C14" t="n">
-        <v>1721</v>
+        <v>1783</v>
       </c>
       <c r="D14" t="n">
-        <v>1729</v>
+        <v>1783</v>
       </c>
       <c r="E14" t="n">
-        <v>1721</v>
+        <v>1783</v>
       </c>
       <c r="F14" t="n">
-        <v>45.492</v>
+        <v>4.48681996</v>
       </c>
       <c r="G14" t="n">
-        <v>7911.663801980005</v>
+        <v>8001.598921940002</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1721</v>
+        <v>1782</v>
       </c>
       <c r="C15" t="n">
-        <v>1721</v>
+        <v>1782</v>
       </c>
       <c r="D15" t="n">
-        <v>1721</v>
+        <v>1782</v>
       </c>
       <c r="E15" t="n">
-        <v>1721</v>
+        <v>1782</v>
       </c>
       <c r="F15" t="n">
-        <v>27.7447</v>
+        <v>5</v>
       </c>
       <c r="G15" t="n">
-        <v>7911.663801980005</v>
+        <v>7996.598921940002</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1721</v>
+        <v>1786</v>
       </c>
       <c r="C16" t="n">
-        <v>1730</v>
+        <v>1787</v>
       </c>
       <c r="D16" t="n">
-        <v>1730</v>
+        <v>1787</v>
       </c>
       <c r="E16" t="n">
-        <v>1721</v>
+        <v>1786</v>
       </c>
       <c r="F16" t="n">
-        <v>38.1006</v>
+        <v>191.3144</v>
       </c>
       <c r="G16" t="n">
-        <v>7949.764401980005</v>
+        <v>8187.913321940002</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1721</v>
+        <v>1787</v>
       </c>
       <c r="C17" t="n">
-        <v>1722</v>
+        <v>1787</v>
       </c>
       <c r="D17" t="n">
-        <v>1722</v>
+        <v>1787</v>
       </c>
       <c r="E17" t="n">
-        <v>1721</v>
+        <v>1787</v>
       </c>
       <c r="F17" t="n">
-        <v>97.5724</v>
+        <v>44.9058</v>
       </c>
       <c r="G17" t="n">
-        <v>7852.192001980005</v>
+        <v>8187.913321940002</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1722</v>
+        <v>1785</v>
       </c>
       <c r="C18" t="n">
-        <v>1722</v>
+        <v>1785</v>
       </c>
       <c r="D18" t="n">
-        <v>1722</v>
+        <v>1785</v>
       </c>
       <c r="E18" t="n">
-        <v>1722</v>
+        <v>1785</v>
       </c>
       <c r="F18" t="n">
-        <v>89.9999</v>
+        <v>8</v>
       </c>
       <c r="G18" t="n">
-        <v>7852.192001980005</v>
+        <v>8179.913321940002</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1722</v>
+        <v>1785</v>
       </c>
       <c r="C19" t="n">
-        <v>1722</v>
+        <v>1787</v>
       </c>
       <c r="D19" t="n">
-        <v>1722</v>
+        <v>1787</v>
       </c>
       <c r="E19" t="n">
-        <v>1722</v>
+        <v>1785</v>
       </c>
       <c r="F19" t="n">
-        <v>19.3658</v>
+        <v>32.6734</v>
       </c>
       <c r="G19" t="n">
-        <v>7852.192001980005</v>
+        <v>8212.586721940002</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1730</v>
+        <v>1787</v>
       </c>
       <c r="C20" t="n">
-        <v>1732</v>
+        <v>1787</v>
       </c>
       <c r="D20" t="n">
-        <v>1732</v>
+        <v>1787</v>
       </c>
       <c r="E20" t="n">
-        <v>1730</v>
+        <v>1787</v>
       </c>
       <c r="F20" t="n">
-        <v>576.7362000000001</v>
+        <v>12</v>
       </c>
       <c r="G20" t="n">
-        <v>8428.928201980005</v>
+        <v>8212.586721940002</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1741</v>
+        <v>1787</v>
       </c>
       <c r="C21" t="n">
-        <v>1741</v>
+        <v>1801</v>
       </c>
       <c r="D21" t="n">
-        <v>1741</v>
+        <v>1801</v>
       </c>
       <c r="E21" t="n">
-        <v>1741</v>
+        <v>1787</v>
       </c>
       <c r="F21" t="n">
-        <v>260</v>
+        <v>11.8136</v>
       </c>
       <c r="G21" t="n">
-        <v>8688.928201980005</v>
+        <v>8224.400321940002</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1741</v>
+        <v>1792</v>
       </c>
       <c r="C22" t="n">
-        <v>1741</v>
+        <v>1823</v>
       </c>
       <c r="D22" t="n">
-        <v>1741</v>
+        <v>1823</v>
       </c>
       <c r="E22" t="n">
-        <v>1741</v>
+        <v>1792</v>
       </c>
       <c r="F22" t="n">
-        <v>37</v>
+        <v>356.5083</v>
       </c>
       <c r="G22" t="n">
-        <v>8688.928201980005</v>
+        <v>8580.908621940001</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1753</v>
+        <v>1823</v>
       </c>
       <c r="C23" t="n">
-        <v>1753</v>
+        <v>1824</v>
       </c>
       <c r="D23" t="n">
-        <v>1753</v>
+        <v>1828</v>
       </c>
       <c r="E23" t="n">
-        <v>1753</v>
+        <v>1823</v>
       </c>
       <c r="F23" t="n">
-        <v>100.0919</v>
+        <v>195.065</v>
       </c>
       <c r="G23" t="n">
-        <v>8789.020101980004</v>
+        <v>8775.973621940002</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1742</v>
+        <v>1824</v>
       </c>
       <c r="C24" t="n">
-        <v>1742</v>
+        <v>1807</v>
       </c>
       <c r="D24" t="n">
-        <v>1742</v>
+        <v>1824</v>
       </c>
       <c r="E24" t="n">
-        <v>1742</v>
+        <v>1807</v>
       </c>
       <c r="F24" t="n">
-        <v>28.7551</v>
+        <v>42.7369</v>
       </c>
       <c r="G24" t="n">
-        <v>8760.265001980004</v>
+        <v>8733.236721940002</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1742</v>
+        <v>1820</v>
       </c>
       <c r="C25" t="n">
-        <v>1742</v>
+        <v>1820</v>
       </c>
       <c r="D25" t="n">
-        <v>1742</v>
+        <v>1820</v>
       </c>
       <c r="E25" t="n">
-        <v>1742</v>
+        <v>1820</v>
       </c>
       <c r="F25" t="n">
-        <v>43.7951</v>
+        <v>0.5</v>
       </c>
       <c r="G25" t="n">
-        <v>8760.265001980004</v>
+        <v>8733.736721940002</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1741</v>
+        <v>1807</v>
       </c>
       <c r="C26" t="n">
-        <v>1741</v>
+        <v>1819</v>
       </c>
       <c r="D26" t="n">
-        <v>1741</v>
+        <v>1819</v>
       </c>
       <c r="E26" t="n">
-        <v>1741</v>
+        <v>1807</v>
       </c>
       <c r="F26" t="n">
-        <v>230</v>
+        <v>101.3571</v>
       </c>
       <c r="G26" t="n">
-        <v>8530.265001980004</v>
+        <v>8632.379621940003</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1741</v>
+        <v>1818</v>
       </c>
       <c r="C27" t="n">
-        <v>1741</v>
+        <v>1819</v>
       </c>
       <c r="D27" t="n">
-        <v>1741</v>
+        <v>1823</v>
       </c>
       <c r="E27" t="n">
-        <v>1741</v>
+        <v>1818</v>
       </c>
       <c r="F27" t="n">
-        <v>20.0001</v>
+        <v>1801.0884</v>
       </c>
       <c r="G27" t="n">
-        <v>8530.265001980004</v>
+        <v>8632.379621940003</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,34 +1367,35 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1753</v>
+        <v>1821</v>
       </c>
       <c r="C28" t="n">
-        <v>1753</v>
+        <v>1821</v>
       </c>
       <c r="D28" t="n">
-        <v>1753</v>
+        <v>1821</v>
       </c>
       <c r="E28" t="n">
-        <v>1753</v>
+        <v>1821</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3006</v>
+        <v>265.8594</v>
       </c>
       <c r="G28" t="n">
-        <v>8530.565601980004</v>
+        <v>8898.239021940002</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1372,34 +1403,35 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1755</v>
+        <v>1820</v>
       </c>
       <c r="C29" t="n">
-        <v>1755</v>
+        <v>1820</v>
       </c>
       <c r="D29" t="n">
-        <v>1755</v>
+        <v>1820</v>
       </c>
       <c r="E29" t="n">
-        <v>1755</v>
+        <v>1820</v>
       </c>
       <c r="F29" t="n">
-        <v>0.3963</v>
+        <v>24.3</v>
       </c>
       <c r="G29" t="n">
-        <v>8530.961901980005</v>
+        <v>8873.939021940003</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1407,34 +1439,35 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1741</v>
+        <v>1819</v>
       </c>
       <c r="C30" t="n">
-        <v>1741</v>
+        <v>1805</v>
       </c>
       <c r="D30" t="n">
-        <v>1741</v>
+        <v>1819</v>
       </c>
       <c r="E30" t="n">
-        <v>1741</v>
+        <v>1805</v>
       </c>
       <c r="F30" t="n">
-        <v>62.6669</v>
+        <v>201.391</v>
       </c>
       <c r="G30" t="n">
-        <v>8468.295001980005</v>
+        <v>8672.548021940003</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1442,34 +1475,35 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1749</v>
+        <v>1827</v>
       </c>
       <c r="C31" t="n">
-        <v>1749</v>
+        <v>1827</v>
       </c>
       <c r="D31" t="n">
-        <v>1749</v>
+        <v>1827</v>
       </c>
       <c r="E31" t="n">
-        <v>1749</v>
+        <v>1827</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3009</v>
+        <v>0.5</v>
       </c>
       <c r="G31" t="n">
-        <v>8468.595901980005</v>
+        <v>8673.048021940003</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1477,34 +1511,35 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1754</v>
+        <v>1807</v>
       </c>
       <c r="C32" t="n">
-        <v>1755</v>
+        <v>1805</v>
       </c>
       <c r="D32" t="n">
-        <v>1755</v>
+        <v>1807</v>
       </c>
       <c r="E32" t="n">
-        <v>1754</v>
+        <v>1805</v>
       </c>
       <c r="F32" t="n">
-        <v>1045</v>
+        <v>161.6951</v>
       </c>
       <c r="G32" t="n">
-        <v>9513.595901980005</v>
+        <v>8511.352921940002</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1512,34 +1547,35 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1754</v>
+        <v>1811</v>
       </c>
       <c r="C33" t="n">
-        <v>1758</v>
+        <v>1811</v>
       </c>
       <c r="D33" t="n">
-        <v>1758</v>
+        <v>1811</v>
       </c>
       <c r="E33" t="n">
-        <v>1754</v>
+        <v>1811</v>
       </c>
       <c r="F33" t="n">
-        <v>685.6097</v>
+        <v>12.318</v>
       </c>
       <c r="G33" t="n">
-        <v>10199.20560198</v>
+        <v>8523.670921940002</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1547,34 +1583,35 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1758</v>
+        <v>1822</v>
       </c>
       <c r="C34" t="n">
-        <v>1758</v>
+        <v>1822</v>
       </c>
       <c r="D34" t="n">
-        <v>1758</v>
+        <v>1822</v>
       </c>
       <c r="E34" t="n">
-        <v>1758</v>
+        <v>1822</v>
       </c>
       <c r="F34" t="n">
-        <v>28.44141069</v>
+        <v>0.5</v>
       </c>
       <c r="G34" t="n">
-        <v>10199.20560198</v>
+        <v>8524.170921940002</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1582,34 +1619,35 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1758</v>
+        <v>1820</v>
       </c>
       <c r="C35" t="n">
-        <v>1758</v>
+        <v>1830</v>
       </c>
       <c r="D35" t="n">
-        <v>1758</v>
+        <v>1830</v>
       </c>
       <c r="E35" t="n">
-        <v>1758</v>
+        <v>1820</v>
       </c>
       <c r="F35" t="n">
-        <v>27.3947</v>
+        <v>3437.0652</v>
       </c>
       <c r="G35" t="n">
-        <v>10199.20560198</v>
+        <v>11961.23612194</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1617,34 +1655,35 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1758</v>
+        <v>1822</v>
       </c>
       <c r="C36" t="n">
-        <v>1758</v>
+        <v>1824</v>
       </c>
       <c r="D36" t="n">
-        <v>1758</v>
+        <v>1825</v>
       </c>
       <c r="E36" t="n">
-        <v>1758</v>
+        <v>1818</v>
       </c>
       <c r="F36" t="n">
-        <v>155.2423</v>
+        <v>3569.2888</v>
       </c>
       <c r="G36" t="n">
-        <v>10199.20560198</v>
+        <v>8391.947321940001</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1652,34 +1691,35 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1758</v>
+        <v>1824</v>
       </c>
       <c r="C37" t="n">
-        <v>1758</v>
+        <v>1822</v>
       </c>
       <c r="D37" t="n">
-        <v>1758</v>
+        <v>1825</v>
       </c>
       <c r="E37" t="n">
-        <v>1758</v>
+        <v>1812</v>
       </c>
       <c r="F37" t="n">
-        <v>87.7457</v>
+        <v>1385.8021</v>
       </c>
       <c r="G37" t="n">
-        <v>10199.20560198</v>
+        <v>7006.145221940001</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1687,34 +1727,35 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1758</v>
+        <v>1823</v>
       </c>
       <c r="C38" t="n">
-        <v>1758</v>
+        <v>1825</v>
       </c>
       <c r="D38" t="n">
-        <v>1758</v>
+        <v>1825</v>
       </c>
       <c r="E38" t="n">
-        <v>1758</v>
+        <v>1806</v>
       </c>
       <c r="F38" t="n">
-        <v>114.06938931</v>
+        <v>3449.1592</v>
       </c>
       <c r="G38" t="n">
-        <v>10199.20560198</v>
+        <v>10455.30442194</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1722,34 +1763,35 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1758</v>
+        <v>1825</v>
       </c>
       <c r="C39" t="n">
-        <v>1746</v>
+        <v>1825</v>
       </c>
       <c r="D39" t="n">
-        <v>1758</v>
+        <v>1825</v>
       </c>
       <c r="E39" t="n">
-        <v>1746</v>
+        <v>1825</v>
       </c>
       <c r="F39" t="n">
-        <v>1337.6306</v>
+        <v>546.5786000000001</v>
       </c>
       <c r="G39" t="n">
-        <v>8861.575001980003</v>
+        <v>10455.30442194</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1757,34 +1799,35 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1747</v>
+        <v>1825</v>
       </c>
       <c r="C40" t="n">
-        <v>1738</v>
+        <v>1825</v>
       </c>
       <c r="D40" t="n">
-        <v>1747</v>
+        <v>1825</v>
       </c>
       <c r="E40" t="n">
-        <v>1738</v>
+        <v>1825</v>
       </c>
       <c r="F40" t="n">
-        <v>1337.6307</v>
+        <v>463.6061</v>
       </c>
       <c r="G40" t="n">
-        <v>7523.944301980004</v>
+        <v>10455.30442194</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1792,34 +1835,35 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1738</v>
+        <v>1808</v>
       </c>
       <c r="C41" t="n">
-        <v>1738</v>
+        <v>1808</v>
       </c>
       <c r="D41" t="n">
-        <v>1738</v>
+        <v>1808</v>
       </c>
       <c r="E41" t="n">
-        <v>1738</v>
+        <v>1808</v>
       </c>
       <c r="F41" t="n">
-        <v>31.11</v>
+        <v>41.4</v>
       </c>
       <c r="G41" t="n">
-        <v>7523.944301980004</v>
+        <v>10413.90442194</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1827,34 +1871,35 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1747</v>
+        <v>1808</v>
       </c>
       <c r="C42" t="n">
-        <v>1764</v>
+        <v>1807</v>
       </c>
       <c r="D42" t="n">
-        <v>1764</v>
+        <v>1808</v>
       </c>
       <c r="E42" t="n">
-        <v>1747</v>
+        <v>1807</v>
       </c>
       <c r="F42" t="n">
-        <v>260</v>
+        <v>43.6178</v>
       </c>
       <c r="G42" t="n">
-        <v>7783.944301980004</v>
+        <v>10370.28662194</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1862,34 +1907,35 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1753</v>
+        <v>1807</v>
       </c>
       <c r="C43" t="n">
-        <v>1753</v>
+        <v>1806</v>
       </c>
       <c r="D43" t="n">
-        <v>1753</v>
+        <v>1807</v>
       </c>
       <c r="E43" t="n">
-        <v>1753</v>
+        <v>1806</v>
       </c>
       <c r="F43" t="n">
-        <v>41.4884</v>
+        <v>87.3096</v>
       </c>
       <c r="G43" t="n">
-        <v>7742.455901980004</v>
+        <v>10282.97702194</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -1897,34 +1943,35 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1752</v>
+        <v>1806</v>
       </c>
       <c r="C44" t="n">
-        <v>1752</v>
+        <v>1791</v>
       </c>
       <c r="D44" t="n">
-        <v>1752</v>
+        <v>1806</v>
       </c>
       <c r="E44" t="n">
-        <v>1752</v>
+        <v>1791</v>
       </c>
       <c r="F44" t="n">
-        <v>4.7304</v>
+        <v>460</v>
       </c>
       <c r="G44" t="n">
-        <v>7737.725501980003</v>
+        <v>9822.97702194</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -1932,34 +1979,35 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1755</v>
+        <v>1786</v>
       </c>
       <c r="C45" t="n">
-        <v>1763</v>
+        <v>1785</v>
       </c>
       <c r="D45" t="n">
-        <v>1763</v>
+        <v>1786</v>
       </c>
       <c r="E45" t="n">
-        <v>1755</v>
+        <v>1785</v>
       </c>
       <c r="F45" t="n">
-        <v>260</v>
+        <v>284.6698</v>
       </c>
       <c r="G45" t="n">
-        <v>7997.725501980003</v>
+        <v>9538.30722194</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -1967,28 +2015,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1760</v>
+        <v>1785</v>
       </c>
       <c r="C46" t="n">
-        <v>1760</v>
+        <v>1776</v>
       </c>
       <c r="D46" t="n">
-        <v>1760</v>
+        <v>1785</v>
       </c>
       <c r="E46" t="n">
-        <v>1760</v>
+        <v>1776</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>1721.7753</v>
       </c>
       <c r="G46" t="n">
-        <v>7996.725501980003</v>
+        <v>7816.53192194</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,28 +2051,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1746</v>
+        <v>1776</v>
       </c>
       <c r="C47" t="n">
-        <v>1746</v>
+        <v>1776</v>
       </c>
       <c r="D47" t="n">
-        <v>1746</v>
+        <v>1776</v>
       </c>
       <c r="E47" t="n">
-        <v>1746</v>
+        <v>1776</v>
       </c>
       <c r="F47" t="n">
-        <v>17.7901</v>
+        <v>233.7372</v>
       </c>
       <c r="G47" t="n">
-        <v>7978.935401980003</v>
+        <v>7816.53192194</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,28 +2087,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1748</v>
+        <v>1782</v>
       </c>
       <c r="C48" t="n">
-        <v>1752</v>
+        <v>1782</v>
       </c>
       <c r="D48" t="n">
-        <v>1752</v>
+        <v>1782</v>
       </c>
       <c r="E48" t="n">
-        <v>1748</v>
+        <v>1782</v>
       </c>
       <c r="F48" t="n">
-        <v>16.1251</v>
+        <v>72.4571</v>
       </c>
       <c r="G48" t="n">
-        <v>7995.060501980003</v>
+        <v>7888.989021939999</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,28 +2123,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1745</v>
+        <v>1784</v>
       </c>
       <c r="C49" t="n">
-        <v>1750</v>
+        <v>1807</v>
       </c>
       <c r="D49" t="n">
-        <v>1752</v>
+        <v>1807</v>
       </c>
       <c r="E49" t="n">
-        <v>1720</v>
+        <v>1784</v>
       </c>
       <c r="F49" t="n">
-        <v>152.3095</v>
+        <v>1.3</v>
       </c>
       <c r="G49" t="n">
-        <v>7842.751001980003</v>
+        <v>7890.28902194</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,28 +2159,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1750</v>
+        <v>1790</v>
       </c>
       <c r="C50" t="n">
-        <v>1750</v>
+        <v>1790</v>
       </c>
       <c r="D50" t="n">
-        <v>1750</v>
+        <v>1790</v>
       </c>
       <c r="E50" t="n">
-        <v>1750</v>
+        <v>1790</v>
       </c>
       <c r="F50" t="n">
-        <v>0.5</v>
+        <v>39.4296</v>
       </c>
       <c r="G50" t="n">
-        <v>7842.751001980003</v>
+        <v>7850.859421939999</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,28 +2195,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1752</v>
+        <v>1790</v>
       </c>
       <c r="C51" t="n">
-        <v>1752</v>
+        <v>1806</v>
       </c>
       <c r="D51" t="n">
-        <v>1752</v>
+        <v>1806</v>
       </c>
       <c r="E51" t="n">
-        <v>1752</v>
+        <v>1790</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0008</v>
+        <v>45</v>
       </c>
       <c r="G51" t="n">
-        <v>7842.751801980003</v>
+        <v>7895.859421939999</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,34 +2231,35 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1756</v>
+        <v>1806</v>
       </c>
       <c r="C52" t="n">
-        <v>1759</v>
+        <v>1811</v>
       </c>
       <c r="D52" t="n">
-        <v>1759</v>
+        <v>1811</v>
       </c>
       <c r="E52" t="n">
-        <v>1756</v>
+        <v>1806</v>
       </c>
       <c r="F52" t="n">
-        <v>0.6199</v>
+        <v>784.1191</v>
       </c>
       <c r="G52" t="n">
-        <v>7843.371701980002</v>
+        <v>8679.97852194</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2212,34 +2267,35 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1760</v>
+        <v>1799</v>
       </c>
       <c r="C53" t="n">
-        <v>1760</v>
+        <v>1799</v>
       </c>
       <c r="D53" t="n">
-        <v>1760</v>
+        <v>1800</v>
       </c>
       <c r="E53" t="n">
-        <v>1760</v>
+        <v>1799</v>
       </c>
       <c r="F53" t="n">
-        <v>14.6522</v>
+        <v>2325.316</v>
       </c>
       <c r="G53" t="n">
-        <v>7858.023901980003</v>
+        <v>6354.66252194</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2247,34 +2303,35 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1766</v>
+        <v>1800</v>
       </c>
       <c r="C54" t="n">
-        <v>1766</v>
+        <v>1800</v>
       </c>
       <c r="D54" t="n">
-        <v>1766</v>
+        <v>1800</v>
       </c>
       <c r="E54" t="n">
-        <v>1766</v>
+        <v>1800</v>
       </c>
       <c r="F54" t="n">
-        <v>32.9868</v>
+        <v>11.2935</v>
       </c>
       <c r="G54" t="n">
-        <v>7891.010701980003</v>
+        <v>6365.95602194</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2282,28 +2339,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1766</v>
+        <v>1800</v>
       </c>
       <c r="C55" t="n">
-        <v>1775</v>
+        <v>1800</v>
       </c>
       <c r="D55" t="n">
-        <v>1775</v>
+        <v>1800</v>
       </c>
       <c r="E55" t="n">
-        <v>1766</v>
+        <v>1800</v>
       </c>
       <c r="F55" t="n">
-        <v>106.1014</v>
+        <v>15.0707</v>
       </c>
       <c r="G55" t="n">
-        <v>7997.112101980002</v>
+        <v>6365.95602194</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2317,28 +2375,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1783</v>
+        <v>1800</v>
       </c>
       <c r="C56" t="n">
-        <v>1783</v>
+        <v>1799</v>
       </c>
       <c r="D56" t="n">
-        <v>1783</v>
+        <v>1800</v>
       </c>
       <c r="E56" t="n">
-        <v>1783</v>
+        <v>1799</v>
       </c>
       <c r="F56" t="n">
-        <v>4.48681996</v>
+        <v>276.126</v>
       </c>
       <c r="G56" t="n">
-        <v>8001.598921940002</v>
+        <v>6089.83002194</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,28 +2411,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1782</v>
+        <v>1799</v>
       </c>
       <c r="C57" t="n">
-        <v>1782</v>
+        <v>1799</v>
       </c>
       <c r="D57" t="n">
-        <v>1782</v>
+        <v>1799</v>
       </c>
       <c r="E57" t="n">
-        <v>1782</v>
+        <v>1799</v>
       </c>
       <c r="F57" t="n">
-        <v>5</v>
+        <v>323</v>
       </c>
       <c r="G57" t="n">
-        <v>7996.598921940002</v>
+        <v>6089.83002194</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2387,28 +2447,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1786</v>
+        <v>1805</v>
       </c>
       <c r="C58" t="n">
-        <v>1787</v>
+        <v>1805</v>
       </c>
       <c r="D58" t="n">
-        <v>1787</v>
+        <v>1805</v>
       </c>
       <c r="E58" t="n">
-        <v>1786</v>
+        <v>1805</v>
       </c>
       <c r="F58" t="n">
-        <v>191.3144</v>
+        <v>0.6327</v>
       </c>
       <c r="G58" t="n">
-        <v>8187.913321940002</v>
+        <v>6090.46272194</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2422,28 +2483,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1787</v>
+        <v>1799</v>
       </c>
       <c r="C59" t="n">
-        <v>1787</v>
+        <v>1799</v>
       </c>
       <c r="D59" t="n">
-        <v>1787</v>
+        <v>1799</v>
       </c>
       <c r="E59" t="n">
-        <v>1787</v>
+        <v>1799</v>
       </c>
       <c r="F59" t="n">
-        <v>44.9058</v>
+        <v>0.3182</v>
       </c>
       <c r="G59" t="n">
-        <v>8187.913321940002</v>
+        <v>6090.14452194</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,28 +2519,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1785</v>
+        <v>1788</v>
       </c>
       <c r="C60" t="n">
-        <v>1785</v>
+        <v>1788</v>
       </c>
       <c r="D60" t="n">
-        <v>1785</v>
+        <v>1788</v>
       </c>
       <c r="E60" t="n">
-        <v>1785</v>
+        <v>1788</v>
       </c>
       <c r="F60" t="n">
-        <v>8</v>
+        <v>98.3586</v>
       </c>
       <c r="G60" t="n">
-        <v>8179.913321940002</v>
+        <v>5991.785921940001</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,28 +2555,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1785</v>
+        <v>1780</v>
       </c>
       <c r="C61" t="n">
-        <v>1787</v>
+        <v>1780</v>
       </c>
       <c r="D61" t="n">
-        <v>1787</v>
+        <v>1780</v>
       </c>
       <c r="E61" t="n">
-        <v>1785</v>
+        <v>1780</v>
       </c>
       <c r="F61" t="n">
-        <v>32.6734</v>
+        <v>839.5242</v>
       </c>
       <c r="G61" t="n">
-        <v>8212.586721940002</v>
+        <v>5152.261721940001</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,28 +2591,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1787</v>
+        <v>1777</v>
       </c>
       <c r="C62" t="n">
-        <v>1787</v>
+        <v>1776</v>
       </c>
       <c r="D62" t="n">
-        <v>1787</v>
+        <v>1777</v>
       </c>
       <c r="E62" t="n">
-        <v>1787</v>
+        <v>1776</v>
       </c>
       <c r="F62" t="n">
-        <v>12</v>
+        <v>77.1503</v>
       </c>
       <c r="G62" t="n">
-        <v>8212.586721940002</v>
+        <v>5075.111421940001</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,28 +2627,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
+        <v>1786</v>
+      </c>
+      <c r="C63" t="n">
         <v>1787</v>
       </c>
-      <c r="C63" t="n">
-        <v>1801</v>
-      </c>
       <c r="D63" t="n">
-        <v>1801</v>
+        <v>1787</v>
       </c>
       <c r="E63" t="n">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="F63" t="n">
-        <v>11.8136</v>
+        <v>1558.068</v>
       </c>
       <c r="G63" t="n">
-        <v>8224.400321940002</v>
+        <v>6633.179421940001</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,28 +2663,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1792</v>
+        <v>1787</v>
       </c>
       <c r="C64" t="n">
-        <v>1823</v>
+        <v>1787</v>
       </c>
       <c r="D64" t="n">
-        <v>1823</v>
+        <v>1787</v>
       </c>
       <c r="E64" t="n">
-        <v>1792</v>
+        <v>1787</v>
       </c>
       <c r="F64" t="n">
-        <v>356.5083</v>
+        <v>19.7155</v>
       </c>
       <c r="G64" t="n">
-        <v>8580.908621940001</v>
+        <v>6633.179421940001</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,28 +2699,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1823</v>
+        <v>1786</v>
       </c>
       <c r="C65" t="n">
-        <v>1824</v>
+        <v>1786</v>
       </c>
       <c r="D65" t="n">
-        <v>1828</v>
+        <v>1786</v>
       </c>
       <c r="E65" t="n">
-        <v>1823</v>
+        <v>1786</v>
       </c>
       <c r="F65" t="n">
-        <v>195.065</v>
+        <v>335.7313</v>
       </c>
       <c r="G65" t="n">
-        <v>8775.973621940002</v>
+        <v>6297.44812194</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,28 +2735,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1824</v>
+        <v>1774</v>
       </c>
       <c r="C66" t="n">
-        <v>1807</v>
+        <v>1774</v>
       </c>
       <c r="D66" t="n">
-        <v>1824</v>
+        <v>1774</v>
       </c>
       <c r="E66" t="n">
-        <v>1807</v>
+        <v>1774</v>
       </c>
       <c r="F66" t="n">
-        <v>42.7369</v>
+        <v>10.8392</v>
       </c>
       <c r="G66" t="n">
-        <v>8733.236721940002</v>
+        <v>6286.60892194</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2702,28 +2771,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1820</v>
+        <v>1789</v>
       </c>
       <c r="C67" t="n">
-        <v>1820</v>
+        <v>1789</v>
       </c>
       <c r="D67" t="n">
-        <v>1820</v>
+        <v>1789</v>
       </c>
       <c r="E67" t="n">
-        <v>1820</v>
+        <v>1789</v>
       </c>
       <c r="F67" t="n">
-        <v>0.5</v>
+        <v>0.28</v>
       </c>
       <c r="G67" t="n">
-        <v>8733.736721940002</v>
+        <v>6286.88892194</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2737,28 +2807,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1807</v>
+        <v>1777</v>
       </c>
       <c r="C68" t="n">
-        <v>1819</v>
+        <v>1776</v>
       </c>
       <c r="D68" t="n">
-        <v>1819</v>
+        <v>1777</v>
       </c>
       <c r="E68" t="n">
-        <v>1807</v>
+        <v>1776</v>
       </c>
       <c r="F68" t="n">
-        <v>101.3571</v>
+        <v>784.1191</v>
       </c>
       <c r="G68" t="n">
-        <v>8632.379621940003</v>
+        <v>5502.76982194</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,28 +2843,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1818</v>
+        <v>1790</v>
       </c>
       <c r="C69" t="n">
-        <v>1819</v>
+        <v>1791</v>
       </c>
       <c r="D69" t="n">
-        <v>1823</v>
+        <v>1791</v>
       </c>
       <c r="E69" t="n">
-        <v>1818</v>
+        <v>1790</v>
       </c>
       <c r="F69" t="n">
-        <v>1801.0884</v>
+        <v>1040</v>
       </c>
       <c r="G69" t="n">
-        <v>8632.379621940003</v>
+        <v>6542.76982194</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2807,28 +2879,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1821</v>
+        <v>1791</v>
       </c>
       <c r="C70" t="n">
-        <v>1821</v>
+        <v>1791</v>
       </c>
       <c r="D70" t="n">
-        <v>1821</v>
+        <v>1791</v>
       </c>
       <c r="E70" t="n">
-        <v>1821</v>
+        <v>1791</v>
       </c>
       <c r="F70" t="n">
-        <v>265.8594</v>
+        <v>54.3085</v>
       </c>
       <c r="G70" t="n">
-        <v>8898.239021940002</v>
+        <v>6542.76982194</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,28 +2915,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1820</v>
+        <v>1803</v>
       </c>
       <c r="C71" t="n">
-        <v>1820</v>
+        <v>1803</v>
       </c>
       <c r="D71" t="n">
-        <v>1820</v>
+        <v>1803</v>
       </c>
       <c r="E71" t="n">
-        <v>1820</v>
+        <v>1803</v>
       </c>
       <c r="F71" t="n">
-        <v>24.3</v>
+        <v>0.55463117</v>
       </c>
       <c r="G71" t="n">
-        <v>8873.939021940003</v>
+        <v>6543.32445311</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2877,28 +2951,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1819</v>
+        <v>1800</v>
       </c>
       <c r="C72" t="n">
-        <v>1805</v>
+        <v>1800</v>
       </c>
       <c r="D72" t="n">
-        <v>1819</v>
+        <v>1800</v>
       </c>
       <c r="E72" t="n">
-        <v>1805</v>
+        <v>1800</v>
       </c>
       <c r="F72" t="n">
-        <v>201.391</v>
+        <v>33.3944</v>
       </c>
       <c r="G72" t="n">
-        <v>8672.548021940003</v>
+        <v>6509.93005311</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2912,28 +2987,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1827</v>
+        <v>1799</v>
       </c>
       <c r="C73" t="n">
-        <v>1827</v>
+        <v>1800</v>
       </c>
       <c r="D73" t="n">
-        <v>1827</v>
+        <v>1800</v>
       </c>
       <c r="E73" t="n">
-        <v>1827</v>
+        <v>1799</v>
       </c>
       <c r="F73" t="n">
-        <v>0.5</v>
+        <v>1200</v>
       </c>
       <c r="G73" t="n">
-        <v>8673.048021940003</v>
+        <v>6509.93005311</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,34 +3023,35 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1807</v>
+        <v>1799</v>
       </c>
       <c r="C74" t="n">
-        <v>1805</v>
+        <v>1799</v>
       </c>
       <c r="D74" t="n">
-        <v>1807</v>
+        <v>1799</v>
       </c>
       <c r="E74" t="n">
-        <v>1805</v>
+        <v>1799</v>
       </c>
       <c r="F74" t="n">
-        <v>161.6951</v>
+        <v>1017.255</v>
       </c>
       <c r="G74" t="n">
-        <v>8511.352921940002</v>
+        <v>5492.67505311</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -2982,28 +3059,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1811</v>
+        <v>1781</v>
       </c>
       <c r="C75" t="n">
-        <v>1811</v>
+        <v>1781</v>
       </c>
       <c r="D75" t="n">
-        <v>1811</v>
+        <v>1781</v>
       </c>
       <c r="E75" t="n">
-        <v>1811</v>
+        <v>1781</v>
       </c>
       <c r="F75" t="n">
-        <v>12.318</v>
+        <v>29.9699</v>
       </c>
       <c r="G75" t="n">
-        <v>8523.670921940002</v>
+        <v>5462.70515311</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3017,28 +3095,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1822</v>
+        <v>1781</v>
       </c>
       <c r="C76" t="n">
-        <v>1822</v>
+        <v>1781</v>
       </c>
       <c r="D76" t="n">
-        <v>1822</v>
+        <v>1781</v>
       </c>
       <c r="E76" t="n">
-        <v>1822</v>
+        <v>1781</v>
       </c>
       <c r="F76" t="n">
-        <v>0.5</v>
+        <v>38.9609</v>
       </c>
       <c r="G76" t="n">
-        <v>8524.170921940002</v>
+        <v>5462.70515311</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3052,34 +3131,35 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1820</v>
+        <v>1780</v>
       </c>
       <c r="C77" t="n">
-        <v>1830</v>
+        <v>1778</v>
       </c>
       <c r="D77" t="n">
-        <v>1830</v>
+        <v>1780</v>
       </c>
       <c r="E77" t="n">
-        <v>1820</v>
+        <v>1770</v>
       </c>
       <c r="F77" t="n">
-        <v>3437.0652</v>
+        <v>1166.137</v>
       </c>
       <c r="G77" t="n">
-        <v>11961.23612194</v>
+        <v>4296.56815311</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3087,34 +3167,35 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1822</v>
+        <v>1771</v>
       </c>
       <c r="C78" t="n">
-        <v>1824</v>
+        <v>1770</v>
       </c>
       <c r="D78" t="n">
-        <v>1825</v>
+        <v>1771</v>
       </c>
       <c r="E78" t="n">
-        <v>1818</v>
+        <v>1770</v>
       </c>
       <c r="F78" t="n">
-        <v>3569.2888</v>
+        <v>126.38</v>
       </c>
       <c r="G78" t="n">
-        <v>8391.947321940001</v>
+        <v>4170.18815311</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3122,34 +3203,35 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1824</v>
+        <v>1769</v>
       </c>
       <c r="C79" t="n">
-        <v>1822</v>
+        <v>1767</v>
       </c>
       <c r="D79" t="n">
-        <v>1825</v>
+        <v>1769</v>
       </c>
       <c r="E79" t="n">
-        <v>1812</v>
+        <v>1767</v>
       </c>
       <c r="F79" t="n">
-        <v>1385.8021</v>
+        <v>69.2132</v>
       </c>
       <c r="G79" t="n">
-        <v>7006.145221940001</v>
+        <v>4100.97495311</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3157,34 +3239,35 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1823</v>
+        <v>1767</v>
       </c>
       <c r="C80" t="n">
-        <v>1825</v>
+        <v>1767</v>
       </c>
       <c r="D80" t="n">
-        <v>1825</v>
+        <v>1767</v>
       </c>
       <c r="E80" t="n">
-        <v>1806</v>
+        <v>1767</v>
       </c>
       <c r="F80" t="n">
-        <v>3449.1592</v>
+        <v>20.1122</v>
       </c>
       <c r="G80" t="n">
-        <v>10455.30442194</v>
+        <v>4100.97495311</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3192,34 +3275,35 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1825</v>
+        <v>1743</v>
       </c>
       <c r="C81" t="n">
-        <v>1825</v>
+        <v>1737</v>
       </c>
       <c r="D81" t="n">
-        <v>1825</v>
+        <v>1743</v>
       </c>
       <c r="E81" t="n">
-        <v>1825</v>
+        <v>1737</v>
       </c>
       <c r="F81" t="n">
-        <v>546.5786000000001</v>
+        <v>33.88</v>
       </c>
       <c r="G81" t="n">
-        <v>10455.30442194</v>
+        <v>4067.09495311</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3227,34 +3311,35 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1825</v>
+        <v>1737</v>
       </c>
       <c r="C82" t="n">
-        <v>1825</v>
+        <v>1737</v>
       </c>
       <c r="D82" t="n">
-        <v>1825</v>
+        <v>1737</v>
       </c>
       <c r="E82" t="n">
-        <v>1825</v>
+        <v>1737</v>
       </c>
       <c r="F82" t="n">
-        <v>463.6061</v>
+        <v>1.8068</v>
       </c>
       <c r="G82" t="n">
-        <v>10455.30442194</v>
+        <v>4067.09495311</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3262,34 +3347,35 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1808</v>
+        <v>1754</v>
       </c>
       <c r="C83" t="n">
-        <v>1808</v>
+        <v>1754</v>
       </c>
       <c r="D83" t="n">
-        <v>1808</v>
+        <v>1754</v>
       </c>
       <c r="E83" t="n">
-        <v>1808</v>
+        <v>1754</v>
       </c>
       <c r="F83" t="n">
-        <v>41.4</v>
+        <v>129.587</v>
       </c>
       <c r="G83" t="n">
-        <v>10413.90442194</v>
+        <v>4196.681953109999</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3297,28 +3383,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1808</v>
+        <v>1741</v>
       </c>
       <c r="C84" t="n">
-        <v>1807</v>
+        <v>1739</v>
       </c>
       <c r="D84" t="n">
-        <v>1808</v>
+        <v>1741</v>
       </c>
       <c r="E84" t="n">
-        <v>1807</v>
+        <v>1739</v>
       </c>
       <c r="F84" t="n">
-        <v>43.6178</v>
+        <v>260</v>
       </c>
       <c r="G84" t="n">
-        <v>10370.28662194</v>
+        <v>3936.681953109999</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3332,28 +3419,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1807</v>
+        <v>1749</v>
       </c>
       <c r="C85" t="n">
-        <v>1806</v>
+        <v>1749</v>
       </c>
       <c r="D85" t="n">
-        <v>1807</v>
+        <v>1750</v>
       </c>
       <c r="E85" t="n">
-        <v>1806</v>
+        <v>1749</v>
       </c>
       <c r="F85" t="n">
-        <v>87.3096</v>
+        <v>1386.2611</v>
       </c>
       <c r="G85" t="n">
-        <v>10282.97702194</v>
+        <v>5322.943053109999</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3367,28 +3455,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1806</v>
+        <v>1760</v>
       </c>
       <c r="C86" t="n">
-        <v>1791</v>
+        <v>1760</v>
       </c>
       <c r="D86" t="n">
-        <v>1806</v>
+        <v>1760</v>
       </c>
       <c r="E86" t="n">
-        <v>1791</v>
+        <v>1760</v>
       </c>
       <c r="F86" t="n">
-        <v>460</v>
+        <v>17.43181818</v>
       </c>
       <c r="G86" t="n">
-        <v>9822.97702194</v>
+        <v>5340.374871289999</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3402,28 +3491,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1786</v>
+        <v>1749</v>
       </c>
       <c r="C87" t="n">
-        <v>1785</v>
+        <v>1749</v>
       </c>
       <c r="D87" t="n">
-        <v>1786</v>
+        <v>1749</v>
       </c>
       <c r="E87" t="n">
-        <v>1785</v>
+        <v>1749</v>
       </c>
       <c r="F87" t="n">
-        <v>284.6698</v>
+        <v>190.16</v>
       </c>
       <c r="G87" t="n">
-        <v>9538.30722194</v>
+        <v>5150.214871289999</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3437,28 +3527,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1785</v>
+        <v>1749</v>
       </c>
       <c r="C88" t="n">
-        <v>1776</v>
+        <v>1749</v>
       </c>
       <c r="D88" t="n">
-        <v>1785</v>
+        <v>1749</v>
       </c>
       <c r="E88" t="n">
-        <v>1776</v>
+        <v>1749</v>
       </c>
       <c r="F88" t="n">
-        <v>1721.7753</v>
+        <v>247.2245</v>
       </c>
       <c r="G88" t="n">
-        <v>7816.53192194</v>
+        <v>5150.214871289999</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3472,28 +3563,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1776</v>
+        <v>1733</v>
       </c>
       <c r="C89" t="n">
-        <v>1776</v>
+        <v>1730</v>
       </c>
       <c r="D89" t="n">
-        <v>1776</v>
+        <v>1733</v>
       </c>
       <c r="E89" t="n">
-        <v>1776</v>
+        <v>1730</v>
       </c>
       <c r="F89" t="n">
-        <v>233.7372</v>
+        <v>291.7395</v>
       </c>
       <c r="G89" t="n">
-        <v>7816.53192194</v>
+        <v>4858.475371289999</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3507,28 +3599,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1782</v>
+        <v>1721</v>
       </c>
       <c r="C90" t="n">
-        <v>1782</v>
+        <v>1722</v>
       </c>
       <c r="D90" t="n">
-        <v>1782</v>
+        <v>1722</v>
       </c>
       <c r="E90" t="n">
-        <v>1782</v>
+        <v>1721</v>
       </c>
       <c r="F90" t="n">
-        <v>72.4571</v>
+        <v>218.8623</v>
       </c>
       <c r="G90" t="n">
-        <v>7888.989021939999</v>
+        <v>4639.613071289999</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3542,28 +3635,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1784</v>
+        <v>1728</v>
       </c>
       <c r="C91" t="n">
-        <v>1807</v>
+        <v>1719</v>
       </c>
       <c r="D91" t="n">
-        <v>1807</v>
+        <v>1728</v>
       </c>
       <c r="E91" t="n">
-        <v>1784</v>
+        <v>1719</v>
       </c>
       <c r="F91" t="n">
-        <v>1.3</v>
+        <v>2213.3885</v>
       </c>
       <c r="G91" t="n">
-        <v>7890.28902194</v>
+        <v>2426.224571289999</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3577,28 +3671,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1790</v>
+        <v>1719</v>
       </c>
       <c r="C92" t="n">
-        <v>1790</v>
+        <v>1719</v>
       </c>
       <c r="D92" t="n">
-        <v>1790</v>
+        <v>1719</v>
       </c>
       <c r="E92" t="n">
-        <v>1790</v>
+        <v>1719</v>
       </c>
       <c r="F92" t="n">
-        <v>39.4296</v>
+        <v>486.5321</v>
       </c>
       <c r="G92" t="n">
-        <v>7850.859421939999</v>
+        <v>2426.224571289999</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3612,28 +3707,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1790</v>
+        <v>1719</v>
       </c>
       <c r="C93" t="n">
-        <v>1806</v>
+        <v>1717</v>
       </c>
       <c r="D93" t="n">
-        <v>1806</v>
+        <v>1719</v>
       </c>
       <c r="E93" t="n">
-        <v>1790</v>
+        <v>1717</v>
       </c>
       <c r="F93" t="n">
-        <v>45</v>
+        <v>1128.3375</v>
       </c>
       <c r="G93" t="n">
-        <v>7895.859421939999</v>
+        <v>1297.887071289999</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3647,28 +3743,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1806</v>
+        <v>1700</v>
       </c>
       <c r="C94" t="n">
-        <v>1811</v>
+        <v>1700</v>
       </c>
       <c r="D94" t="n">
-        <v>1811</v>
+        <v>1700</v>
       </c>
       <c r="E94" t="n">
-        <v>1806</v>
+        <v>1700</v>
       </c>
       <c r="F94" t="n">
-        <v>784.1191</v>
+        <v>534.525</v>
       </c>
       <c r="G94" t="n">
-        <v>8679.97852194</v>
+        <v>763.3620712899993</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3682,63 +3779,69 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1799</v>
+        <v>1721</v>
       </c>
       <c r="C95" t="n">
-        <v>1799</v>
+        <v>1723</v>
       </c>
       <c r="D95" t="n">
-        <v>1800</v>
+        <v>1723</v>
       </c>
       <c r="E95" t="n">
-        <v>1799</v>
+        <v>1721</v>
       </c>
       <c r="F95" t="n">
-        <v>2325.316</v>
+        <v>1830.6382</v>
       </c>
       <c r="G95" t="n">
-        <v>6354.66252194</v>
+        <v>2594.00027129</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>1700</v>
+      </c>
+      <c r="K95" t="n">
+        <v>1700</v>
+      </c>
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1800</v>
+        <v>1724</v>
       </c>
       <c r="C96" t="n">
-        <v>1800</v>
+        <v>1724</v>
       </c>
       <c r="D96" t="n">
-        <v>1800</v>
+        <v>1724</v>
       </c>
       <c r="E96" t="n">
-        <v>1800</v>
+        <v>1724</v>
       </c>
       <c r="F96" t="n">
-        <v>11.2935</v>
+        <v>0.9167999999999999</v>
       </c>
       <c r="G96" t="n">
-        <v>6365.95602194</v>
+        <v>2594.91707129</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3747,33 +3850,40 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1700</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1800</v>
+        <v>1709</v>
       </c>
       <c r="C97" t="n">
-        <v>1800</v>
+        <v>1709</v>
       </c>
       <c r="D97" t="n">
-        <v>1800</v>
+        <v>1709</v>
       </c>
       <c r="E97" t="n">
-        <v>1800</v>
+        <v>1709</v>
       </c>
       <c r="F97" t="n">
-        <v>15.0707</v>
+        <v>285.2936</v>
       </c>
       <c r="G97" t="n">
-        <v>6365.95602194</v>
+        <v>2309.62347129</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3782,418 +3892,520 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1700</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1800</v>
+        <v>1709</v>
       </c>
       <c r="C98" t="n">
-        <v>1799</v>
+        <v>1709</v>
       </c>
       <c r="D98" t="n">
-        <v>1800</v>
+        <v>1709</v>
       </c>
       <c r="E98" t="n">
-        <v>1799</v>
+        <v>1709</v>
       </c>
       <c r="F98" t="n">
-        <v>276.126</v>
+        <v>157.3126</v>
       </c>
       <c r="G98" t="n">
-        <v>6089.83002194</v>
+        <v>2309.62347129</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>1709</v>
+      </c>
+      <c r="K98" t="n">
+        <v>1709</v>
+      </c>
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1799</v>
+        <v>1709</v>
       </c>
       <c r="C99" t="n">
-        <v>1799</v>
+        <v>1709</v>
       </c>
       <c r="D99" t="n">
-        <v>1799</v>
+        <v>1709</v>
       </c>
       <c r="E99" t="n">
-        <v>1799</v>
+        <v>1709</v>
       </c>
       <c r="F99" t="n">
-        <v>323</v>
+        <v>45</v>
       </c>
       <c r="G99" t="n">
-        <v>6089.83002194</v>
+        <v>2309.62347129</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>1709</v>
+      </c>
+      <c r="K99" t="n">
+        <v>1709</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1805</v>
+        <v>1709</v>
       </c>
       <c r="C100" t="n">
-        <v>1805</v>
+        <v>1709</v>
       </c>
       <c r="D100" t="n">
-        <v>1805</v>
+        <v>1709</v>
       </c>
       <c r="E100" t="n">
-        <v>1805</v>
+        <v>1709</v>
       </c>
       <c r="F100" t="n">
-        <v>0.6327</v>
+        <v>50</v>
       </c>
       <c r="G100" t="n">
-        <v>6090.46272194</v>
+        <v>2309.62347129</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>1709</v>
+      </c>
+      <c r="K100" t="n">
+        <v>1709</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1799</v>
+        <v>1706</v>
       </c>
       <c r="C101" t="n">
-        <v>1799</v>
+        <v>1705</v>
       </c>
       <c r="D101" t="n">
-        <v>1799</v>
+        <v>1706</v>
       </c>
       <c r="E101" t="n">
-        <v>1799</v>
+        <v>1705</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3182</v>
+        <v>25.4189</v>
       </c>
       <c r="G101" t="n">
-        <v>6090.14452194</v>
+        <v>2284.204571289999</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>1709</v>
+      </c>
+      <c r="K101" t="n">
+        <v>1709</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1788</v>
+        <v>1707</v>
       </c>
       <c r="C102" t="n">
-        <v>1788</v>
+        <v>1706</v>
       </c>
       <c r="D102" t="n">
-        <v>1788</v>
+        <v>1707</v>
       </c>
       <c r="E102" t="n">
-        <v>1788</v>
+        <v>1706</v>
       </c>
       <c r="F102" t="n">
-        <v>98.3586</v>
+        <v>116.7282</v>
       </c>
       <c r="G102" t="n">
-        <v>5991.785921940001</v>
+        <v>2400.932771289999</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>1705</v>
+      </c>
+      <c r="K102" t="n">
+        <v>1709</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1780</v>
+        <v>1706</v>
       </c>
       <c r="C103" t="n">
-        <v>1780</v>
+        <v>1690</v>
       </c>
       <c r="D103" t="n">
-        <v>1780</v>
+        <v>1706</v>
       </c>
       <c r="E103" t="n">
-        <v>1780</v>
+        <v>1690</v>
       </c>
       <c r="F103" t="n">
-        <v>839.5242</v>
+        <v>260.7987</v>
       </c>
       <c r="G103" t="n">
-        <v>5152.261721940001</v>
+        <v>2140.13407129</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>1706</v>
+      </c>
+      <c r="K103" t="n">
+        <v>1709</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1777</v>
+        <v>1688</v>
       </c>
       <c r="C104" t="n">
-        <v>1776</v>
+        <v>1688</v>
       </c>
       <c r="D104" t="n">
-        <v>1777</v>
+        <v>1688</v>
       </c>
       <c r="E104" t="n">
-        <v>1776</v>
+        <v>1688</v>
       </c>
       <c r="F104" t="n">
-        <v>77.1503</v>
+        <v>49.7884</v>
       </c>
       <c r="G104" t="n">
-        <v>5075.111421940001</v>
+        <v>2090.34567129</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>1690</v>
+      </c>
+      <c r="K104" t="n">
+        <v>1709</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1786</v>
+        <v>1688</v>
       </c>
       <c r="C105" t="n">
-        <v>1787</v>
+        <v>1709</v>
       </c>
       <c r="D105" t="n">
-        <v>1787</v>
+        <v>1709</v>
       </c>
       <c r="E105" t="n">
-        <v>1786</v>
+        <v>1688</v>
       </c>
       <c r="F105" t="n">
-        <v>1558.068</v>
+        <v>33</v>
       </c>
       <c r="G105" t="n">
-        <v>6633.179421940001</v>
+        <v>2123.34567129</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>1688</v>
+      </c>
+      <c r="K105" t="n">
+        <v>1709</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1787</v>
+        <v>1710</v>
       </c>
       <c r="C106" t="n">
-        <v>1787</v>
+        <v>1710</v>
       </c>
       <c r="D106" t="n">
-        <v>1787</v>
+        <v>1710</v>
       </c>
       <c r="E106" t="n">
-        <v>1787</v>
+        <v>1710</v>
       </c>
       <c r="F106" t="n">
-        <v>19.7155</v>
+        <v>0.6463</v>
       </c>
       <c r="G106" t="n">
-        <v>6633.179421940001</v>
+        <v>2123.99197129</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>1709</v>
+      </c>
+      <c r="K106" t="n">
+        <v>1709</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1786</v>
+        <v>1717</v>
       </c>
       <c r="C107" t="n">
-        <v>1786</v>
+        <v>1731</v>
       </c>
       <c r="D107" t="n">
-        <v>1786</v>
+        <v>1731</v>
       </c>
       <c r="E107" t="n">
-        <v>1786</v>
+        <v>1717</v>
       </c>
       <c r="F107" t="n">
-        <v>335.7313</v>
+        <v>1890.9326</v>
       </c>
       <c r="G107" t="n">
-        <v>6297.44812194</v>
+        <v>4014.92457129</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>1710</v>
+      </c>
+      <c r="K107" t="n">
+        <v>1709</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1774</v>
+        <v>1744</v>
       </c>
       <c r="C108" t="n">
-        <v>1774</v>
+        <v>1744</v>
       </c>
       <c r="D108" t="n">
-        <v>1774</v>
+        <v>1744</v>
       </c>
       <c r="E108" t="n">
-        <v>1774</v>
+        <v>1744</v>
       </c>
       <c r="F108" t="n">
-        <v>10.8392</v>
+        <v>753.6427</v>
       </c>
       <c r="G108" t="n">
-        <v>6286.60892194</v>
+        <v>4768.56727129</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>1731</v>
+      </c>
+      <c r="K108" t="n">
+        <v>1709</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1789</v>
+        <v>1725</v>
       </c>
       <c r="C109" t="n">
-        <v>1789</v>
+        <v>1724</v>
       </c>
       <c r="D109" t="n">
-        <v>1789</v>
+        <v>1725</v>
       </c>
       <c r="E109" t="n">
-        <v>1789</v>
+        <v>1724</v>
       </c>
       <c r="F109" t="n">
-        <v>0.28</v>
+        <v>84.396</v>
       </c>
       <c r="G109" t="n">
-        <v>6286.88892194</v>
+        <v>4684.17127129</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4202,33 +4414,40 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1709</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1777</v>
+        <v>1723</v>
       </c>
       <c r="C110" t="n">
-        <v>1776</v>
+        <v>1742</v>
       </c>
       <c r="D110" t="n">
-        <v>1777</v>
+        <v>1742</v>
       </c>
       <c r="E110" t="n">
-        <v>1776</v>
+        <v>1723</v>
       </c>
       <c r="F110" t="n">
-        <v>784.1191</v>
+        <v>15.5</v>
       </c>
       <c r="G110" t="n">
-        <v>5502.76982194</v>
+        <v>4699.67127129</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4237,33 +4456,40 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1709</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1790</v>
+        <v>1731</v>
       </c>
       <c r="C111" t="n">
-        <v>1791</v>
+        <v>1732</v>
       </c>
       <c r="D111" t="n">
-        <v>1791</v>
+        <v>1732</v>
       </c>
       <c r="E111" t="n">
-        <v>1790</v>
+        <v>1731</v>
       </c>
       <c r="F111" t="n">
-        <v>1040</v>
+        <v>196.8085</v>
       </c>
       <c r="G111" t="n">
-        <v>6542.76982194</v>
+        <v>4502.86277129</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4272,33 +4498,40 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1709</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1791</v>
+        <v>1732</v>
       </c>
       <c r="C112" t="n">
-        <v>1791</v>
+        <v>1731</v>
       </c>
       <c r="D112" t="n">
-        <v>1791</v>
+        <v>1732</v>
       </c>
       <c r="E112" t="n">
-        <v>1791</v>
+        <v>1731</v>
       </c>
       <c r="F112" t="n">
-        <v>54.3085</v>
+        <v>121.6593</v>
       </c>
       <c r="G112" t="n">
-        <v>6542.76982194</v>
+        <v>4381.203471289999</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4307,33 +4540,40 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1709</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1803</v>
+        <v>1739</v>
       </c>
       <c r="C113" t="n">
-        <v>1803</v>
+        <v>1721</v>
       </c>
       <c r="D113" t="n">
-        <v>1803</v>
+        <v>1739</v>
       </c>
       <c r="E113" t="n">
-        <v>1803</v>
+        <v>1721</v>
       </c>
       <c r="F113" t="n">
-        <v>0.55463117</v>
+        <v>16.8822</v>
       </c>
       <c r="G113" t="n">
-        <v>6543.32445311</v>
+        <v>4364.321271289999</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4342,33 +4582,40 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1709</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1800</v>
+        <v>1738</v>
       </c>
       <c r="C114" t="n">
-        <v>1800</v>
+        <v>1738</v>
       </c>
       <c r="D114" t="n">
-        <v>1800</v>
+        <v>1738</v>
       </c>
       <c r="E114" t="n">
-        <v>1800</v>
+        <v>1738</v>
       </c>
       <c r="F114" t="n">
-        <v>33.3944</v>
+        <v>0.5</v>
       </c>
       <c r="G114" t="n">
-        <v>6509.93005311</v>
+        <v>4364.821271289999</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4377,33 +4624,40 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1709</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1799</v>
+        <v>1738</v>
       </c>
       <c r="C115" t="n">
-        <v>1800</v>
+        <v>1738</v>
       </c>
       <c r="D115" t="n">
-        <v>1800</v>
+        <v>1738</v>
       </c>
       <c r="E115" t="n">
-        <v>1799</v>
+        <v>1738</v>
       </c>
       <c r="F115" t="n">
-        <v>1200</v>
+        <v>31.57192174</v>
       </c>
       <c r="G115" t="n">
-        <v>6509.93005311</v>
+        <v>4364.821271289999</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4412,33 +4666,40 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1709</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1799</v>
+        <v>1734</v>
       </c>
       <c r="C116" t="n">
-        <v>1799</v>
+        <v>1735</v>
       </c>
       <c r="D116" t="n">
-        <v>1799</v>
+        <v>1736</v>
       </c>
       <c r="E116" t="n">
-        <v>1799</v>
+        <v>1734</v>
       </c>
       <c r="F116" t="n">
-        <v>1017.255</v>
+        <v>1366.3323</v>
       </c>
       <c r="G116" t="n">
-        <v>5492.67505311</v>
+        <v>2998.488971289999</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4447,33 +4708,40 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1709</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1781</v>
+        <v>1735</v>
       </c>
       <c r="C117" t="n">
-        <v>1781</v>
+        <v>1735</v>
       </c>
       <c r="D117" t="n">
-        <v>1781</v>
+        <v>1736</v>
       </c>
       <c r="E117" t="n">
-        <v>1781</v>
+        <v>1735</v>
       </c>
       <c r="F117" t="n">
-        <v>29.9699</v>
+        <v>479.4109</v>
       </c>
       <c r="G117" t="n">
-        <v>5462.70515311</v>
+        <v>2998.488971289999</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4482,33 +4750,40 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1709</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1781</v>
+        <v>1723</v>
       </c>
       <c r="C118" t="n">
-        <v>1781</v>
+        <v>1722</v>
       </c>
       <c r="D118" t="n">
-        <v>1781</v>
+        <v>1723</v>
       </c>
       <c r="E118" t="n">
-        <v>1781</v>
+        <v>1722</v>
       </c>
       <c r="F118" t="n">
-        <v>38.9609</v>
+        <v>326.17</v>
       </c>
       <c r="G118" t="n">
-        <v>5462.70515311</v>
+        <v>2672.318971289999</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4517,33 +4792,40 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1709</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1780</v>
+        <v>1738</v>
       </c>
       <c r="C119" t="n">
-        <v>1778</v>
+        <v>1738</v>
       </c>
       <c r="D119" t="n">
-        <v>1780</v>
+        <v>1738</v>
       </c>
       <c r="E119" t="n">
-        <v>1770</v>
+        <v>1738</v>
       </c>
       <c r="F119" t="n">
-        <v>1166.137</v>
+        <v>0.5</v>
       </c>
       <c r="G119" t="n">
-        <v>4296.56815311</v>
+        <v>2672.818971289999</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4552,33 +4834,40 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1709</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1771</v>
+        <v>1735</v>
       </c>
       <c r="C120" t="n">
-        <v>1770</v>
+        <v>1741</v>
       </c>
       <c r="D120" t="n">
-        <v>1771</v>
+        <v>1741</v>
       </c>
       <c r="E120" t="n">
-        <v>1770</v>
+        <v>1724</v>
       </c>
       <c r="F120" t="n">
-        <v>126.38</v>
+        <v>149.0995</v>
       </c>
       <c r="G120" t="n">
-        <v>4170.18815311</v>
+        <v>2821.918471289999</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4587,33 +4876,40 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1709</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1769</v>
+        <v>1724</v>
       </c>
       <c r="C121" t="n">
-        <v>1767</v>
+        <v>1724</v>
       </c>
       <c r="D121" t="n">
-        <v>1769</v>
+        <v>1724</v>
       </c>
       <c r="E121" t="n">
-        <v>1767</v>
+        <v>1724</v>
       </c>
       <c r="F121" t="n">
-        <v>69.2132</v>
+        <v>44.423</v>
       </c>
       <c r="G121" t="n">
-        <v>4100.97495311</v>
+        <v>2777.495471289999</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4622,33 +4918,40 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1709</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1767</v>
+        <v>1726</v>
       </c>
       <c r="C122" t="n">
-        <v>1767</v>
+        <v>1725</v>
       </c>
       <c r="D122" t="n">
-        <v>1767</v>
+        <v>1726</v>
       </c>
       <c r="E122" t="n">
-        <v>1767</v>
+        <v>1725</v>
       </c>
       <c r="F122" t="n">
-        <v>20.1122</v>
+        <v>42.1169</v>
       </c>
       <c r="G122" t="n">
-        <v>4100.97495311</v>
+        <v>2819.612371289999</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4657,33 +4960,40 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1709</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1743</v>
+        <v>1724</v>
       </c>
       <c r="C123" t="n">
-        <v>1737</v>
+        <v>1723</v>
       </c>
       <c r="D123" t="n">
-        <v>1743</v>
+        <v>1724</v>
       </c>
       <c r="E123" t="n">
-        <v>1737</v>
+        <v>1723</v>
       </c>
       <c r="F123" t="n">
-        <v>33.88</v>
+        <v>1344.2888</v>
       </c>
       <c r="G123" t="n">
-        <v>4067.09495311</v>
+        <v>1475.323571289999</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4692,33 +5002,40 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1709</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1737</v>
+        <v>1723</v>
       </c>
       <c r="C124" t="n">
-        <v>1737</v>
+        <v>1723</v>
       </c>
       <c r="D124" t="n">
-        <v>1737</v>
+        <v>1724</v>
       </c>
       <c r="E124" t="n">
-        <v>1737</v>
+        <v>1723</v>
       </c>
       <c r="F124" t="n">
-        <v>1.8068</v>
+        <v>5493.8386</v>
       </c>
       <c r="G124" t="n">
-        <v>4067.09495311</v>
+        <v>1475.323571289999</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4727,33 +5044,40 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1709</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1754</v>
+        <v>1723</v>
       </c>
       <c r="C125" t="n">
-        <v>1754</v>
+        <v>1720</v>
       </c>
       <c r="D125" t="n">
-        <v>1754</v>
+        <v>1723</v>
       </c>
       <c r="E125" t="n">
-        <v>1754</v>
+        <v>1720</v>
       </c>
       <c r="F125" t="n">
-        <v>129.587</v>
+        <v>1696.7212</v>
       </c>
       <c r="G125" t="n">
-        <v>4196.681953109999</v>
+        <v>-221.3976287100011</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4762,33 +5086,40 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1709</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1741</v>
+        <v>1721</v>
       </c>
       <c r="C126" t="n">
-        <v>1739</v>
+        <v>1720</v>
       </c>
       <c r="D126" t="n">
-        <v>1741</v>
+        <v>1721</v>
       </c>
       <c r="E126" t="n">
-        <v>1739</v>
+        <v>1720</v>
       </c>
       <c r="F126" t="n">
-        <v>260</v>
+        <v>349.79</v>
       </c>
       <c r="G126" t="n">
-        <v>3936.681953109999</v>
+        <v>-221.3976287100011</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4797,33 +5128,40 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1709</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1749</v>
+        <v>1720</v>
       </c>
       <c r="C127" t="n">
-        <v>1749</v>
+        <v>1720</v>
       </c>
       <c r="D127" t="n">
-        <v>1750</v>
+        <v>1720</v>
       </c>
       <c r="E127" t="n">
-        <v>1749</v>
+        <v>1720</v>
       </c>
       <c r="F127" t="n">
-        <v>1386.2611</v>
+        <v>23.23</v>
       </c>
       <c r="G127" t="n">
-        <v>5322.943053109999</v>
+        <v>-221.3976287100011</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4832,33 +5170,40 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1709</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1760</v>
+        <v>1724</v>
       </c>
       <c r="C128" t="n">
-        <v>1760</v>
+        <v>1800</v>
       </c>
       <c r="D128" t="n">
-        <v>1760</v>
+        <v>1800</v>
       </c>
       <c r="E128" t="n">
-        <v>1760</v>
+        <v>1724</v>
       </c>
       <c r="F128" t="n">
-        <v>17.43181818</v>
+        <v>5309.44775622</v>
       </c>
       <c r="G128" t="n">
-        <v>5340.374871289999</v>
+        <v>5088.050127509999</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4867,33 +5212,40 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1709</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1749</v>
+        <v>1727</v>
       </c>
       <c r="C129" t="n">
-        <v>1749</v>
+        <v>1726</v>
       </c>
       <c r="D129" t="n">
-        <v>1749</v>
+        <v>1727</v>
       </c>
       <c r="E129" t="n">
-        <v>1749</v>
+        <v>1726</v>
       </c>
       <c r="F129" t="n">
-        <v>190.16</v>
+        <v>82.56</v>
       </c>
       <c r="G129" t="n">
-        <v>5150.214871289999</v>
+        <v>5005.490127509998</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4902,33 +5254,40 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1709</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1749</v>
+        <v>1780</v>
       </c>
       <c r="C130" t="n">
-        <v>1749</v>
+        <v>1780</v>
       </c>
       <c r="D130" t="n">
-        <v>1749</v>
+        <v>1780</v>
       </c>
       <c r="E130" t="n">
-        <v>1749</v>
+        <v>1780</v>
       </c>
       <c r="F130" t="n">
-        <v>247.2245</v>
+        <v>0.3</v>
       </c>
       <c r="G130" t="n">
-        <v>5150.214871289999</v>
+        <v>5005.790127509998</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4937,21 +5296,28 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1709</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="C131" t="n">
-        <v>1730</v>
+        <v>1732</v>
       </c>
       <c r="D131" t="n">
         <v>1733</v>
@@ -4960,10 +5326,10 @@
         <v>1730</v>
       </c>
       <c r="F131" t="n">
-        <v>291.7395</v>
+        <v>35.7392</v>
       </c>
       <c r="G131" t="n">
-        <v>4858.475371289999</v>
+        <v>4970.050927509998</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4972,33 +5338,40 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1709</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1721</v>
+        <v>1724</v>
       </c>
       <c r="C132" t="n">
-        <v>1722</v>
+        <v>1730</v>
       </c>
       <c r="D132" t="n">
-        <v>1722</v>
+        <v>1775</v>
       </c>
       <c r="E132" t="n">
-        <v>1721</v>
+        <v>1724</v>
       </c>
       <c r="F132" t="n">
-        <v>218.8623</v>
+        <v>1449.1124</v>
       </c>
       <c r="G132" t="n">
-        <v>4639.613071289999</v>
+        <v>3520.938527509998</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5007,33 +5380,40 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1709</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1728</v>
+        <v>1768</v>
       </c>
       <c r="C133" t="n">
-        <v>1719</v>
+        <v>1768</v>
       </c>
       <c r="D133" t="n">
-        <v>1728</v>
+        <v>1768</v>
       </c>
       <c r="E133" t="n">
-        <v>1719</v>
+        <v>1768</v>
       </c>
       <c r="F133" t="n">
-        <v>2213.3885</v>
+        <v>0.5</v>
       </c>
       <c r="G133" t="n">
-        <v>2426.224571289999</v>
+        <v>3521.438527509998</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5042,33 +5422,40 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1709</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>1719</v>
+        <v>1723</v>
       </c>
       <c r="C134" t="n">
-        <v>1719</v>
+        <v>1721</v>
       </c>
       <c r="D134" t="n">
-        <v>1719</v>
+        <v>1723</v>
       </c>
       <c r="E134" t="n">
-        <v>1719</v>
+        <v>1721</v>
       </c>
       <c r="F134" t="n">
-        <v>486.5321</v>
+        <v>117.7821</v>
       </c>
       <c r="G134" t="n">
-        <v>2426.224571289999</v>
+        <v>3403.656427509999</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5077,74 +5464,82 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1709</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>1719</v>
+        <v>1746</v>
       </c>
       <c r="C135" t="n">
-        <v>1717</v>
+        <v>1771</v>
       </c>
       <c r="D135" t="n">
-        <v>1719</v>
+        <v>1771</v>
       </c>
       <c r="E135" t="n">
-        <v>1717</v>
+        <v>1746</v>
       </c>
       <c r="F135" t="n">
-        <v>1128.3375</v>
+        <v>56.56148481</v>
       </c>
       <c r="G135" t="n">
-        <v>1297.887071289999</v>
+        <v>3460.217912319999</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>1719</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1709</v>
+      </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>1700</v>
+        <v>1734</v>
       </c>
       <c r="C136" t="n">
-        <v>1700</v>
+        <v>1735</v>
       </c>
       <c r="D136" t="n">
-        <v>1700</v>
+        <v>1735</v>
       </c>
       <c r="E136" t="n">
-        <v>1700</v>
+        <v>1734</v>
       </c>
       <c r="F136" t="n">
-        <v>534.525</v>
+        <v>17.5323</v>
       </c>
       <c r="G136" t="n">
-        <v>763.3620712899993</v>
+        <v>3442.685612319999</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5153,7 +5548,9 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1709</v>
+      </c>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5162,39 +5559,40 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>1721</v>
+        <v>1726</v>
       </c>
       <c r="C137" t="n">
-        <v>1723</v>
+        <v>1725</v>
       </c>
       <c r="D137" t="n">
-        <v>1723</v>
+        <v>1726</v>
       </c>
       <c r="E137" t="n">
-        <v>1721</v>
+        <v>1725</v>
       </c>
       <c r="F137" t="n">
-        <v>1830.6382</v>
+        <v>110.6914</v>
       </c>
       <c r="G137" t="n">
-        <v>2594.00027129</v>
+        <v>3331.994212319998</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>1700</v>
-      </c>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1709</v>
+      </c>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5203,39 +5601,40 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1724</v>
+        <v>1738</v>
       </c>
       <c r="C138" t="n">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="D138" t="n">
-        <v>1724</v>
+        <v>1739</v>
       </c>
       <c r="E138" t="n">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9167999999999999</v>
+        <v>625.9045</v>
       </c>
       <c r="G138" t="n">
-        <v>2594.91707129</v>
+        <v>3331.994212319998</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>1723</v>
-      </c>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1709</v>
+      </c>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5244,39 +5643,40 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>1709</v>
+        <v>1740</v>
       </c>
       <c r="C139" t="n">
-        <v>1709</v>
+        <v>1740</v>
       </c>
       <c r="D139" t="n">
-        <v>1709</v>
+        <v>1740</v>
       </c>
       <c r="E139" t="n">
-        <v>1709</v>
+        <v>1740</v>
       </c>
       <c r="F139" t="n">
-        <v>285.2936</v>
+        <v>0.5</v>
       </c>
       <c r="G139" t="n">
-        <v>2309.62347129</v>
+        <v>3332.494212319998</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>1724</v>
-      </c>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1709</v>
+      </c>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5285,28 +5685,29 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1709</v>
+        <v>1734</v>
       </c>
       <c r="C140" t="n">
-        <v>1709</v>
+        <v>1734</v>
       </c>
       <c r="D140" t="n">
-        <v>1709</v>
+        <v>1734</v>
       </c>
       <c r="E140" t="n">
-        <v>1709</v>
+        <v>1734</v>
       </c>
       <c r="F140" t="n">
-        <v>157.3126</v>
+        <v>82.179</v>
       </c>
       <c r="G140" t="n">
-        <v>2309.62347129</v>
+        <v>3250.315212319998</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5315,7 +5716,9 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1709</v>
+      </c>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5324,39 +5727,40 @@
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1709</v>
+        <v>1750</v>
       </c>
       <c r="C141" t="n">
-        <v>1709</v>
+        <v>1750</v>
       </c>
       <c r="D141" t="n">
-        <v>1709</v>
+        <v>1750</v>
       </c>
       <c r="E141" t="n">
-        <v>1709</v>
+        <v>1750</v>
       </c>
       <c r="F141" t="n">
-        <v>45</v>
+        <v>0.2883</v>
       </c>
       <c r="G141" t="n">
-        <v>2309.62347129</v>
+        <v>3250.603512319999</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1709</v>
+      </c>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5365,39 +5769,40 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>1709</v>
+        <v>1746</v>
       </c>
       <c r="C142" t="n">
-        <v>1709</v>
+        <v>1771</v>
       </c>
       <c r="D142" t="n">
-        <v>1709</v>
+        <v>1771</v>
       </c>
       <c r="E142" t="n">
-        <v>1709</v>
+        <v>1746</v>
       </c>
       <c r="F142" t="n">
-        <v>50</v>
+        <v>309.4296</v>
       </c>
       <c r="G142" t="n">
-        <v>2309.62347129</v>
+        <v>3560.033112319999</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1709</v>
+      </c>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5406,39 +5811,40 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1706</v>
+        <v>1735</v>
       </c>
       <c r="C143" t="n">
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c r="D143" t="n">
-        <v>1706</v>
+        <v>1735</v>
       </c>
       <c r="E143" t="n">
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c r="F143" t="n">
-        <v>25.4189</v>
+        <v>3822.6844</v>
       </c>
       <c r="G143" t="n">
-        <v>2284.204571289999</v>
+        <v>-262.6512876800016</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1709</v>
+      </c>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5447,28 +5853,29 @@
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1707</v>
+        <v>1739</v>
       </c>
       <c r="C144" t="n">
-        <v>1706</v>
+        <v>1740</v>
       </c>
       <c r="D144" t="n">
-        <v>1707</v>
+        <v>1742</v>
       </c>
       <c r="E144" t="n">
-        <v>1706</v>
+        <v>1739</v>
       </c>
       <c r="F144" t="n">
-        <v>116.7282</v>
+        <v>3120.7014</v>
       </c>
       <c r="G144" t="n">
-        <v>2400.932771289999</v>
+        <v>2858.050112319998</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5477,7 +5884,9 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1709</v>
+      </c>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5486,28 +5895,29 @@
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>1706</v>
+        <v>1738</v>
       </c>
       <c r="C145" t="n">
-        <v>1690</v>
+        <v>1739</v>
       </c>
       <c r="D145" t="n">
-        <v>1706</v>
+        <v>1739</v>
       </c>
       <c r="E145" t="n">
-        <v>1690</v>
+        <v>1738</v>
       </c>
       <c r="F145" t="n">
-        <v>260.7987</v>
+        <v>79.3229</v>
       </c>
       <c r="G145" t="n">
-        <v>2140.13407129</v>
+        <v>2778.727212319998</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5516,7 +5926,9 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1709</v>
+      </c>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5525,28 +5937,29 @@
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1688</v>
+        <v>1752</v>
       </c>
       <c r="C146" t="n">
-        <v>1688</v>
+        <v>1754</v>
       </c>
       <c r="D146" t="n">
-        <v>1688</v>
+        <v>1754</v>
       </c>
       <c r="E146" t="n">
-        <v>1688</v>
+        <v>1752</v>
       </c>
       <c r="F146" t="n">
-        <v>49.7884</v>
+        <v>873.0547</v>
       </c>
       <c r="G146" t="n">
-        <v>2090.34567129</v>
+        <v>3651.781912319998</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5555,7 +5968,9 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1709</v>
+      </c>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5564,28 +5979,29 @@
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1688</v>
+        <v>1740</v>
       </c>
       <c r="C147" t="n">
-        <v>1709</v>
+        <v>1719</v>
       </c>
       <c r="D147" t="n">
-        <v>1709</v>
+        <v>1742</v>
       </c>
       <c r="E147" t="n">
-        <v>1688</v>
+        <v>1719</v>
       </c>
       <c r="F147" t="n">
-        <v>33</v>
+        <v>262.085</v>
       </c>
       <c r="G147" t="n">
-        <v>2123.34567129</v>
+        <v>3389.696912319998</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5594,7 +6010,9 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1709</v>
+      </c>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5603,28 +6021,29 @@
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>1710</v>
+        <v>1751</v>
       </c>
       <c r="C148" t="n">
-        <v>1710</v>
+        <v>1751</v>
       </c>
       <c r="D148" t="n">
-        <v>1710</v>
+        <v>1751</v>
       </c>
       <c r="E148" t="n">
-        <v>1710</v>
+        <v>1751</v>
       </c>
       <c r="F148" t="n">
-        <v>0.6463</v>
+        <v>0.5</v>
       </c>
       <c r="G148" t="n">
-        <v>2123.99197129</v>
+        <v>3390.196912319998</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5633,7 +6052,9 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1709</v>
+      </c>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5642,28 +6063,29 @@
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>1717</v>
+        <v>1724</v>
       </c>
       <c r="C149" t="n">
-        <v>1731</v>
+        <v>1756</v>
       </c>
       <c r="D149" t="n">
-        <v>1731</v>
+        <v>1756</v>
       </c>
       <c r="E149" t="n">
-        <v>1717</v>
+        <v>1722</v>
       </c>
       <c r="F149" t="n">
-        <v>1890.9326</v>
+        <v>1082.8493</v>
       </c>
       <c r="G149" t="n">
-        <v>4014.92457129</v>
+        <v>4473.046212319999</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5672,7 +6094,9 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1709</v>
+      </c>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5681,28 +6105,29 @@
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>1744</v>
+        <v>1755</v>
       </c>
       <c r="C150" t="n">
-        <v>1744</v>
+        <v>1756</v>
       </c>
       <c r="D150" t="n">
-        <v>1744</v>
+        <v>1756</v>
       </c>
       <c r="E150" t="n">
-        <v>1744</v>
+        <v>1755</v>
       </c>
       <c r="F150" t="n">
-        <v>753.6427</v>
+        <v>282.6302</v>
       </c>
       <c r="G150" t="n">
-        <v>4768.56727129</v>
+        <v>4473.046212319999</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5711,7 +6136,9 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1709</v>
+      </c>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5720,28 +6147,29 @@
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>1725</v>
+        <v>1756</v>
       </c>
       <c r="C151" t="n">
-        <v>1724</v>
+        <v>1772</v>
       </c>
       <c r="D151" t="n">
-        <v>1725</v>
+        <v>1772</v>
       </c>
       <c r="E151" t="n">
-        <v>1724</v>
+        <v>1726</v>
       </c>
       <c r="F151" t="n">
-        <v>84.396</v>
+        <v>809.35</v>
       </c>
       <c r="G151" t="n">
-        <v>4684.17127129</v>
+        <v>5282.396212319999</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5750,7 +6178,9 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1709</v>
+      </c>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5759,28 +6189,29 @@
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>1723</v>
+        <v>1743</v>
       </c>
       <c r="C152" t="n">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="D152" t="n">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="E152" t="n">
-        <v>1723</v>
+        <v>1743</v>
       </c>
       <c r="F152" t="n">
-        <v>15.5</v>
+        <v>133.407</v>
       </c>
       <c r="G152" t="n">
-        <v>4699.67127129</v>
+        <v>5148.989212319999</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5789,7 +6220,9 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1709</v>
+      </c>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5798,28 +6231,29 @@
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>1731</v>
+        <v>1741</v>
       </c>
       <c r="C153" t="n">
-        <v>1732</v>
+        <v>1740</v>
       </c>
       <c r="D153" t="n">
-        <v>1732</v>
+        <v>1741</v>
       </c>
       <c r="E153" t="n">
-        <v>1731</v>
+        <v>1740</v>
       </c>
       <c r="F153" t="n">
-        <v>196.8085</v>
+        <v>21.4</v>
       </c>
       <c r="G153" t="n">
-        <v>4502.86277129</v>
+        <v>5127.589212319999</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5828,7 +6262,9 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1709</v>
+      </c>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5837,28 +6273,29 @@
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>1732</v>
+        <v>1734</v>
       </c>
       <c r="C154" t="n">
-        <v>1731</v>
+        <v>1720</v>
       </c>
       <c r="D154" t="n">
-        <v>1732</v>
+        <v>1734</v>
       </c>
       <c r="E154" t="n">
-        <v>1731</v>
+        <v>1720</v>
       </c>
       <c r="F154" t="n">
-        <v>121.6593</v>
+        <v>1052.0531</v>
       </c>
       <c r="G154" t="n">
-        <v>4381.203471289999</v>
+        <v>4075.536112319999</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5867,7 +6304,9 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1709</v>
+      </c>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5876,28 +6315,29 @@
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>1739</v>
+        <v>1747</v>
       </c>
       <c r="C155" t="n">
-        <v>1721</v>
+        <v>1747</v>
       </c>
       <c r="D155" t="n">
-        <v>1739</v>
+        <v>1747</v>
       </c>
       <c r="E155" t="n">
-        <v>1721</v>
+        <v>1747</v>
       </c>
       <c r="F155" t="n">
-        <v>16.8822</v>
+        <v>0.5</v>
       </c>
       <c r="G155" t="n">
-        <v>4364.321271289999</v>
+        <v>4076.036112319999</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5906,7 +6346,9 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1709</v>
+      </c>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5915,28 +6357,29 @@
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>1738</v>
+        <v>1721</v>
       </c>
       <c r="C156" t="n">
-        <v>1738</v>
+        <v>1721</v>
       </c>
       <c r="D156" t="n">
-        <v>1738</v>
+        <v>1721</v>
       </c>
       <c r="E156" t="n">
-        <v>1738</v>
+        <v>1721</v>
       </c>
       <c r="F156" t="n">
-        <v>0.5</v>
+        <v>18</v>
       </c>
       <c r="G156" t="n">
-        <v>4364.821271289999</v>
+        <v>4058.036112319999</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5945,7 +6388,9 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1709</v>
+      </c>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5954,28 +6399,29 @@
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>1738</v>
+        <v>1726</v>
       </c>
       <c r="C157" t="n">
-        <v>1738</v>
+        <v>1726</v>
       </c>
       <c r="D157" t="n">
-        <v>1738</v>
+        <v>1726</v>
       </c>
       <c r="E157" t="n">
-        <v>1738</v>
+        <v>1726</v>
       </c>
       <c r="F157" t="n">
-        <v>31.57192174</v>
+        <v>87.1069</v>
       </c>
       <c r="G157" t="n">
-        <v>4364.821271289999</v>
+        <v>4145.143012319999</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5984,7 +6430,9 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1709</v>
+      </c>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5993,28 +6441,29 @@
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>1734</v>
+        <v>1726</v>
       </c>
       <c r="C158" t="n">
-        <v>1735</v>
+        <v>1727</v>
       </c>
       <c r="D158" t="n">
-        <v>1736</v>
+        <v>1727</v>
       </c>
       <c r="E158" t="n">
-        <v>1734</v>
+        <v>1726</v>
       </c>
       <c r="F158" t="n">
-        <v>1366.3323</v>
+        <v>49.8065</v>
       </c>
       <c r="G158" t="n">
-        <v>2998.488971289999</v>
+        <v>4194.949512319999</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6023,7 +6472,9 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1709</v>
+      </c>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6032,28 +6483,29 @@
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>1735</v>
+        <v>1727</v>
       </c>
       <c r="C159" t="n">
-        <v>1735</v>
+        <v>1727</v>
       </c>
       <c r="D159" t="n">
-        <v>1736</v>
+        <v>1727</v>
       </c>
       <c r="E159" t="n">
-        <v>1735</v>
+        <v>1727</v>
       </c>
       <c r="F159" t="n">
-        <v>479.4109</v>
+        <v>65.80159999999999</v>
       </c>
       <c r="G159" t="n">
-        <v>2998.488971289999</v>
+        <v>4194.949512319999</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6062,7 +6514,9 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1709</v>
+      </c>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6071,28 +6525,29 @@
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>1723</v>
+        <v>1720</v>
       </c>
       <c r="C160" t="n">
-        <v>1722</v>
+        <v>1727</v>
       </c>
       <c r="D160" t="n">
-        <v>1723</v>
+        <v>1727</v>
       </c>
       <c r="E160" t="n">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="F160" t="n">
-        <v>326.17</v>
+        <v>78.73099999999999</v>
       </c>
       <c r="G160" t="n">
-        <v>2672.318971289999</v>
+        <v>4194.949512319999</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6101,7 +6556,9 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1709</v>
+      </c>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6110,28 +6567,29 @@
       <c r="M160" t="n">
         <v>1</v>
       </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>1738</v>
+        <v>1727</v>
       </c>
       <c r="C161" t="n">
-        <v>1738</v>
+        <v>1727</v>
       </c>
       <c r="D161" t="n">
-        <v>1738</v>
+        <v>1727</v>
       </c>
       <c r="E161" t="n">
-        <v>1738</v>
+        <v>1727</v>
       </c>
       <c r="F161" t="n">
-        <v>0.5</v>
+        <v>604.3737</v>
       </c>
       <c r="G161" t="n">
-        <v>2672.818971289999</v>
+        <v>4194.949512319999</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6140,7 +6598,9 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1709</v>
+      </c>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6149,28 +6609,29 @@
       <c r="M161" t="n">
         <v>1</v>
       </c>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>1735</v>
+        <v>1727</v>
       </c>
       <c r="C162" t="n">
-        <v>1741</v>
+        <v>1727</v>
       </c>
       <c r="D162" t="n">
-        <v>1741</v>
+        <v>1727</v>
       </c>
       <c r="E162" t="n">
-        <v>1724</v>
+        <v>1727</v>
       </c>
       <c r="F162" t="n">
-        <v>149.0995</v>
+        <v>649.172</v>
       </c>
       <c r="G162" t="n">
-        <v>2821.918471289999</v>
+        <v>4194.949512319999</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6179,7 +6640,9 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1709</v>
+      </c>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6188,28 +6651,29 @@
       <c r="M162" t="n">
         <v>1</v>
       </c>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>1724</v>
+        <v>1731</v>
       </c>
       <c r="C163" t="n">
-        <v>1724</v>
+        <v>1730</v>
       </c>
       <c r="D163" t="n">
-        <v>1724</v>
+        <v>1731</v>
       </c>
       <c r="E163" t="n">
-        <v>1724</v>
+        <v>1730</v>
       </c>
       <c r="F163" t="n">
-        <v>44.423</v>
+        <v>131.3007</v>
       </c>
       <c r="G163" t="n">
-        <v>2777.495471289999</v>
+        <v>4326.250212319998</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6218,7 +6682,9 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1709</v>
+      </c>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6227,28 +6693,29 @@
       <c r="M163" t="n">
         <v>1</v>
       </c>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>1726</v>
+        <v>1752</v>
       </c>
       <c r="C164" t="n">
-        <v>1725</v>
+        <v>1752</v>
       </c>
       <c r="D164" t="n">
-        <v>1726</v>
+        <v>1752</v>
       </c>
       <c r="E164" t="n">
-        <v>1725</v>
+        <v>1752</v>
       </c>
       <c r="F164" t="n">
-        <v>42.1169</v>
+        <v>0.5</v>
       </c>
       <c r="G164" t="n">
-        <v>2819.612371289999</v>
+        <v>4326.750212319998</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6257,7 +6724,9 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1709</v>
+      </c>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6266,28 +6735,29 @@
       <c r="M164" t="n">
         <v>1</v>
       </c>
+      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>1724</v>
+        <v>1751</v>
       </c>
       <c r="C165" t="n">
-        <v>1723</v>
+        <v>1751</v>
       </c>
       <c r="D165" t="n">
-        <v>1724</v>
+        <v>1751</v>
       </c>
       <c r="E165" t="n">
-        <v>1723</v>
+        <v>1751</v>
       </c>
       <c r="F165" t="n">
-        <v>1344.2888</v>
+        <v>50.6701</v>
       </c>
       <c r="G165" t="n">
-        <v>1475.323571289999</v>
+        <v>4276.080112319998</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6296,7 +6766,9 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1709</v>
+      </c>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6305,28 +6777,29 @@
       <c r="M165" t="n">
         <v>1</v>
       </c>
+      <c r="N165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>1723</v>
+        <v>1754</v>
       </c>
       <c r="C166" t="n">
-        <v>1723</v>
+        <v>1754</v>
       </c>
       <c r="D166" t="n">
-        <v>1724</v>
+        <v>1754</v>
       </c>
       <c r="E166" t="n">
-        <v>1723</v>
+        <v>1754</v>
       </c>
       <c r="F166" t="n">
-        <v>5493.8386</v>
+        <v>12.5</v>
       </c>
       <c r="G166" t="n">
-        <v>1475.323571289999</v>
+        <v>4288.580112319998</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6335,7 +6808,9 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1709</v>
+      </c>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6344,28 +6819,29 @@
       <c r="M166" t="n">
         <v>1</v>
       </c>
+      <c r="N166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>1723</v>
+        <v>1761</v>
       </c>
       <c r="C167" t="n">
-        <v>1720</v>
+        <v>1761</v>
       </c>
       <c r="D167" t="n">
-        <v>1723</v>
+        <v>1761</v>
       </c>
       <c r="E167" t="n">
-        <v>1720</v>
+        <v>1761</v>
       </c>
       <c r="F167" t="n">
-        <v>1696.7212</v>
+        <v>0.5</v>
       </c>
       <c r="G167" t="n">
-        <v>-221.3976287100011</v>
+        <v>4289.080112319998</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6374,7 +6850,9 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1709</v>
+      </c>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6383,28 +6861,29 @@
       <c r="M167" t="n">
         <v>1</v>
       </c>
+      <c r="N167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>1721</v>
+        <v>1761</v>
       </c>
       <c r="C168" t="n">
-        <v>1720</v>
+        <v>1761</v>
       </c>
       <c r="D168" t="n">
-        <v>1721</v>
+        <v>1761</v>
       </c>
       <c r="E168" t="n">
-        <v>1720</v>
+        <v>1761</v>
       </c>
       <c r="F168" t="n">
-        <v>349.79</v>
+        <v>33.3827</v>
       </c>
       <c r="G168" t="n">
-        <v>-221.3976287100011</v>
+        <v>4289.080112319998</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6413,7 +6892,9 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1709</v>
+      </c>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6422,28 +6903,29 @@
       <c r="M168" t="n">
         <v>1</v>
       </c>
+      <c r="N168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>1720</v>
+        <v>1772</v>
       </c>
       <c r="C169" t="n">
-        <v>1720</v>
+        <v>1772</v>
       </c>
       <c r="D169" t="n">
-        <v>1720</v>
+        <v>1772</v>
       </c>
       <c r="E169" t="n">
-        <v>1720</v>
+        <v>1772</v>
       </c>
       <c r="F169" t="n">
-        <v>23.23</v>
+        <v>0.5</v>
       </c>
       <c r="G169" t="n">
-        <v>-221.3976287100011</v>
+        <v>4289.580112319998</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6452,7 +6934,9 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1709</v>
+      </c>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6461,28 +6945,29 @@
       <c r="M169" t="n">
         <v>1</v>
       </c>
+      <c r="N169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>1724</v>
+        <v>1756</v>
       </c>
       <c r="C170" t="n">
-        <v>1800</v>
+        <v>1756</v>
       </c>
       <c r="D170" t="n">
-        <v>1800</v>
+        <v>1756</v>
       </c>
       <c r="E170" t="n">
-        <v>1724</v>
+        <v>1756</v>
       </c>
       <c r="F170" t="n">
-        <v>5309.44775622</v>
+        <v>1.818</v>
       </c>
       <c r="G170" t="n">
-        <v>5088.050127509999</v>
+        <v>4287.762112319998</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6491,7 +6976,9 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1709</v>
+      </c>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6500,28 +6987,29 @@
       <c r="M170" t="n">
         <v>1</v>
       </c>
+      <c r="N170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>1727</v>
+        <v>1766</v>
       </c>
       <c r="C171" t="n">
-        <v>1726</v>
+        <v>1769</v>
       </c>
       <c r="D171" t="n">
-        <v>1727</v>
+        <v>1770</v>
       </c>
       <c r="E171" t="n">
-        <v>1726</v>
+        <v>1766</v>
       </c>
       <c r="F171" t="n">
-        <v>82.56</v>
+        <v>509.3367</v>
       </c>
       <c r="G171" t="n">
-        <v>5005.490127509998</v>
+        <v>4797.098812319998</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6530,7 +7018,9 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1709</v>
+      </c>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6539,1644 +7029,7 @@
       <c r="M171" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>1780</v>
-      </c>
-      <c r="C172" t="n">
-        <v>1780</v>
-      </c>
-      <c r="D172" t="n">
-        <v>1780</v>
-      </c>
-      <c r="E172" t="n">
-        <v>1780</v>
-      </c>
-      <c r="F172" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="G172" t="n">
-        <v>5005.790127509998</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>1732</v>
-      </c>
-      <c r="C173" t="n">
-        <v>1732</v>
-      </c>
-      <c r="D173" t="n">
-        <v>1733</v>
-      </c>
-      <c r="E173" t="n">
-        <v>1730</v>
-      </c>
-      <c r="F173" t="n">
-        <v>35.7392</v>
-      </c>
-      <c r="G173" t="n">
-        <v>4970.050927509998</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>1724</v>
-      </c>
-      <c r="C174" t="n">
-        <v>1730</v>
-      </c>
-      <c r="D174" t="n">
-        <v>1775</v>
-      </c>
-      <c r="E174" t="n">
-        <v>1724</v>
-      </c>
-      <c r="F174" t="n">
-        <v>1449.1124</v>
-      </c>
-      <c r="G174" t="n">
-        <v>3520.938527509998</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>1768</v>
-      </c>
-      <c r="C175" t="n">
-        <v>1768</v>
-      </c>
-      <c r="D175" t="n">
-        <v>1768</v>
-      </c>
-      <c r="E175" t="n">
-        <v>1768</v>
-      </c>
-      <c r="F175" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G175" t="n">
-        <v>3521.438527509998</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>1723</v>
-      </c>
-      <c r="C176" t="n">
-        <v>1721</v>
-      </c>
-      <c r="D176" t="n">
-        <v>1723</v>
-      </c>
-      <c r="E176" t="n">
-        <v>1721</v>
-      </c>
-      <c r="F176" t="n">
-        <v>117.7821</v>
-      </c>
-      <c r="G176" t="n">
-        <v>3403.656427509999</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>1746</v>
-      </c>
-      <c r="C177" t="n">
-        <v>1771</v>
-      </c>
-      <c r="D177" t="n">
-        <v>1771</v>
-      </c>
-      <c r="E177" t="n">
-        <v>1746</v>
-      </c>
-      <c r="F177" t="n">
-        <v>56.56148481</v>
-      </c>
-      <c r="G177" t="n">
-        <v>3460.217912319999</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>1734</v>
-      </c>
-      <c r="C178" t="n">
-        <v>1735</v>
-      </c>
-      <c r="D178" t="n">
-        <v>1735</v>
-      </c>
-      <c r="E178" t="n">
-        <v>1734</v>
-      </c>
-      <c r="F178" t="n">
-        <v>17.5323</v>
-      </c>
-      <c r="G178" t="n">
-        <v>3442.685612319999</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>1726</v>
-      </c>
-      <c r="C179" t="n">
-        <v>1725</v>
-      </c>
-      <c r="D179" t="n">
-        <v>1726</v>
-      </c>
-      <c r="E179" t="n">
-        <v>1725</v>
-      </c>
-      <c r="F179" t="n">
-        <v>110.6914</v>
-      </c>
-      <c r="G179" t="n">
-        <v>3331.994212319998</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>1738</v>
-      </c>
-      <c r="C180" t="n">
-        <v>1725</v>
-      </c>
-      <c r="D180" t="n">
-        <v>1739</v>
-      </c>
-      <c r="E180" t="n">
-        <v>1725</v>
-      </c>
-      <c r="F180" t="n">
-        <v>625.9045</v>
-      </c>
-      <c r="G180" t="n">
-        <v>3331.994212319998</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>1740</v>
-      </c>
-      <c r="C181" t="n">
-        <v>1740</v>
-      </c>
-      <c r="D181" t="n">
-        <v>1740</v>
-      </c>
-      <c r="E181" t="n">
-        <v>1740</v>
-      </c>
-      <c r="F181" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G181" t="n">
-        <v>3332.494212319998</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>1734</v>
-      </c>
-      <c r="C182" t="n">
-        <v>1734</v>
-      </c>
-      <c r="D182" t="n">
-        <v>1734</v>
-      </c>
-      <c r="E182" t="n">
-        <v>1734</v>
-      </c>
-      <c r="F182" t="n">
-        <v>82.179</v>
-      </c>
-      <c r="G182" t="n">
-        <v>3250.315212319998</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>1750</v>
-      </c>
-      <c r="C183" t="n">
-        <v>1750</v>
-      </c>
-      <c r="D183" t="n">
-        <v>1750</v>
-      </c>
-      <c r="E183" t="n">
-        <v>1750</v>
-      </c>
-      <c r="F183" t="n">
-        <v>0.2883</v>
-      </c>
-      <c r="G183" t="n">
-        <v>3250.603512319999</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>1746</v>
-      </c>
-      <c r="C184" t="n">
-        <v>1771</v>
-      </c>
-      <c r="D184" t="n">
-        <v>1771</v>
-      </c>
-      <c r="E184" t="n">
-        <v>1746</v>
-      </c>
-      <c r="F184" t="n">
-        <v>309.4296</v>
-      </c>
-      <c r="G184" t="n">
-        <v>3560.033112319999</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>1735</v>
-      </c>
-      <c r="C185" t="n">
-        <v>1707</v>
-      </c>
-      <c r="D185" t="n">
-        <v>1735</v>
-      </c>
-      <c r="E185" t="n">
-        <v>1707</v>
-      </c>
-      <c r="F185" t="n">
-        <v>3822.6844</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-262.6512876800016</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>1739</v>
-      </c>
-      <c r="C186" t="n">
-        <v>1740</v>
-      </c>
-      <c r="D186" t="n">
-        <v>1742</v>
-      </c>
-      <c r="E186" t="n">
-        <v>1739</v>
-      </c>
-      <c r="F186" t="n">
-        <v>3120.7014</v>
-      </c>
-      <c r="G186" t="n">
-        <v>2858.050112319998</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>1738</v>
-      </c>
-      <c r="C187" t="n">
-        <v>1739</v>
-      </c>
-      <c r="D187" t="n">
-        <v>1739</v>
-      </c>
-      <c r="E187" t="n">
-        <v>1738</v>
-      </c>
-      <c r="F187" t="n">
-        <v>79.3229</v>
-      </c>
-      <c r="G187" t="n">
-        <v>2778.727212319998</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>1752</v>
-      </c>
-      <c r="C188" t="n">
-        <v>1754</v>
-      </c>
-      <c r="D188" t="n">
-        <v>1754</v>
-      </c>
-      <c r="E188" t="n">
-        <v>1752</v>
-      </c>
-      <c r="F188" t="n">
-        <v>873.0547</v>
-      </c>
-      <c r="G188" t="n">
-        <v>3651.781912319998</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>1740</v>
-      </c>
-      <c r="C189" t="n">
-        <v>1719</v>
-      </c>
-      <c r="D189" t="n">
-        <v>1742</v>
-      </c>
-      <c r="E189" t="n">
-        <v>1719</v>
-      </c>
-      <c r="F189" t="n">
-        <v>262.085</v>
-      </c>
-      <c r="G189" t="n">
-        <v>3389.696912319998</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>1751</v>
-      </c>
-      <c r="C190" t="n">
-        <v>1751</v>
-      </c>
-      <c r="D190" t="n">
-        <v>1751</v>
-      </c>
-      <c r="E190" t="n">
-        <v>1751</v>
-      </c>
-      <c r="F190" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G190" t="n">
-        <v>3390.196912319998</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>1724</v>
-      </c>
-      <c r="C191" t="n">
-        <v>1756</v>
-      </c>
-      <c r="D191" t="n">
-        <v>1756</v>
-      </c>
-      <c r="E191" t="n">
-        <v>1722</v>
-      </c>
-      <c r="F191" t="n">
-        <v>1082.8493</v>
-      </c>
-      <c r="G191" t="n">
-        <v>4473.046212319999</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>1755</v>
-      </c>
-      <c r="C192" t="n">
-        <v>1756</v>
-      </c>
-      <c r="D192" t="n">
-        <v>1756</v>
-      </c>
-      <c r="E192" t="n">
-        <v>1755</v>
-      </c>
-      <c r="F192" t="n">
-        <v>282.6302</v>
-      </c>
-      <c r="G192" t="n">
-        <v>4473.046212319999</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>1756</v>
-      </c>
-      <c r="C193" t="n">
-        <v>1772</v>
-      </c>
-      <c r="D193" t="n">
-        <v>1772</v>
-      </c>
-      <c r="E193" t="n">
-        <v>1726</v>
-      </c>
-      <c r="F193" t="n">
-        <v>809.35</v>
-      </c>
-      <c r="G193" t="n">
-        <v>5282.396212319999</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>1743</v>
-      </c>
-      <c r="C194" t="n">
-        <v>1743</v>
-      </c>
-      <c r="D194" t="n">
-        <v>1744</v>
-      </c>
-      <c r="E194" t="n">
-        <v>1743</v>
-      </c>
-      <c r="F194" t="n">
-        <v>133.407</v>
-      </c>
-      <c r="G194" t="n">
-        <v>5148.989212319999</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>1741</v>
-      </c>
-      <c r="C195" t="n">
-        <v>1740</v>
-      </c>
-      <c r="D195" t="n">
-        <v>1741</v>
-      </c>
-      <c r="E195" t="n">
-        <v>1740</v>
-      </c>
-      <c r="F195" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="G195" t="n">
-        <v>5127.589212319999</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>1734</v>
-      </c>
-      <c r="C196" t="n">
-        <v>1720</v>
-      </c>
-      <c r="D196" t="n">
-        <v>1734</v>
-      </c>
-      <c r="E196" t="n">
-        <v>1720</v>
-      </c>
-      <c r="F196" t="n">
-        <v>1052.0531</v>
-      </c>
-      <c r="G196" t="n">
-        <v>4075.536112319999</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>1747</v>
-      </c>
-      <c r="C197" t="n">
-        <v>1747</v>
-      </c>
-      <c r="D197" t="n">
-        <v>1747</v>
-      </c>
-      <c r="E197" t="n">
-        <v>1747</v>
-      </c>
-      <c r="F197" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G197" t="n">
-        <v>4076.036112319999</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>1721</v>
-      </c>
-      <c r="C198" t="n">
-        <v>1721</v>
-      </c>
-      <c r="D198" t="n">
-        <v>1721</v>
-      </c>
-      <c r="E198" t="n">
-        <v>1721</v>
-      </c>
-      <c r="F198" t="n">
-        <v>18</v>
-      </c>
-      <c r="G198" t="n">
-        <v>4058.036112319999</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>1726</v>
-      </c>
-      <c r="C199" t="n">
-        <v>1726</v>
-      </c>
-      <c r="D199" t="n">
-        <v>1726</v>
-      </c>
-      <c r="E199" t="n">
-        <v>1726</v>
-      </c>
-      <c r="F199" t="n">
-        <v>87.1069</v>
-      </c>
-      <c r="G199" t="n">
-        <v>4145.143012319999</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>1726</v>
-      </c>
-      <c r="C200" t="n">
-        <v>1727</v>
-      </c>
-      <c r="D200" t="n">
-        <v>1727</v>
-      </c>
-      <c r="E200" t="n">
-        <v>1726</v>
-      </c>
-      <c r="F200" t="n">
-        <v>49.8065</v>
-      </c>
-      <c r="G200" t="n">
-        <v>4194.949512319999</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>1727</v>
-      </c>
-      <c r="C201" t="n">
-        <v>1727</v>
-      </c>
-      <c r="D201" t="n">
-        <v>1727</v>
-      </c>
-      <c r="E201" t="n">
-        <v>1727</v>
-      </c>
-      <c r="F201" t="n">
-        <v>65.80159999999999</v>
-      </c>
-      <c r="G201" t="n">
-        <v>4194.949512319999</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>1720</v>
-      </c>
-      <c r="C202" t="n">
-        <v>1727</v>
-      </c>
-      <c r="D202" t="n">
-        <v>1727</v>
-      </c>
-      <c r="E202" t="n">
-        <v>1720</v>
-      </c>
-      <c r="F202" t="n">
-        <v>78.73099999999999</v>
-      </c>
-      <c r="G202" t="n">
-        <v>4194.949512319999</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>1727</v>
-      </c>
-      <c r="C203" t="n">
-        <v>1727</v>
-      </c>
-      <c r="D203" t="n">
-        <v>1727</v>
-      </c>
-      <c r="E203" t="n">
-        <v>1727</v>
-      </c>
-      <c r="F203" t="n">
-        <v>604.3737</v>
-      </c>
-      <c r="G203" t="n">
-        <v>4194.949512319999</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>1727</v>
-      </c>
-      <c r="C204" t="n">
-        <v>1727</v>
-      </c>
-      <c r="D204" t="n">
-        <v>1727</v>
-      </c>
-      <c r="E204" t="n">
-        <v>1727</v>
-      </c>
-      <c r="F204" t="n">
-        <v>649.172</v>
-      </c>
-      <c r="G204" t="n">
-        <v>4194.949512319999</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>1731</v>
-      </c>
-      <c r="C205" t="n">
-        <v>1730</v>
-      </c>
-      <c r="D205" t="n">
-        <v>1731</v>
-      </c>
-      <c r="E205" t="n">
-        <v>1730</v>
-      </c>
-      <c r="F205" t="n">
-        <v>131.3007</v>
-      </c>
-      <c r="G205" t="n">
-        <v>4326.250212319998</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>1752</v>
-      </c>
-      <c r="C206" t="n">
-        <v>1752</v>
-      </c>
-      <c r="D206" t="n">
-        <v>1752</v>
-      </c>
-      <c r="E206" t="n">
-        <v>1752</v>
-      </c>
-      <c r="F206" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G206" t="n">
-        <v>4326.750212319998</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>1751</v>
-      </c>
-      <c r="C207" t="n">
-        <v>1751</v>
-      </c>
-      <c r="D207" t="n">
-        <v>1751</v>
-      </c>
-      <c r="E207" t="n">
-        <v>1751</v>
-      </c>
-      <c r="F207" t="n">
-        <v>50.6701</v>
-      </c>
-      <c r="G207" t="n">
-        <v>4276.080112319998</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>1754</v>
-      </c>
-      <c r="C208" t="n">
-        <v>1754</v>
-      </c>
-      <c r="D208" t="n">
-        <v>1754</v>
-      </c>
-      <c r="E208" t="n">
-        <v>1754</v>
-      </c>
-      <c r="F208" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="G208" t="n">
-        <v>4288.580112319998</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>1761</v>
-      </c>
-      <c r="C209" t="n">
-        <v>1761</v>
-      </c>
-      <c r="D209" t="n">
-        <v>1761</v>
-      </c>
-      <c r="E209" t="n">
-        <v>1761</v>
-      </c>
-      <c r="F209" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G209" t="n">
-        <v>4289.080112319998</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>1761</v>
-      </c>
-      <c r="C210" t="n">
-        <v>1761</v>
-      </c>
-      <c r="D210" t="n">
-        <v>1761</v>
-      </c>
-      <c r="E210" t="n">
-        <v>1761</v>
-      </c>
-      <c r="F210" t="n">
-        <v>33.3827</v>
-      </c>
-      <c r="G210" t="n">
-        <v>4289.080112319998</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>1772</v>
-      </c>
-      <c r="C211" t="n">
-        <v>1772</v>
-      </c>
-      <c r="D211" t="n">
-        <v>1772</v>
-      </c>
-      <c r="E211" t="n">
-        <v>1772</v>
-      </c>
-      <c r="F211" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G211" t="n">
-        <v>4289.580112319998</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>1756</v>
-      </c>
-      <c r="C212" t="n">
-        <v>1756</v>
-      </c>
-      <c r="D212" t="n">
-        <v>1756</v>
-      </c>
-      <c r="E212" t="n">
-        <v>1756</v>
-      </c>
-      <c r="F212" t="n">
-        <v>1.818</v>
-      </c>
-      <c r="G212" t="n">
-        <v>4287.762112319998</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>1766</v>
-      </c>
-      <c r="C213" t="n">
-        <v>1769</v>
-      </c>
-      <c r="D213" t="n">
-        <v>1770</v>
-      </c>
-      <c r="E213" t="n">
-        <v>1766</v>
-      </c>
-      <c r="F213" t="n">
-        <v>509.3367</v>
-      </c>
-      <c r="G213" t="n">
-        <v>4797.098812319998</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
+      <c r="N171" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-19 BackTest HC.xlsx
+++ b/BackTest/2020-01-19 BackTest HC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N242"/>
+  <dimension ref="A1:M242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +913,15 @@
         <v>10875.35380198</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +946,15 @@
         <v>10894.07340198</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1012,15 @@
         <v>9707.137101980001</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>9432.598401980002</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1177,15 @@
         <v>9143.603501980002</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1210,15 @@
         <v>9143.903601980002</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1243,15 @@
         <v>9144.183501980002</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1276,15 @@
         <v>9144.468501980002</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1507,15 @@
         <v>7695.027401980003</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,18 +1540,15 @@
         <v>8174.306301980003</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1680,18 +1573,15 @@
         <v>8213.758101980004</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1716,18 +1606,15 @@
         <v>7960.673701980004</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1752,18 +1639,15 @@
         <v>7931.273701980004</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1788,18 +1672,15 @@
         <v>7977.771901980004</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1860,18 +1738,15 @@
         <v>7978.073801980005</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3804,18 +3520,15 @@
         <v>8733.236721940002</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3840,18 +3553,15 @@
         <v>8733.736721940002</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3876,18 +3586,15 @@
         <v>8632.379621940003</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3912,18 +3619,15 @@
         <v>8632.379621940003</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3948,18 +3652,15 @@
         <v>8898.239021940002</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3984,18 +3685,15 @@
         <v>8873.939021940003</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4020,18 +3718,15 @@
         <v>8672.548021940003</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4056,18 +3751,15 @@
         <v>8673.048021940003</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4092,18 +3784,15 @@
         <v>8511.352921940002</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4128,18 +3817,15 @@
         <v>8523.670921940002</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4164,18 +3850,15 @@
         <v>8524.170921940002</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4236,18 +3916,15 @@
         <v>8391.947321940001</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4272,18 +3949,15 @@
         <v>7006.145221940001</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4308,18 +3982,15 @@
         <v>10455.30442194</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4344,18 +4015,15 @@
         <v>10455.30442194</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4380,18 +4048,15 @@
         <v>10455.30442194</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4416,18 +4081,15 @@
         <v>10413.90442194</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4974,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5073,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5106,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5139,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5172,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5205,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5238,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5271,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5304,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5337,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5370,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5403,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5436,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5469,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5966,16 +5502,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5535,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6038,16 +5568,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,16 +5601,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6110,16 +5634,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6146,16 +5667,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6182,16 +5700,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6218,16 +5733,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6254,16 +5766,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6290,16 +5799,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6326,16 +5832,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6362,16 +5865,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6398,16 +5898,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6434,16 +5931,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6470,16 +5964,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6504,22 +5995,15 @@
         <v>2309.62347129</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K170" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6544,26 +6028,15 @@
         <v>2309.62347129</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K171" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6588,2982 +6061,2459 @@
         <v>2284.204571289999</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>1707</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1706</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1707</v>
+      </c>
+      <c r="E173" t="n">
+        <v>1706</v>
+      </c>
+      <c r="F173" t="n">
+        <v>116.7282</v>
+      </c>
+      <c r="G173" t="n">
+        <v>2400.932771289999</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1706</v>
+      </c>
+      <c r="C174" t="n">
+        <v>1690</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1706</v>
+      </c>
+      <c r="E174" t="n">
+        <v>1690</v>
+      </c>
+      <c r="F174" t="n">
+        <v>260.7987</v>
+      </c>
+      <c r="G174" t="n">
+        <v>2140.13407129</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1688</v>
+      </c>
+      <c r="C175" t="n">
+        <v>1688</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1688</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1688</v>
+      </c>
+      <c r="F175" t="n">
+        <v>49.7884</v>
+      </c>
+      <c r="G175" t="n">
+        <v>2090.34567129</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>1688</v>
+      </c>
+      <c r="C176" t="n">
         <v>1709</v>
       </c>
-      <c r="K172" t="n">
+      <c r="D176" t="n">
         <v>1709</v>
       </c>
-      <c r="L172" t="inlineStr">
+      <c r="E176" t="n">
+        <v>1688</v>
+      </c>
+      <c r="F176" t="n">
+        <v>33</v>
+      </c>
+      <c r="G176" t="n">
+        <v>2123.34567129</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>1710</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1710</v>
+      </c>
+      <c r="D177" t="n">
+        <v>1710</v>
+      </c>
+      <c r="E177" t="n">
+        <v>1710</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0.6463</v>
+      </c>
+      <c r="G177" t="n">
+        <v>2123.99197129</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>1717</v>
+      </c>
+      <c r="C178" t="n">
+        <v>1731</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1731</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1717</v>
+      </c>
+      <c r="F178" t="n">
+        <v>1890.9326</v>
+      </c>
+      <c r="G178" t="n">
+        <v>4014.92457129</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>1744</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1744</v>
+      </c>
+      <c r="D179" t="n">
+        <v>1744</v>
+      </c>
+      <c r="E179" t="n">
+        <v>1744</v>
+      </c>
+      <c r="F179" t="n">
+        <v>753.6427</v>
+      </c>
+      <c r="G179" t="n">
+        <v>4768.56727129</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>1725</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1724</v>
+      </c>
+      <c r="D180" t="n">
+        <v>1725</v>
+      </c>
+      <c r="E180" t="n">
+        <v>1724</v>
+      </c>
+      <c r="F180" t="n">
+        <v>84.396</v>
+      </c>
+      <c r="G180" t="n">
+        <v>4684.17127129</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>1723</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1742</v>
+      </c>
+      <c r="D181" t="n">
+        <v>1742</v>
+      </c>
+      <c r="E181" t="n">
+        <v>1723</v>
+      </c>
+      <c r="F181" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="G181" t="n">
+        <v>4699.67127129</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>1731</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1732</v>
+      </c>
+      <c r="D182" t="n">
+        <v>1732</v>
+      </c>
+      <c r="E182" t="n">
+        <v>1731</v>
+      </c>
+      <c r="F182" t="n">
+        <v>196.8085</v>
+      </c>
+      <c r="G182" t="n">
+        <v>4502.86277129</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>1732</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1731</v>
+      </c>
+      <c r="D183" t="n">
+        <v>1732</v>
+      </c>
+      <c r="E183" t="n">
+        <v>1731</v>
+      </c>
+      <c r="F183" t="n">
+        <v>121.6593</v>
+      </c>
+      <c r="G183" t="n">
+        <v>4381.203471289999</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>1739</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1721</v>
+      </c>
+      <c r="D184" t="n">
+        <v>1739</v>
+      </c>
+      <c r="E184" t="n">
+        <v>1721</v>
+      </c>
+      <c r="F184" t="n">
+        <v>16.8822</v>
+      </c>
+      <c r="G184" t="n">
+        <v>4364.321271289999</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>1738</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1738</v>
+      </c>
+      <c r="D185" t="n">
+        <v>1738</v>
+      </c>
+      <c r="E185" t="n">
+        <v>1738</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G185" t="n">
+        <v>4364.821271289999</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>1738</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1738</v>
+      </c>
+      <c r="D186" t="n">
+        <v>1738</v>
+      </c>
+      <c r="E186" t="n">
+        <v>1738</v>
+      </c>
+      <c r="F186" t="n">
+        <v>31.57192174</v>
+      </c>
+      <c r="G186" t="n">
+        <v>4364.821271289999</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>1734</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1735</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1736</v>
+      </c>
+      <c r="E187" t="n">
+        <v>1734</v>
+      </c>
+      <c r="F187" t="n">
+        <v>1366.3323</v>
+      </c>
+      <c r="G187" t="n">
+        <v>2998.488971289999</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>1735</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1735</v>
+      </c>
+      <c r="D188" t="n">
+        <v>1736</v>
+      </c>
+      <c r="E188" t="n">
+        <v>1735</v>
+      </c>
+      <c r="F188" t="n">
+        <v>479.4109</v>
+      </c>
+      <c r="G188" t="n">
+        <v>2998.488971289999</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>1723</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1722</v>
+      </c>
+      <c r="D189" t="n">
+        <v>1723</v>
+      </c>
+      <c r="E189" t="n">
+        <v>1722</v>
+      </c>
+      <c r="F189" t="n">
+        <v>326.17</v>
+      </c>
+      <c r="G189" t="n">
+        <v>2672.318971289999</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>1738</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1738</v>
+      </c>
+      <c r="D190" t="n">
+        <v>1738</v>
+      </c>
+      <c r="E190" t="n">
+        <v>1738</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G190" t="n">
+        <v>2672.818971289999</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>1735</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1741</v>
+      </c>
+      <c r="D191" t="n">
+        <v>1741</v>
+      </c>
+      <c r="E191" t="n">
+        <v>1724</v>
+      </c>
+      <c r="F191" t="n">
+        <v>149.0995</v>
+      </c>
+      <c r="G191" t="n">
+        <v>2821.918471289999</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>1724</v>
+      </c>
+      <c r="C192" t="n">
+        <v>1724</v>
+      </c>
+      <c r="D192" t="n">
+        <v>1724</v>
+      </c>
+      <c r="E192" t="n">
+        <v>1724</v>
+      </c>
+      <c r="F192" t="n">
+        <v>44.423</v>
+      </c>
+      <c r="G192" t="n">
+        <v>2777.495471289999</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>1726</v>
+      </c>
+      <c r="C193" t="n">
+        <v>1725</v>
+      </c>
+      <c r="D193" t="n">
+        <v>1726</v>
+      </c>
+      <c r="E193" t="n">
+        <v>1725</v>
+      </c>
+      <c r="F193" t="n">
+        <v>42.1169</v>
+      </c>
+      <c r="G193" t="n">
+        <v>2819.612371289999</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>1724</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1723</v>
+      </c>
+      <c r="D194" t="n">
+        <v>1724</v>
+      </c>
+      <c r="E194" t="n">
+        <v>1723</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1344.2888</v>
+      </c>
+      <c r="G194" t="n">
+        <v>1475.323571289999</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>1723</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1723</v>
+      </c>
+      <c r="D195" t="n">
+        <v>1724</v>
+      </c>
+      <c r="E195" t="n">
+        <v>1723</v>
+      </c>
+      <c r="F195" t="n">
+        <v>5493.8386</v>
+      </c>
+      <c r="G195" t="n">
+        <v>1475.323571289999</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>1723</v>
+      </c>
+      <c r="C196" t="n">
+        <v>1720</v>
+      </c>
+      <c r="D196" t="n">
+        <v>1723</v>
+      </c>
+      <c r="E196" t="n">
+        <v>1720</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1696.7212</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-221.3976287100011</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>1721</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1720</v>
+      </c>
+      <c r="D197" t="n">
+        <v>1721</v>
+      </c>
+      <c r="E197" t="n">
+        <v>1720</v>
+      </c>
+      <c r="F197" t="n">
+        <v>349.79</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-221.3976287100011</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>1720</v>
+      </c>
+      <c r="C198" t="n">
+        <v>1720</v>
+      </c>
+      <c r="D198" t="n">
+        <v>1720</v>
+      </c>
+      <c r="E198" t="n">
+        <v>1720</v>
+      </c>
+      <c r="F198" t="n">
+        <v>23.23</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-221.3976287100011</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>1724</v>
+      </c>
+      <c r="C199" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D199" t="n">
+        <v>1800</v>
+      </c>
+      <c r="E199" t="n">
+        <v>1724</v>
+      </c>
+      <c r="F199" t="n">
+        <v>5309.44775622</v>
+      </c>
+      <c r="G199" t="n">
+        <v>5088.050127509999</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>1727</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1726</v>
+      </c>
+      <c r="D200" t="n">
+        <v>1727</v>
+      </c>
+      <c r="E200" t="n">
+        <v>1726</v>
+      </c>
+      <c r="F200" t="n">
+        <v>82.56</v>
+      </c>
+      <c r="G200" t="n">
+        <v>5005.490127509998</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>1780</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1780</v>
+      </c>
+      <c r="D201" t="n">
+        <v>1780</v>
+      </c>
+      <c r="E201" t="n">
+        <v>1780</v>
+      </c>
+      <c r="F201" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G201" t="n">
+        <v>5005.790127509998</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>1732</v>
+      </c>
+      <c r="C202" t="n">
+        <v>1732</v>
+      </c>
+      <c r="D202" t="n">
+        <v>1733</v>
+      </c>
+      <c r="E202" t="n">
+        <v>1730</v>
+      </c>
+      <c r="F202" t="n">
+        <v>35.7392</v>
+      </c>
+      <c r="G202" t="n">
+        <v>4970.050927509998</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>1724</v>
+      </c>
+      <c r="C203" t="n">
+        <v>1730</v>
+      </c>
+      <c r="D203" t="n">
+        <v>1775</v>
+      </c>
+      <c r="E203" t="n">
+        <v>1724</v>
+      </c>
+      <c r="F203" t="n">
+        <v>1449.1124</v>
+      </c>
+      <c r="G203" t="n">
+        <v>3520.938527509998</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>1768</v>
+      </c>
+      <c r="C204" t="n">
+        <v>1768</v>
+      </c>
+      <c r="D204" t="n">
+        <v>1768</v>
+      </c>
+      <c r="E204" t="n">
+        <v>1768</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G204" t="n">
+        <v>3521.438527509998</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>1723</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1721</v>
+      </c>
+      <c r="D205" t="n">
+        <v>1723</v>
+      </c>
+      <c r="E205" t="n">
+        <v>1721</v>
+      </c>
+      <c r="F205" t="n">
+        <v>117.7821</v>
+      </c>
+      <c r="G205" t="n">
+        <v>3403.656427509999</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>1746</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1771</v>
+      </c>
+      <c r="D206" t="n">
+        <v>1771</v>
+      </c>
+      <c r="E206" t="n">
+        <v>1746</v>
+      </c>
+      <c r="F206" t="n">
+        <v>56.56148481</v>
+      </c>
+      <c r="G206" t="n">
+        <v>3460.217912319999</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>1734</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1735</v>
+      </c>
+      <c r="D207" t="n">
+        <v>1735</v>
+      </c>
+      <c r="E207" t="n">
+        <v>1734</v>
+      </c>
+      <c r="F207" t="n">
+        <v>17.5323</v>
+      </c>
+      <c r="G207" t="n">
+        <v>3442.685612319999</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>1726</v>
+      </c>
+      <c r="C208" t="n">
+        <v>1725</v>
+      </c>
+      <c r="D208" t="n">
+        <v>1726</v>
+      </c>
+      <c r="E208" t="n">
+        <v>1725</v>
+      </c>
+      <c r="F208" t="n">
+        <v>110.6914</v>
+      </c>
+      <c r="G208" t="n">
+        <v>3331.994212319998</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>1738</v>
+      </c>
+      <c r="C209" t="n">
+        <v>1725</v>
+      </c>
+      <c r="D209" t="n">
+        <v>1739</v>
+      </c>
+      <c r="E209" t="n">
+        <v>1725</v>
+      </c>
+      <c r="F209" t="n">
+        <v>625.9045</v>
+      </c>
+      <c r="G209" t="n">
+        <v>3331.994212319998</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>1740</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1740</v>
+      </c>
+      <c r="D210" t="n">
+        <v>1740</v>
+      </c>
+      <c r="E210" t="n">
+        <v>1740</v>
+      </c>
+      <c r="F210" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G210" t="n">
+        <v>3332.494212319998</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>1734</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1734</v>
+      </c>
+      <c r="D211" t="n">
+        <v>1734</v>
+      </c>
+      <c r="E211" t="n">
+        <v>1734</v>
+      </c>
+      <c r="F211" t="n">
+        <v>82.179</v>
+      </c>
+      <c r="G211" t="n">
+        <v>3250.315212319998</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>1750</v>
+      </c>
+      <c r="C212" t="n">
+        <v>1750</v>
+      </c>
+      <c r="D212" t="n">
+        <v>1750</v>
+      </c>
+      <c r="E212" t="n">
+        <v>1750</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0.2883</v>
+      </c>
+      <c r="G212" t="n">
+        <v>3250.603512319999</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>1746</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1771</v>
+      </c>
+      <c r="D213" t="n">
+        <v>1771</v>
+      </c>
+      <c r="E213" t="n">
+        <v>1746</v>
+      </c>
+      <c r="F213" t="n">
+        <v>309.4296</v>
+      </c>
+      <c r="G213" t="n">
+        <v>3560.033112319999</v>
+      </c>
+      <c r="H213" t="n">
+        <v>2</v>
+      </c>
+      <c r="I213" t="n">
+        <v>1750</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>1735</v>
+      </c>
+      <c r="C214" t="n">
         <v>1707</v>
       </c>
-      <c r="C173" t="n">
-        <v>1706</v>
-      </c>
-      <c r="D173" t="n">
+      <c r="D214" t="n">
+        <v>1735</v>
+      </c>
+      <c r="E214" t="n">
         <v>1707</v>
       </c>
-      <c r="E173" t="n">
-        <v>1706</v>
-      </c>
-      <c r="F173" t="n">
-        <v>116.7282</v>
-      </c>
-      <c r="G173" t="n">
-        <v>2400.932771289999</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="n">
-        <v>1705</v>
-      </c>
-      <c r="K173" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L173" t="inlineStr">
+      <c r="F214" t="n">
+        <v>3822.6844</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-262.6512876800016</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>1706</v>
-      </c>
-      <c r="C174" t="n">
-        <v>1690</v>
-      </c>
-      <c r="D174" t="n">
-        <v>1706</v>
-      </c>
-      <c r="E174" t="n">
-        <v>1690</v>
-      </c>
-      <c r="F174" t="n">
-        <v>260.7987</v>
-      </c>
-      <c r="G174" t="n">
-        <v>2140.13407129</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="n">
-        <v>1706</v>
-      </c>
-      <c r="K174" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L174" t="inlineStr">
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>1739</v>
+      </c>
+      <c r="C215" t="n">
+        <v>1740</v>
+      </c>
+      <c r="D215" t="n">
+        <v>1742</v>
+      </c>
+      <c r="E215" t="n">
+        <v>1739</v>
+      </c>
+      <c r="F215" t="n">
+        <v>3120.7014</v>
+      </c>
+      <c r="G215" t="n">
+        <v>2858.050112319998</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>1688</v>
-      </c>
-      <c r="C175" t="n">
-        <v>1688</v>
-      </c>
-      <c r="D175" t="n">
-        <v>1688</v>
-      </c>
-      <c r="E175" t="n">
-        <v>1688</v>
-      </c>
-      <c r="F175" t="n">
-        <v>49.7884</v>
-      </c>
-      <c r="G175" t="n">
-        <v>2090.34567129</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="n">
-        <v>1690</v>
-      </c>
-      <c r="K175" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L175" t="inlineStr">
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>1738</v>
+      </c>
+      <c r="C216" t="n">
+        <v>1739</v>
+      </c>
+      <c r="D216" t="n">
+        <v>1739</v>
+      </c>
+      <c r="E216" t="n">
+        <v>1738</v>
+      </c>
+      <c r="F216" t="n">
+        <v>79.3229</v>
+      </c>
+      <c r="G216" t="n">
+        <v>2778.727212319998</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>1688</v>
-      </c>
-      <c r="C176" t="n">
-        <v>1709</v>
-      </c>
-      <c r="D176" t="n">
-        <v>1709</v>
-      </c>
-      <c r="E176" t="n">
-        <v>1688</v>
-      </c>
-      <c r="F176" t="n">
-        <v>33</v>
-      </c>
-      <c r="G176" t="n">
-        <v>2123.34567129</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="n">
-        <v>1688</v>
-      </c>
-      <c r="K176" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L176" t="inlineStr">
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>1752</v>
+      </c>
+      <c r="C217" t="n">
+        <v>1754</v>
+      </c>
+      <c r="D217" t="n">
+        <v>1754</v>
+      </c>
+      <c r="E217" t="n">
+        <v>1752</v>
+      </c>
+      <c r="F217" t="n">
+        <v>873.0547</v>
+      </c>
+      <c r="G217" t="n">
+        <v>3651.781912319998</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>1710</v>
-      </c>
-      <c r="C177" t="n">
-        <v>1710</v>
-      </c>
-      <c r="D177" t="n">
-        <v>1710</v>
-      </c>
-      <c r="E177" t="n">
-        <v>1710</v>
-      </c>
-      <c r="F177" t="n">
-        <v>0.6463</v>
-      </c>
-      <c r="G177" t="n">
-        <v>2123.99197129</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K177" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L177" t="inlineStr">
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>1740</v>
+      </c>
+      <c r="C218" t="n">
+        <v>1719</v>
+      </c>
+      <c r="D218" t="n">
+        <v>1742</v>
+      </c>
+      <c r="E218" t="n">
+        <v>1719</v>
+      </c>
+      <c r="F218" t="n">
+        <v>262.085</v>
+      </c>
+      <c r="G218" t="n">
+        <v>3389.696912319998</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>1717</v>
-      </c>
-      <c r="C178" t="n">
-        <v>1731</v>
-      </c>
-      <c r="D178" t="n">
-        <v>1731</v>
-      </c>
-      <c r="E178" t="n">
-        <v>1717</v>
-      </c>
-      <c r="F178" t="n">
-        <v>1890.9326</v>
-      </c>
-      <c r="G178" t="n">
-        <v>4014.92457129</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="n">
-        <v>1710</v>
-      </c>
-      <c r="K178" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L178" t="inlineStr">
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>1751</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1751</v>
+      </c>
+      <c r="D219" t="n">
+        <v>1751</v>
+      </c>
+      <c r="E219" t="n">
+        <v>1751</v>
+      </c>
+      <c r="F219" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G219" t="n">
+        <v>3390.196912319998</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>1744</v>
-      </c>
-      <c r="C179" t="n">
-        <v>1744</v>
-      </c>
-      <c r="D179" t="n">
-        <v>1744</v>
-      </c>
-      <c r="E179" t="n">
-        <v>1744</v>
-      </c>
-      <c r="F179" t="n">
-        <v>753.6427</v>
-      </c>
-      <c r="G179" t="n">
-        <v>4768.56727129</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="n">
-        <v>1731</v>
-      </c>
-      <c r="K179" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L179" t="inlineStr">
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>1724</v>
+      </c>
+      <c r="C220" t="n">
+        <v>1756</v>
+      </c>
+      <c r="D220" t="n">
+        <v>1756</v>
+      </c>
+      <c r="E220" t="n">
+        <v>1722</v>
+      </c>
+      <c r="F220" t="n">
+        <v>1082.8493</v>
+      </c>
+      <c r="G220" t="n">
+        <v>4473.046212319999</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>1725</v>
-      </c>
-      <c r="C180" t="n">
-        <v>1724</v>
-      </c>
-      <c r="D180" t="n">
-        <v>1725</v>
-      </c>
-      <c r="E180" t="n">
-        <v>1724</v>
-      </c>
-      <c r="F180" t="n">
-        <v>84.396</v>
-      </c>
-      <c r="G180" t="n">
-        <v>4684.17127129</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L180" t="inlineStr">
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>1755</v>
+      </c>
+      <c r="C221" t="n">
+        <v>1756</v>
+      </c>
+      <c r="D221" t="n">
+        <v>1756</v>
+      </c>
+      <c r="E221" t="n">
+        <v>1755</v>
+      </c>
+      <c r="F221" t="n">
+        <v>282.6302</v>
+      </c>
+      <c r="G221" t="n">
+        <v>4473.046212319999</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>1723</v>
-      </c>
-      <c r="C181" t="n">
-        <v>1742</v>
-      </c>
-      <c r="D181" t="n">
-        <v>1742</v>
-      </c>
-      <c r="E181" t="n">
-        <v>1723</v>
-      </c>
-      <c r="F181" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="G181" t="n">
-        <v>4699.67127129</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L181" t="inlineStr">
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>1756</v>
+      </c>
+      <c r="C222" t="n">
+        <v>1772</v>
+      </c>
+      <c r="D222" t="n">
+        <v>1772</v>
+      </c>
+      <c r="E222" t="n">
+        <v>1726</v>
+      </c>
+      <c r="F222" t="n">
+        <v>809.35</v>
+      </c>
+      <c r="G222" t="n">
+        <v>5282.396212319999</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>1731</v>
-      </c>
-      <c r="C182" t="n">
-        <v>1732</v>
-      </c>
-      <c r="D182" t="n">
-        <v>1732</v>
-      </c>
-      <c r="E182" t="n">
-        <v>1731</v>
-      </c>
-      <c r="F182" t="n">
-        <v>196.8085</v>
-      </c>
-      <c r="G182" t="n">
-        <v>4502.86277129</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L182" t="inlineStr">
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>1743</v>
+      </c>
+      <c r="C223" t="n">
+        <v>1743</v>
+      </c>
+      <c r="D223" t="n">
+        <v>1744</v>
+      </c>
+      <c r="E223" t="n">
+        <v>1743</v>
+      </c>
+      <c r="F223" t="n">
+        <v>133.407</v>
+      </c>
+      <c r="G223" t="n">
+        <v>5148.989212319999</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>1732</v>
-      </c>
-      <c r="C183" t="n">
-        <v>1731</v>
-      </c>
-      <c r="D183" t="n">
-        <v>1732</v>
-      </c>
-      <c r="E183" t="n">
-        <v>1731</v>
-      </c>
-      <c r="F183" t="n">
-        <v>121.6593</v>
-      </c>
-      <c r="G183" t="n">
-        <v>4381.203471289999</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L183" t="inlineStr">
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>1741</v>
+      </c>
+      <c r="C224" t="n">
+        <v>1740</v>
+      </c>
+      <c r="D224" t="n">
+        <v>1741</v>
+      </c>
+      <c r="E224" t="n">
+        <v>1740</v>
+      </c>
+      <c r="F224" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="G224" t="n">
+        <v>5127.589212319999</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>1739</v>
-      </c>
-      <c r="C184" t="n">
-        <v>1721</v>
-      </c>
-      <c r="D184" t="n">
-        <v>1739</v>
-      </c>
-      <c r="E184" t="n">
-        <v>1721</v>
-      </c>
-      <c r="F184" t="n">
-        <v>16.8822</v>
-      </c>
-      <c r="G184" t="n">
-        <v>4364.321271289999</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L184" t="inlineStr">
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>1734</v>
+      </c>
+      <c r="C225" t="n">
+        <v>1720</v>
+      </c>
+      <c r="D225" t="n">
+        <v>1734</v>
+      </c>
+      <c r="E225" t="n">
+        <v>1720</v>
+      </c>
+      <c r="F225" t="n">
+        <v>1052.0531</v>
+      </c>
+      <c r="G225" t="n">
+        <v>4075.536112319999</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>1738</v>
-      </c>
-      <c r="C185" t="n">
-        <v>1738</v>
-      </c>
-      <c r="D185" t="n">
-        <v>1738</v>
-      </c>
-      <c r="E185" t="n">
-        <v>1738</v>
-      </c>
-      <c r="F185" t="n">
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>1747</v>
+      </c>
+      <c r="C226" t="n">
+        <v>1747</v>
+      </c>
+      <c r="D226" t="n">
+        <v>1747</v>
+      </c>
+      <c r="E226" t="n">
+        <v>1747</v>
+      </c>
+      <c r="F226" t="n">
         <v>0.5</v>
       </c>
-      <c r="G185" t="n">
-        <v>4364.821271289999</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L185" t="inlineStr">
+      <c r="G226" t="n">
+        <v>4076.036112319999</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>1738</v>
-      </c>
-      <c r="C186" t="n">
-        <v>1738</v>
-      </c>
-      <c r="D186" t="n">
-        <v>1738</v>
-      </c>
-      <c r="E186" t="n">
-        <v>1738</v>
-      </c>
-      <c r="F186" t="n">
-        <v>31.57192174</v>
-      </c>
-      <c r="G186" t="n">
-        <v>4364.821271289999</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L186" t="inlineStr">
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>1721</v>
+      </c>
+      <c r="C227" t="n">
+        <v>1721</v>
+      </c>
+      <c r="D227" t="n">
+        <v>1721</v>
+      </c>
+      <c r="E227" t="n">
+        <v>1721</v>
+      </c>
+      <c r="F227" t="n">
+        <v>18</v>
+      </c>
+      <c r="G227" t="n">
+        <v>4058.036112319999</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>1734</v>
-      </c>
-      <c r="C187" t="n">
-        <v>1735</v>
-      </c>
-      <c r="D187" t="n">
-        <v>1736</v>
-      </c>
-      <c r="E187" t="n">
-        <v>1734</v>
-      </c>
-      <c r="F187" t="n">
-        <v>1366.3323</v>
-      </c>
-      <c r="G187" t="n">
-        <v>2998.488971289999</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L187" t="inlineStr">
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>1726</v>
+      </c>
+      <c r="C228" t="n">
+        <v>1726</v>
+      </c>
+      <c r="D228" t="n">
+        <v>1726</v>
+      </c>
+      <c r="E228" t="n">
+        <v>1726</v>
+      </c>
+      <c r="F228" t="n">
+        <v>87.1069</v>
+      </c>
+      <c r="G228" t="n">
+        <v>4145.143012319999</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>1735</v>
-      </c>
-      <c r="C188" t="n">
-        <v>1735</v>
-      </c>
-      <c r="D188" t="n">
-        <v>1736</v>
-      </c>
-      <c r="E188" t="n">
-        <v>1735</v>
-      </c>
-      <c r="F188" t="n">
-        <v>479.4109</v>
-      </c>
-      <c r="G188" t="n">
-        <v>2998.488971289999</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L188" t="inlineStr">
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>1726</v>
+      </c>
+      <c r="C229" t="n">
+        <v>1727</v>
+      </c>
+      <c r="D229" t="n">
+        <v>1727</v>
+      </c>
+      <c r="E229" t="n">
+        <v>1726</v>
+      </c>
+      <c r="F229" t="n">
+        <v>49.8065</v>
+      </c>
+      <c r="G229" t="n">
+        <v>4194.949512319999</v>
+      </c>
+      <c r="H229" t="n">
+        <v>2</v>
+      </c>
+      <c r="I229" t="n">
+        <v>1726</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>1723</v>
-      </c>
-      <c r="C189" t="n">
-        <v>1722</v>
-      </c>
-      <c r="D189" t="n">
-        <v>1723</v>
-      </c>
-      <c r="E189" t="n">
-        <v>1722</v>
-      </c>
-      <c r="F189" t="n">
-        <v>326.17</v>
-      </c>
-      <c r="G189" t="n">
-        <v>2672.318971289999</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L189" t="inlineStr">
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>1727</v>
+      </c>
+      <c r="C230" t="n">
+        <v>1727</v>
+      </c>
+      <c r="D230" t="n">
+        <v>1727</v>
+      </c>
+      <c r="E230" t="n">
+        <v>1727</v>
+      </c>
+      <c r="F230" t="n">
+        <v>65.80159999999999</v>
+      </c>
+      <c r="G230" t="n">
+        <v>4194.949512319999</v>
+      </c>
+      <c r="H230" t="n">
+        <v>2</v>
+      </c>
+      <c r="I230" t="n">
+        <v>1727</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>1738</v>
-      </c>
-      <c r="C190" t="n">
-        <v>1738</v>
-      </c>
-      <c r="D190" t="n">
-        <v>1738</v>
-      </c>
-      <c r="E190" t="n">
-        <v>1738</v>
-      </c>
-      <c r="F190" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G190" t="n">
-        <v>2672.818971289999</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L190" t="inlineStr">
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>1720</v>
+      </c>
+      <c r="C231" t="n">
+        <v>1727</v>
+      </c>
+      <c r="D231" t="n">
+        <v>1727</v>
+      </c>
+      <c r="E231" t="n">
+        <v>1720</v>
+      </c>
+      <c r="F231" t="n">
+        <v>78.73099999999999</v>
+      </c>
+      <c r="G231" t="n">
+        <v>4194.949512319999</v>
+      </c>
+      <c r="H231" t="n">
+        <v>2</v>
+      </c>
+      <c r="I231" t="n">
+        <v>1727</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>1735</v>
-      </c>
-      <c r="C191" t="n">
-        <v>1741</v>
-      </c>
-      <c r="D191" t="n">
-        <v>1741</v>
-      </c>
-      <c r="E191" t="n">
-        <v>1724</v>
-      </c>
-      <c r="F191" t="n">
-        <v>149.0995</v>
-      </c>
-      <c r="G191" t="n">
-        <v>2821.918471289999</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L191" t="inlineStr">
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>1727</v>
+      </c>
+      <c r="C232" t="n">
+        <v>1727</v>
+      </c>
+      <c r="D232" t="n">
+        <v>1727</v>
+      </c>
+      <c r="E232" t="n">
+        <v>1727</v>
+      </c>
+      <c r="F232" t="n">
+        <v>604.3737</v>
+      </c>
+      <c r="G232" t="n">
+        <v>4194.949512319999</v>
+      </c>
+      <c r="H232" t="n">
+        <v>2</v>
+      </c>
+      <c r="I232" t="n">
+        <v>1727</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>1724</v>
-      </c>
-      <c r="C192" t="n">
-        <v>1724</v>
-      </c>
-      <c r="D192" t="n">
-        <v>1724</v>
-      </c>
-      <c r="E192" t="n">
-        <v>1724</v>
-      </c>
-      <c r="F192" t="n">
-        <v>44.423</v>
-      </c>
-      <c r="G192" t="n">
-        <v>2777.495471289999</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L192" t="inlineStr">
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>1727</v>
+      </c>
+      <c r="C233" t="n">
+        <v>1727</v>
+      </c>
+      <c r="D233" t="n">
+        <v>1727</v>
+      </c>
+      <c r="E233" t="n">
+        <v>1727</v>
+      </c>
+      <c r="F233" t="n">
+        <v>649.172</v>
+      </c>
+      <c r="G233" t="n">
+        <v>4194.949512319999</v>
+      </c>
+      <c r="H233" t="n">
+        <v>2</v>
+      </c>
+      <c r="I233" t="n">
+        <v>1727</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>1726</v>
-      </c>
-      <c r="C193" t="n">
-        <v>1725</v>
-      </c>
-      <c r="D193" t="n">
-        <v>1726</v>
-      </c>
-      <c r="E193" t="n">
-        <v>1725</v>
-      </c>
-      <c r="F193" t="n">
-        <v>42.1169</v>
-      </c>
-      <c r="G193" t="n">
-        <v>2819.612371289999</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L193" t="inlineStr">
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>1731</v>
+      </c>
+      <c r="C234" t="n">
+        <v>1730</v>
+      </c>
+      <c r="D234" t="n">
+        <v>1731</v>
+      </c>
+      <c r="E234" t="n">
+        <v>1730</v>
+      </c>
+      <c r="F234" t="n">
+        <v>131.3007</v>
+      </c>
+      <c r="G234" t="n">
+        <v>4326.250212319998</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>1724</v>
-      </c>
-      <c r="C194" t="n">
-        <v>1723</v>
-      </c>
-      <c r="D194" t="n">
-        <v>1724</v>
-      </c>
-      <c r="E194" t="n">
-        <v>1723</v>
-      </c>
-      <c r="F194" t="n">
-        <v>1344.2888</v>
-      </c>
-      <c r="G194" t="n">
-        <v>1475.323571289999</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L194" t="inlineStr">
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>1752</v>
+      </c>
+      <c r="C235" t="n">
+        <v>1752</v>
+      </c>
+      <c r="D235" t="n">
+        <v>1752</v>
+      </c>
+      <c r="E235" t="n">
+        <v>1752</v>
+      </c>
+      <c r="F235" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G235" t="n">
+        <v>4326.750212319998</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>1723</v>
-      </c>
-      <c r="C195" t="n">
-        <v>1723</v>
-      </c>
-      <c r="D195" t="n">
-        <v>1724</v>
-      </c>
-      <c r="E195" t="n">
-        <v>1723</v>
-      </c>
-      <c r="F195" t="n">
-        <v>5493.8386</v>
-      </c>
-      <c r="G195" t="n">
-        <v>1475.323571289999</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L195" t="inlineStr">
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>1751</v>
+      </c>
+      <c r="C236" t="n">
+        <v>1751</v>
+      </c>
+      <c r="D236" t="n">
+        <v>1751</v>
+      </c>
+      <c r="E236" t="n">
+        <v>1751</v>
+      </c>
+      <c r="F236" t="n">
+        <v>50.6701</v>
+      </c>
+      <c r="G236" t="n">
+        <v>4276.080112319998</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>1723</v>
-      </c>
-      <c r="C196" t="n">
-        <v>1720</v>
-      </c>
-      <c r="D196" t="n">
-        <v>1723</v>
-      </c>
-      <c r="E196" t="n">
-        <v>1720</v>
-      </c>
-      <c r="F196" t="n">
-        <v>1696.7212</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-221.3976287100011</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L196" t="inlineStr">
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>1754</v>
+      </c>
+      <c r="C237" t="n">
+        <v>1754</v>
+      </c>
+      <c r="D237" t="n">
+        <v>1754</v>
+      </c>
+      <c r="E237" t="n">
+        <v>1754</v>
+      </c>
+      <c r="F237" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G237" t="n">
+        <v>4288.580112319998</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>1721</v>
-      </c>
-      <c r="C197" t="n">
-        <v>1720</v>
-      </c>
-      <c r="D197" t="n">
-        <v>1721</v>
-      </c>
-      <c r="E197" t="n">
-        <v>1720</v>
-      </c>
-      <c r="F197" t="n">
-        <v>349.79</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-221.3976287100011</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L197" t="inlineStr">
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>1761</v>
+      </c>
+      <c r="C238" t="n">
+        <v>1761</v>
+      </c>
+      <c r="D238" t="n">
+        <v>1761</v>
+      </c>
+      <c r="E238" t="n">
+        <v>1761</v>
+      </c>
+      <c r="F238" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G238" t="n">
+        <v>4289.080112319998</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>1720</v>
-      </c>
-      <c r="C198" t="n">
-        <v>1720</v>
-      </c>
-      <c r="D198" t="n">
-        <v>1720</v>
-      </c>
-      <c r="E198" t="n">
-        <v>1720</v>
-      </c>
-      <c r="F198" t="n">
-        <v>23.23</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-221.3976287100011</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L198" t="inlineStr">
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>1761</v>
+      </c>
+      <c r="C239" t="n">
+        <v>1761</v>
+      </c>
+      <c r="D239" t="n">
+        <v>1761</v>
+      </c>
+      <c r="E239" t="n">
+        <v>1761</v>
+      </c>
+      <c r="F239" t="n">
+        <v>33.3827</v>
+      </c>
+      <c r="G239" t="n">
+        <v>4289.080112319998</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>1724</v>
-      </c>
-      <c r="C199" t="n">
-        <v>1800</v>
-      </c>
-      <c r="D199" t="n">
-        <v>1800</v>
-      </c>
-      <c r="E199" t="n">
-        <v>1724</v>
-      </c>
-      <c r="F199" t="n">
-        <v>5309.44775622</v>
-      </c>
-      <c r="G199" t="n">
-        <v>5088.050127509999</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L199" t="inlineStr">
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>1772</v>
+      </c>
+      <c r="C240" t="n">
+        <v>1772</v>
+      </c>
+      <c r="D240" t="n">
+        <v>1772</v>
+      </c>
+      <c r="E240" t="n">
+        <v>1772</v>
+      </c>
+      <c r="F240" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G240" t="n">
+        <v>4289.580112319998</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>1727</v>
-      </c>
-      <c r="C200" t="n">
-        <v>1726</v>
-      </c>
-      <c r="D200" t="n">
-        <v>1727</v>
-      </c>
-      <c r="E200" t="n">
-        <v>1726</v>
-      </c>
-      <c r="F200" t="n">
-        <v>82.56</v>
-      </c>
-      <c r="G200" t="n">
-        <v>5005.490127509998</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L200" t="inlineStr">
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>1756</v>
+      </c>
+      <c r="C241" t="n">
+        <v>1756</v>
+      </c>
+      <c r="D241" t="n">
+        <v>1756</v>
+      </c>
+      <c r="E241" t="n">
+        <v>1756</v>
+      </c>
+      <c r="F241" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="G241" t="n">
+        <v>4287.762112319998</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>1780</v>
-      </c>
-      <c r="C201" t="n">
-        <v>1780</v>
-      </c>
-      <c r="D201" t="n">
-        <v>1780</v>
-      </c>
-      <c r="E201" t="n">
-        <v>1780</v>
-      </c>
-      <c r="F201" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="G201" t="n">
-        <v>5005.790127509998</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L201" t="inlineStr">
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>1766</v>
+      </c>
+      <c r="C242" t="n">
+        <v>1769</v>
+      </c>
+      <c r="D242" t="n">
+        <v>1770</v>
+      </c>
+      <c r="E242" t="n">
+        <v>1766</v>
+      </c>
+      <c r="F242" t="n">
+        <v>509.3367</v>
+      </c>
+      <c r="G242" t="n">
+        <v>4797.098812319998</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>1732</v>
-      </c>
-      <c r="C202" t="n">
-        <v>1732</v>
-      </c>
-      <c r="D202" t="n">
-        <v>1733</v>
-      </c>
-      <c r="E202" t="n">
-        <v>1730</v>
-      </c>
-      <c r="F202" t="n">
-        <v>35.7392</v>
-      </c>
-      <c r="G202" t="n">
-        <v>4970.050927509998</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>1724</v>
-      </c>
-      <c r="C203" t="n">
-        <v>1730</v>
-      </c>
-      <c r="D203" t="n">
-        <v>1775</v>
-      </c>
-      <c r="E203" t="n">
-        <v>1724</v>
-      </c>
-      <c r="F203" t="n">
-        <v>1449.1124</v>
-      </c>
-      <c r="G203" t="n">
-        <v>3520.938527509998</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>1768</v>
-      </c>
-      <c r="C204" t="n">
-        <v>1768</v>
-      </c>
-      <c r="D204" t="n">
-        <v>1768</v>
-      </c>
-      <c r="E204" t="n">
-        <v>1768</v>
-      </c>
-      <c r="F204" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G204" t="n">
-        <v>3521.438527509998</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>1723</v>
-      </c>
-      <c r="C205" t="n">
-        <v>1721</v>
-      </c>
-      <c r="D205" t="n">
-        <v>1723</v>
-      </c>
-      <c r="E205" t="n">
-        <v>1721</v>
-      </c>
-      <c r="F205" t="n">
-        <v>117.7821</v>
-      </c>
-      <c r="G205" t="n">
-        <v>3403.656427509999</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>1746</v>
-      </c>
-      <c r="C206" t="n">
-        <v>1771</v>
-      </c>
-      <c r="D206" t="n">
-        <v>1771</v>
-      </c>
-      <c r="E206" t="n">
-        <v>1746</v>
-      </c>
-      <c r="F206" t="n">
-        <v>56.56148481</v>
-      </c>
-      <c r="G206" t="n">
-        <v>3460.217912319999</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>1734</v>
-      </c>
-      <c r="C207" t="n">
-        <v>1735</v>
-      </c>
-      <c r="D207" t="n">
-        <v>1735</v>
-      </c>
-      <c r="E207" t="n">
-        <v>1734</v>
-      </c>
-      <c r="F207" t="n">
-        <v>17.5323</v>
-      </c>
-      <c r="G207" t="n">
-        <v>3442.685612319999</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>1726</v>
-      </c>
-      <c r="C208" t="n">
-        <v>1725</v>
-      </c>
-      <c r="D208" t="n">
-        <v>1726</v>
-      </c>
-      <c r="E208" t="n">
-        <v>1725</v>
-      </c>
-      <c r="F208" t="n">
-        <v>110.6914</v>
-      </c>
-      <c r="G208" t="n">
-        <v>3331.994212319998</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>1738</v>
-      </c>
-      <c r="C209" t="n">
-        <v>1725</v>
-      </c>
-      <c r="D209" t="n">
-        <v>1739</v>
-      </c>
-      <c r="E209" t="n">
-        <v>1725</v>
-      </c>
-      <c r="F209" t="n">
-        <v>625.9045</v>
-      </c>
-      <c r="G209" t="n">
-        <v>3331.994212319998</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>1740</v>
-      </c>
-      <c r="C210" t="n">
-        <v>1740</v>
-      </c>
-      <c r="D210" t="n">
-        <v>1740</v>
-      </c>
-      <c r="E210" t="n">
-        <v>1740</v>
-      </c>
-      <c r="F210" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G210" t="n">
-        <v>3332.494212319998</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>1734</v>
-      </c>
-      <c r="C211" t="n">
-        <v>1734</v>
-      </c>
-      <c r="D211" t="n">
-        <v>1734</v>
-      </c>
-      <c r="E211" t="n">
-        <v>1734</v>
-      </c>
-      <c r="F211" t="n">
-        <v>82.179</v>
-      </c>
-      <c r="G211" t="n">
-        <v>3250.315212319998</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>1750</v>
-      </c>
-      <c r="C212" t="n">
-        <v>1750</v>
-      </c>
-      <c r="D212" t="n">
-        <v>1750</v>
-      </c>
-      <c r="E212" t="n">
-        <v>1750</v>
-      </c>
-      <c r="F212" t="n">
-        <v>0.2883</v>
-      </c>
-      <c r="G212" t="n">
-        <v>3250.603512319999</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>1746</v>
-      </c>
-      <c r="C213" t="n">
-        <v>1771</v>
-      </c>
-      <c r="D213" t="n">
-        <v>1771</v>
-      </c>
-      <c r="E213" t="n">
-        <v>1746</v>
-      </c>
-      <c r="F213" t="n">
-        <v>309.4296</v>
-      </c>
-      <c r="G213" t="n">
-        <v>3560.033112319999</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>1735</v>
-      </c>
-      <c r="C214" t="n">
-        <v>1707</v>
-      </c>
-      <c r="D214" t="n">
-        <v>1735</v>
-      </c>
-      <c r="E214" t="n">
-        <v>1707</v>
-      </c>
-      <c r="F214" t="n">
-        <v>3822.6844</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-262.6512876800016</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>1739</v>
-      </c>
-      <c r="C215" t="n">
-        <v>1740</v>
-      </c>
-      <c r="D215" t="n">
-        <v>1742</v>
-      </c>
-      <c r="E215" t="n">
-        <v>1739</v>
-      </c>
-      <c r="F215" t="n">
-        <v>3120.7014</v>
-      </c>
-      <c r="G215" t="n">
-        <v>2858.050112319998</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>1738</v>
-      </c>
-      <c r="C216" t="n">
-        <v>1739</v>
-      </c>
-      <c r="D216" t="n">
-        <v>1739</v>
-      </c>
-      <c r="E216" t="n">
-        <v>1738</v>
-      </c>
-      <c r="F216" t="n">
-        <v>79.3229</v>
-      </c>
-      <c r="G216" t="n">
-        <v>2778.727212319998</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>1752</v>
-      </c>
-      <c r="C217" t="n">
-        <v>1754</v>
-      </c>
-      <c r="D217" t="n">
-        <v>1754</v>
-      </c>
-      <c r="E217" t="n">
-        <v>1752</v>
-      </c>
-      <c r="F217" t="n">
-        <v>873.0547</v>
-      </c>
-      <c r="G217" t="n">
-        <v>3651.781912319998</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>1740</v>
-      </c>
-      <c r="C218" t="n">
-        <v>1719</v>
-      </c>
-      <c r="D218" t="n">
-        <v>1742</v>
-      </c>
-      <c r="E218" t="n">
-        <v>1719</v>
-      </c>
-      <c r="F218" t="n">
-        <v>262.085</v>
-      </c>
-      <c r="G218" t="n">
-        <v>3389.696912319998</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>1751</v>
-      </c>
-      <c r="C219" t="n">
-        <v>1751</v>
-      </c>
-      <c r="D219" t="n">
-        <v>1751</v>
-      </c>
-      <c r="E219" t="n">
-        <v>1751</v>
-      </c>
-      <c r="F219" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G219" t="n">
-        <v>3390.196912319998</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>1724</v>
-      </c>
-      <c r="C220" t="n">
-        <v>1756</v>
-      </c>
-      <c r="D220" t="n">
-        <v>1756</v>
-      </c>
-      <c r="E220" t="n">
-        <v>1722</v>
-      </c>
-      <c r="F220" t="n">
-        <v>1082.8493</v>
-      </c>
-      <c r="G220" t="n">
-        <v>4473.046212319999</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>1755</v>
-      </c>
-      <c r="C221" t="n">
-        <v>1756</v>
-      </c>
-      <c r="D221" t="n">
-        <v>1756</v>
-      </c>
-      <c r="E221" t="n">
-        <v>1755</v>
-      </c>
-      <c r="F221" t="n">
-        <v>282.6302</v>
-      </c>
-      <c r="G221" t="n">
-        <v>4473.046212319999</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>1756</v>
-      </c>
-      <c r="C222" t="n">
-        <v>1772</v>
-      </c>
-      <c r="D222" t="n">
-        <v>1772</v>
-      </c>
-      <c r="E222" t="n">
-        <v>1726</v>
-      </c>
-      <c r="F222" t="n">
-        <v>809.35</v>
-      </c>
-      <c r="G222" t="n">
-        <v>5282.396212319999</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>1743</v>
-      </c>
-      <c r="C223" t="n">
-        <v>1743</v>
-      </c>
-      <c r="D223" t="n">
-        <v>1744</v>
-      </c>
-      <c r="E223" t="n">
-        <v>1743</v>
-      </c>
-      <c r="F223" t="n">
-        <v>133.407</v>
-      </c>
-      <c r="G223" t="n">
-        <v>5148.989212319999</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>1741</v>
-      </c>
-      <c r="C224" t="n">
-        <v>1740</v>
-      </c>
-      <c r="D224" t="n">
-        <v>1741</v>
-      </c>
-      <c r="E224" t="n">
-        <v>1740</v>
-      </c>
-      <c r="F224" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="G224" t="n">
-        <v>5127.589212319999</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>1734</v>
-      </c>
-      <c r="C225" t="n">
-        <v>1720</v>
-      </c>
-      <c r="D225" t="n">
-        <v>1734</v>
-      </c>
-      <c r="E225" t="n">
-        <v>1720</v>
-      </c>
-      <c r="F225" t="n">
-        <v>1052.0531</v>
-      </c>
-      <c r="G225" t="n">
-        <v>4075.536112319999</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>1747</v>
-      </c>
-      <c r="C226" t="n">
-        <v>1747</v>
-      </c>
-      <c r="D226" t="n">
-        <v>1747</v>
-      </c>
-      <c r="E226" t="n">
-        <v>1747</v>
-      </c>
-      <c r="F226" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G226" t="n">
-        <v>4076.036112319999</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>1721</v>
-      </c>
-      <c r="C227" t="n">
-        <v>1721</v>
-      </c>
-      <c r="D227" t="n">
-        <v>1721</v>
-      </c>
-      <c r="E227" t="n">
-        <v>1721</v>
-      </c>
-      <c r="F227" t="n">
-        <v>18</v>
-      </c>
-      <c r="G227" t="n">
-        <v>4058.036112319999</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>1726</v>
-      </c>
-      <c r="C228" t="n">
-        <v>1726</v>
-      </c>
-      <c r="D228" t="n">
-        <v>1726</v>
-      </c>
-      <c r="E228" t="n">
-        <v>1726</v>
-      </c>
-      <c r="F228" t="n">
-        <v>87.1069</v>
-      </c>
-      <c r="G228" t="n">
-        <v>4145.143012319999</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>1726</v>
-      </c>
-      <c r="C229" t="n">
-        <v>1727</v>
-      </c>
-      <c r="D229" t="n">
-        <v>1727</v>
-      </c>
-      <c r="E229" t="n">
-        <v>1726</v>
-      </c>
-      <c r="F229" t="n">
-        <v>49.8065</v>
-      </c>
-      <c r="G229" t="n">
-        <v>4194.949512319999</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>1727</v>
-      </c>
-      <c r="C230" t="n">
-        <v>1727</v>
-      </c>
-      <c r="D230" t="n">
-        <v>1727</v>
-      </c>
-      <c r="E230" t="n">
-        <v>1727</v>
-      </c>
-      <c r="F230" t="n">
-        <v>65.80159999999999</v>
-      </c>
-      <c r="G230" t="n">
-        <v>4194.949512319999</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>1720</v>
-      </c>
-      <c r="C231" t="n">
-        <v>1727</v>
-      </c>
-      <c r="D231" t="n">
-        <v>1727</v>
-      </c>
-      <c r="E231" t="n">
-        <v>1720</v>
-      </c>
-      <c r="F231" t="n">
-        <v>78.73099999999999</v>
-      </c>
-      <c r="G231" t="n">
-        <v>4194.949512319999</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>1727</v>
-      </c>
-      <c r="C232" t="n">
-        <v>1727</v>
-      </c>
-      <c r="D232" t="n">
-        <v>1727</v>
-      </c>
-      <c r="E232" t="n">
-        <v>1727</v>
-      </c>
-      <c r="F232" t="n">
-        <v>604.3737</v>
-      </c>
-      <c r="G232" t="n">
-        <v>4194.949512319999</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>1727</v>
-      </c>
-      <c r="C233" t="n">
-        <v>1727</v>
-      </c>
-      <c r="D233" t="n">
-        <v>1727</v>
-      </c>
-      <c r="E233" t="n">
-        <v>1727</v>
-      </c>
-      <c r="F233" t="n">
-        <v>649.172</v>
-      </c>
-      <c r="G233" t="n">
-        <v>4194.949512319999</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>1731</v>
-      </c>
-      <c r="C234" t="n">
-        <v>1730</v>
-      </c>
-      <c r="D234" t="n">
-        <v>1731</v>
-      </c>
-      <c r="E234" t="n">
-        <v>1730</v>
-      </c>
-      <c r="F234" t="n">
-        <v>131.3007</v>
-      </c>
-      <c r="G234" t="n">
-        <v>4326.250212319998</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>1752</v>
-      </c>
-      <c r="C235" t="n">
-        <v>1752</v>
-      </c>
-      <c r="D235" t="n">
-        <v>1752</v>
-      </c>
-      <c r="E235" t="n">
-        <v>1752</v>
-      </c>
-      <c r="F235" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G235" t="n">
-        <v>4326.750212319998</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>1751</v>
-      </c>
-      <c r="C236" t="n">
-        <v>1751</v>
-      </c>
-      <c r="D236" t="n">
-        <v>1751</v>
-      </c>
-      <c r="E236" t="n">
-        <v>1751</v>
-      </c>
-      <c r="F236" t="n">
-        <v>50.6701</v>
-      </c>
-      <c r="G236" t="n">
-        <v>4276.080112319998</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>1754</v>
-      </c>
-      <c r="C237" t="n">
-        <v>1754</v>
-      </c>
-      <c r="D237" t="n">
-        <v>1754</v>
-      </c>
-      <c r="E237" t="n">
-        <v>1754</v>
-      </c>
-      <c r="F237" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="G237" t="n">
-        <v>4288.580112319998</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>1761</v>
-      </c>
-      <c r="C238" t="n">
-        <v>1761</v>
-      </c>
-      <c r="D238" t="n">
-        <v>1761</v>
-      </c>
-      <c r="E238" t="n">
-        <v>1761</v>
-      </c>
-      <c r="F238" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G238" t="n">
-        <v>4289.080112319998</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>1761</v>
-      </c>
-      <c r="C239" t="n">
-        <v>1761</v>
-      </c>
-      <c r="D239" t="n">
-        <v>1761</v>
-      </c>
-      <c r="E239" t="n">
-        <v>1761</v>
-      </c>
-      <c r="F239" t="n">
-        <v>33.3827</v>
-      </c>
-      <c r="G239" t="n">
-        <v>4289.080112319998</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>1772</v>
-      </c>
-      <c r="C240" t="n">
-        <v>1772</v>
-      </c>
-      <c r="D240" t="n">
-        <v>1772</v>
-      </c>
-      <c r="E240" t="n">
-        <v>1772</v>
-      </c>
-      <c r="F240" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G240" t="n">
-        <v>4289.580112319998</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>1756</v>
-      </c>
-      <c r="C241" t="n">
-        <v>1756</v>
-      </c>
-      <c r="D241" t="n">
-        <v>1756</v>
-      </c>
-      <c r="E241" t="n">
-        <v>1756</v>
-      </c>
-      <c r="F241" t="n">
-        <v>1.818</v>
-      </c>
-      <c r="G241" t="n">
-        <v>4287.762112319998</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>1766</v>
-      </c>
-      <c r="C242" t="n">
-        <v>1769</v>
-      </c>
-      <c r="D242" t="n">
-        <v>1770</v>
-      </c>
-      <c r="E242" t="n">
-        <v>1766</v>
-      </c>
-      <c r="F242" t="n">
-        <v>509.3367</v>
-      </c>
-      <c r="G242" t="n">
-        <v>4797.098812319998</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>1709</v>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest HC.xlsx
+++ b/BackTest/2020-01-19 BackTest HC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -880,7 +880,7 @@
         <v>10875.35380198</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>10875.35380198</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>10894.07340198</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>10927.91150198</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>9707.137101980001</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>9432.598401980002</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>9432.598401980002</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>9432.598401980002</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>9392.598401980002</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>9143.603501980002</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>9143.903601980002</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>9144.183501980002</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>9144.468501980002</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>9396.693001980002</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>9712.227601980003</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>9712.227601980003</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>9671.904601980003</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>7915.082601980002</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>7752.477401980002</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>7695.027401980003</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>8174.306301980003</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>8213.758101980004</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>7960.673701980004</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>7931.273701980004</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>7977.771901980004</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>7977.771901980004</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>7978.073801980005</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>7911.663801980005</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>7911.663801980005</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>7911.663801980005</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>7949.764401980005</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>7852.192001980005</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>7852.192001980005</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>7852.192001980005</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>8688.928201980005</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>8733.236721940002</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>8733.736721940002</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>8632.379621940003</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>8632.379621940003</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>8898.239021940002</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>8873.939021940003</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>8672.548021940003</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>8673.048021940003</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>8511.352921940002</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>8523.670921940002</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>8524.170921940002</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>11961.23612194</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>8391.947321940001</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>7006.145221940001</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>10455.30442194</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>10455.30442194</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>10455.30442194</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>10413.90442194</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>10370.28662194</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>10282.97702194</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>9822.97702194</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>9538.30722194</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>7816.53192194</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>7816.53192194</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>7888.989021939999</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>7890.28902194</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>7850.859421939999</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>7895.859421939999</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>8679.97852194</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>6354.66252194</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>6365.95602194</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>6365.95602194</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>6089.83002194</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>6089.83002194</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>6090.46272194</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>6090.14452194</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>5152.261721940001</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>5075.111421940001</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>6633.179421940001</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>6633.179421940001</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>6297.44812194</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>6286.60892194</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>6286.88892194</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>5502.76982194</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>6542.76982194</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>6542.76982194</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>6543.32445311</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>6509.93005311</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>6509.93005311</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>5492.67505311</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>5462.70515311</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>5462.70515311</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>4296.56815311</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>4170.18815311</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>4100.97495311</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>4100.97495311</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>4067.09495311</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6754,10 +6754,14 @@
         <v>2819.612371289999</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>1724</v>
+      </c>
+      <c r="J193" t="n">
+        <v>1724</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
@@ -6787,11 +6791,19 @@
         <v>1475.323571289999</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>1725</v>
+      </c>
+      <c r="J194" t="n">
+        <v>1724</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6820,11 +6832,19 @@
         <v>1475.323571289999</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>1723</v>
+      </c>
+      <c r="J195" t="n">
+        <v>1724</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6856,8 +6876,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>1724</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6889,8 +6915,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>1724</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6922,8 +6954,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>1724</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6952,11 +6990,19 @@
         <v>5088.050127509999</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>1720</v>
+      </c>
+      <c r="J199" t="n">
+        <v>1724</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6988,8 +7034,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>1724</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7021,8 +7073,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>1724</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7054,8 +7112,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>1724</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7087,8 +7151,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>1724</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7120,8 +7190,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>1724</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7153,8 +7229,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>1724</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7186,8 +7268,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>1724</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7219,8 +7307,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>1724</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7252,8 +7346,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>1724</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7285,8 +7385,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>1724</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7315,11 +7421,19 @@
         <v>3332.494212319998</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>1725</v>
+      </c>
+      <c r="J210" t="n">
+        <v>1724</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7351,8 +7465,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>1724</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7381,11 +7501,19 @@
         <v>3250.603512319999</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>1734</v>
+      </c>
+      <c r="J212" t="n">
+        <v>1724</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7414,15 +7542,15 @@
         <v>3560.033112319999</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
-      </c>
-      <c r="I213" t="n">
-        <v>1750</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>1724</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L213" t="n">
@@ -7456,7 +7584,9 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>1724</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7493,7 +7623,9 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>1724</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7530,7 +7662,9 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>1724</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7567,7 +7701,9 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>1724</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7604,7 +7740,9 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>1724</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7641,7 +7779,9 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>1724</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7678,7 +7818,9 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>1724</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7715,7 +7857,9 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>1724</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7752,7 +7896,9 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>1724</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7789,7 +7935,9 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>1724</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7826,7 +7974,9 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>1724</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7863,7 +8013,9 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>1724</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7900,7 +8052,9 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>1724</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7937,7 +8091,9 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>1724</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7974,7 +8130,9 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>1724</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8008,12 +8166,12 @@
         <v>4194.949512319999</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
-      </c>
-      <c r="I229" t="n">
-        <v>1726</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>1724</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8047,12 +8205,12 @@
         <v>4194.949512319999</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
-      </c>
-      <c r="I230" t="n">
-        <v>1727</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>1724</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8086,12 +8244,12 @@
         <v>4194.949512319999</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
-      </c>
-      <c r="I231" t="n">
-        <v>1727</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>1724</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8125,12 +8283,12 @@
         <v>4194.949512319999</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
-      </c>
-      <c r="I232" t="n">
-        <v>1727</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>1724</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8164,12 +8322,12 @@
         <v>4194.949512319999</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
-      </c>
-      <c r="I233" t="n">
-        <v>1727</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>1724</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8206,7 +8364,9 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>1724</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8243,7 +8403,9 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>1724</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8280,7 +8442,9 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>1724</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8317,7 +8481,9 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>1724</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8354,7 +8520,9 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>1724</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8391,7 +8559,9 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>1724</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8428,7 +8598,9 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>1724</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8465,7 +8637,9 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>1724</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8502,7 +8676,9 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>1724</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8514,6 +8690,6 @@
       <c r="M242" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest HC.xlsx
+++ b/BackTest/2020-01-19 BackTest HC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>9864.488901979999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>10357.66830198</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>10357.66830198</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>10357.66830198</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>10875.35380198</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>10875.35380198</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>10894.07340198</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>10927.91150198</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>9432.598401980002</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>9143.903601980002</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>9144.183501980002</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>9144.468501980002</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>9396.693001980002</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>9712.227601980003</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>9712.227601980003</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>9671.904601980003</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>7915.082601980002</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>7752.477401980002</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>7695.027401980003</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>8174.306301980003</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>8213.758101980004</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>7960.673701980004</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>7931.273701980004</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>7977.771901980004</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>7977.771901980004</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>7978.073801980005</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>7911.663801980005</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>7911.663801980005</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>7911.663801980005</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>7949.764401980005</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>7852.192001980005</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>7852.192001980005</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>7852.192001980005</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>8688.928201980005</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>8001.598921940002</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>7996.598921940002</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>8187.913321940002</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>8187.913321940002</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>8898.239021940002</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>8873.939021940003</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>8672.548021940003</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>8673.048021940003</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>8511.352921940002</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>8523.670921940002</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>8524.170921940002</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>11961.23612194</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>8391.947321940001</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>7006.145221940001</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>10455.30442194</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>10455.30442194</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>10455.30442194</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>10413.90442194</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>10370.28662194</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>10282.97702194</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>9822.97702194</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>9538.30722194</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>7816.53192194</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>7816.53192194</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>7888.989021939999</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>7890.28902194</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>7850.859421939999</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>7895.859421939999</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>8679.97852194</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>6354.66252194</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>6365.95602194</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>6365.95602194</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>6089.83002194</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>6089.83002194</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>6090.46272194</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>6090.14452194</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>5152.261721940001</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>5075.111421940001</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>6633.179421940001</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>6633.179421940001</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>6297.44812194</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>6286.60892194</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>6286.88892194</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>5502.76982194</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>6542.76982194</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>6542.76982194</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>6543.32445311</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>6509.93005311</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>6509.93005311</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>5492.67505311</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>5462.70515311</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>5462.70515311</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>4296.56815311</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>4170.18815311</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>4100.97495311</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>4100.97495311</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>4067.09495311</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6226,10 +6226,14 @@
         <v>2123.99197129</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>1709</v>
+      </c>
+      <c r="J177" t="n">
+        <v>1709</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
@@ -6262,8 +6266,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>1709</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6295,8 +6305,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>1709</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6325,11 +6341,19 @@
         <v>4684.17127129</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>1744</v>
+      </c>
+      <c r="J180" t="n">
+        <v>1709</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6358,11 +6382,19 @@
         <v>4699.67127129</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>1724</v>
+      </c>
+      <c r="J181" t="n">
+        <v>1709</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6394,8 +6426,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>1709</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6427,8 +6465,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>1709</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6460,8 +6504,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>1709</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6493,8 +6543,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>1709</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6526,8 +6582,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>1709</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6559,8 +6621,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>1709</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6592,8 +6660,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>1709</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6625,8 +6699,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>1709</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6658,8 +6738,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>1709</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6691,8 +6777,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>1709</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6724,8 +6816,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>1709</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6754,15 +6852,17 @@
         <v>2819.612371289999</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>1724</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>1724</v>
-      </c>
-      <c r="K193" t="inlineStr"/>
+        <v>1709</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6797,11 +6897,11 @@
         <v>1725</v>
       </c>
       <c r="J194" t="n">
-        <v>1724</v>
+        <v>1709</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L194" t="n">
@@ -6832,13 +6932,11 @@
         <v>1475.323571289999</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>1723</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>1724</v>
+        <v>1709</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -6877,7 +6975,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>1724</v>
+        <v>1709</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -6912,11 +7010,13 @@
         <v>-221.3976287100011</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>1720</v>
+      </c>
       <c r="J197" t="n">
-        <v>1724</v>
+        <v>1709</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -6951,11 +7051,13 @@
         <v>-221.3976287100011</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>1720</v>
+      </c>
       <c r="J198" t="n">
-        <v>1724</v>
+        <v>1709</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -6996,7 +7098,7 @@
         <v>1720</v>
       </c>
       <c r="J199" t="n">
-        <v>1724</v>
+        <v>1709</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7035,7 +7137,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>1724</v>
+        <v>1709</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7074,7 +7176,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>1724</v>
+        <v>1709</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7113,7 +7215,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>1724</v>
+        <v>1709</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7152,7 +7254,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>1724</v>
+        <v>1709</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7191,7 +7293,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>1724</v>
+        <v>1709</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -7230,7 +7332,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>1724</v>
+        <v>1709</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7269,7 +7371,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>1724</v>
+        <v>1709</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -7308,7 +7410,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>1724</v>
+        <v>1709</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -7347,7 +7449,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>1724</v>
+        <v>1709</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -7386,7 +7488,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>1724</v>
+        <v>1709</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -7421,13 +7523,11 @@
         <v>3332.494212319998</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>1725</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>1724</v>
+        <v>1709</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -7466,7 +7566,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>1724</v>
+        <v>1709</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -7501,13 +7601,11 @@
         <v>3250.603512319999</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>1734</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>1724</v>
+        <v>1709</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -7546,7 +7644,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>1724</v>
+        <v>1709</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -7581,19 +7679,19 @@
         <v>-262.6512876800016</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>1724</v>
+        <v>1709</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L214" t="n">
-        <v>1</v>
+        <v>0.9938297249853716</v>
       </c>
       <c r="M214" t="inlineStr"/>
     </row>
@@ -7623,14 +7721,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>1724</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7662,14 +7754,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>1724</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7701,14 +7787,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>1724</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7740,14 +7820,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>1724</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7779,14 +7853,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>1724</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7815,17 +7883,11 @@
         <v>4473.046212319999</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>1724</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7854,17 +7916,11 @@
         <v>4473.046212319999</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>1724</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7893,17 +7949,11 @@
         <v>5282.396212319999</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>1724</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7932,17 +7982,11 @@
         <v>5148.989212319999</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>1724</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7971,17 +8015,11 @@
         <v>5127.589212319999</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>1724</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8010,17 +8048,11 @@
         <v>4075.536112319999</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>1724</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8049,17 +8081,11 @@
         <v>4076.036112319999</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>1724</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8088,17 +8114,11 @@
         <v>4058.036112319999</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>1724</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8127,17 +8147,11 @@
         <v>4145.143012319999</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>1724</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8166,17 +8180,11 @@
         <v>4194.949512319999</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>1724</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8208,14 +8216,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>1724</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8247,14 +8249,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>1724</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8286,14 +8282,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>1724</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8325,14 +8315,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>1724</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8364,14 +8348,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>1724</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8403,14 +8381,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>1724</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8439,17 +8411,11 @@
         <v>4276.080112319998</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>1724</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8478,17 +8444,11 @@
         <v>4288.580112319998</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>1724</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8517,17 +8477,11 @@
         <v>4289.080112319998</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>1724</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8556,17 +8510,11 @@
         <v>4289.080112319998</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>1724</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8595,17 +8543,11 @@
         <v>4289.580112319998</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>1724</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8634,17 +8576,11 @@
         <v>4287.762112319998</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>1724</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8673,23 +8609,17 @@
         <v>4797.098812319998</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>1724</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
       <c r="M242" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest HC.xlsx
+++ b/BackTest/2020-01-19 BackTest HC.xlsx
@@ -451,7 +451,7 @@
         <v>9864.488901979999</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>10357.66830198</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>10357.66830198</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>10357.66830198</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>13591.32920198</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>13591.32920198</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>13592.62960198</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>13054.49820198</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>12561.31880198</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>10875.35380198</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>10875.35380198</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>10894.07340198</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>10927.91150198</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>9432.598401980002</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>9143.903601980002</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>9144.183501980002</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>9144.468501980002</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>9712.227601980003</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>9712.227601980003</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>9671.904601980003</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>8001.598921940002</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>7996.598921940002</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>8187.913321940002</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>8187.913321940002</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>8733.236721940002</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>8733.736721940002</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>8632.379621940003</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>8632.379621940003</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>8898.239021940002</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>8873.939021940003</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>8672.548021940003</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>8673.048021940003</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>8511.352921940002</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>8523.670921940002</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>8524.170921940002</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>11961.23612194</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>8391.947321940001</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>7006.145221940001</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>10455.30442194</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>10455.30442194</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>10455.30442194</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>10413.90442194</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>10370.28662194</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>10282.97702194</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>9822.97702194</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>9538.30722194</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>7816.53192194</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>7816.53192194</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>7895.859421939999</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>6354.66252194</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -5962,10 +5962,14 @@
         <v>2309.62347129</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>1709</v>
+      </c>
+      <c r="J169" t="n">
+        <v>1709</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
@@ -5995,11 +5999,19 @@
         <v>2309.62347129</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>1709</v>
+      </c>
+      <c r="J170" t="n">
+        <v>1709</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6028,11 +6040,19 @@
         <v>2309.62347129</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>1709</v>
+      </c>
+      <c r="J171" t="n">
+        <v>1709</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6061,11 +6081,19 @@
         <v>2284.204571289999</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>1709</v>
+      </c>
+      <c r="J172" t="n">
+        <v>1709</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6094,11 +6122,19 @@
         <v>2400.932771289999</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>1705</v>
+      </c>
+      <c r="J173" t="n">
+        <v>1709</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6127,11 +6163,19 @@
         <v>2140.13407129</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>1706</v>
+      </c>
+      <c r="J174" t="n">
+        <v>1709</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6160,11 +6204,19 @@
         <v>2090.34567129</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>1690</v>
+      </c>
+      <c r="J175" t="n">
+        <v>1709</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6193,11 +6245,19 @@
         <v>2123.34567129</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>1688</v>
+      </c>
+      <c r="J176" t="n">
+        <v>1709</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6234,7 +6294,11 @@
       <c r="J177" t="n">
         <v>1709</v>
       </c>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6263,15 +6327,17 @@
         <v>4014.92457129</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>1710</v>
+      </c>
       <c r="J178" t="n">
         <v>1709</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L178" t="n">
@@ -6302,15 +6368,17 @@
         <v>4768.56727129</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>1731</v>
+      </c>
       <c r="J179" t="n">
         <v>1709</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L179" t="n">
@@ -6351,7 +6419,7 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L180" t="n">
@@ -6423,9 +6491,11 @@
         <v>4502.86277129</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>1742</v>
+      </c>
       <c r="J182" t="n">
         <v>1709</v>
       </c>
@@ -6462,9 +6532,11 @@
         <v>4381.203471289999</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>1732</v>
+      </c>
       <c r="J183" t="n">
         <v>1709</v>
       </c>
@@ -6501,9 +6573,11 @@
         <v>4364.321271289999</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>1731</v>
+      </c>
       <c r="J184" t="n">
         <v>1709</v>
       </c>
@@ -6540,9 +6614,11 @@
         <v>4364.821271289999</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>1721</v>
+      </c>
       <c r="J185" t="n">
         <v>1709</v>
       </c>
@@ -6579,9 +6655,11 @@
         <v>4364.821271289999</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>1738</v>
+      </c>
       <c r="J186" t="n">
         <v>1709</v>
       </c>
@@ -6618,9 +6696,11 @@
         <v>2998.488971289999</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>1738</v>
+      </c>
       <c r="J187" t="n">
         <v>1709</v>
       </c>
@@ -6657,9 +6737,11 @@
         <v>2998.488971289999</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>1735</v>
+      </c>
       <c r="J188" t="n">
         <v>1709</v>
       </c>
@@ -6696,9 +6778,11 @@
         <v>2672.318971289999</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>1735</v>
+      </c>
       <c r="J189" t="n">
         <v>1709</v>
       </c>
@@ -6735,9 +6819,11 @@
         <v>2672.818971289999</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>1722</v>
+      </c>
       <c r="J190" t="n">
         <v>1709</v>
       </c>
@@ -6774,9 +6860,11 @@
         <v>2821.918471289999</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>1738</v>
+      </c>
       <c r="J191" t="n">
         <v>1709</v>
       </c>
@@ -6813,9 +6901,11 @@
         <v>2777.495471289999</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>1741</v>
+      </c>
       <c r="J192" t="n">
         <v>1709</v>
       </c>
@@ -6852,9 +6942,11 @@
         <v>2819.612371289999</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>1724</v>
+      </c>
       <c r="J193" t="n">
         <v>1709</v>
       </c>
@@ -6932,9 +7024,11 @@
         <v>1475.323571289999</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>1723</v>
+      </c>
       <c r="J195" t="n">
         <v>1709</v>
       </c>
@@ -6971,9 +7065,11 @@
         <v>-221.3976287100011</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>1723</v>
+      </c>
       <c r="J196" t="n">
         <v>1709</v>
       </c>
@@ -7172,9 +7268,11 @@
         <v>5005.790127509998</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>1726</v>
+      </c>
       <c r="J201" t="n">
         <v>1709</v>
       </c>
@@ -7679,7 +7777,7 @@
         <v>-262.6512876800016</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
@@ -7687,11 +7785,11 @@
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L214" t="n">
-        <v>0.9938297249853716</v>
+        <v>1</v>
       </c>
       <c r="M214" t="inlineStr"/>
     </row>
@@ -7721,8 +7819,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>1709</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7754,8 +7858,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>1709</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7787,8 +7897,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>1709</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7820,8 +7936,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>1709</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7853,8 +7975,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>1709</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7883,11 +8011,17 @@
         <v>4473.046212319999</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>1709</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7916,11 +8050,17 @@
         <v>4473.046212319999</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>1709</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7949,11 +8089,17 @@
         <v>5282.396212319999</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>1709</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7982,11 +8128,17 @@
         <v>5148.989212319999</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>1709</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8015,11 +8167,17 @@
         <v>5127.589212319999</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>1709</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8048,11 +8206,17 @@
         <v>4075.536112319999</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>1709</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8081,11 +8245,17 @@
         <v>4076.036112319999</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>1709</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8114,11 +8284,17 @@
         <v>4058.036112319999</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>1709</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8147,11 +8323,17 @@
         <v>4145.143012319999</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>1709</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8180,11 +8362,17 @@
         <v>4194.949512319999</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>1709</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8216,8 +8404,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>1709</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8249,8 +8443,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>1709</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8282,8 +8482,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>1709</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8315,8 +8521,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>1709</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8348,8 +8560,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>1709</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8381,8 +8599,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>1709</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8411,11 +8635,17 @@
         <v>4276.080112319998</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>1709</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8444,11 +8674,17 @@
         <v>4288.580112319998</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>1709</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8477,11 +8713,17 @@
         <v>4289.080112319998</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>1709</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8510,11 +8752,17 @@
         <v>4289.080112319998</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>1709</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8543,11 +8791,17 @@
         <v>4289.580112319998</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>1709</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8576,11 +8830,17 @@
         <v>4287.762112319998</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>1709</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8609,11 +8869,17 @@
         <v>4797.098812319998</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>1709</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-19 BackTest HC.xlsx
+++ b/BackTest/2020-01-19 BackTest HC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M242"/>
+  <dimension ref="A1:L242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>19.8737</v>
       </c>
       <c r="G2" t="n">
-        <v>9864.488901979999</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>493.1794</v>
       </c>
       <c r="G3" t="n">
-        <v>10357.66830198</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>122.1867</v>
       </c>
       <c r="G4" t="n">
-        <v>10357.66830198</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>1.3041</v>
       </c>
       <c r="G5" t="n">
-        <v>10357.66830198</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>10357.66830198</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>60.0269</v>
       </c>
       <c r="G7" t="n">
-        <v>10417.69520198</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>490.1767</v>
       </c>
       <c r="G8" t="n">
-        <v>10907.87190198</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>2683.4573</v>
       </c>
       <c r="G9" t="n">
-        <v>13591.32920198</v>
-      </c>
-      <c r="H9" t="n">
         <v>2</v>
       </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>112.7239</v>
       </c>
       <c r="G10" t="n">
-        <v>13591.32920198</v>
-      </c>
-      <c r="H10" t="n">
         <v>2</v>
       </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>1.3004</v>
       </c>
       <c r="G11" t="n">
-        <v>13592.62960198</v>
-      </c>
-      <c r="H11" t="n">
         <v>2</v>
       </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>538.1314</v>
       </c>
       <c r="G12" t="n">
-        <v>13054.49820198</v>
-      </c>
-      <c r="H12" t="n">
         <v>2</v>
       </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>493.1794</v>
       </c>
       <c r="G13" t="n">
-        <v>12561.31880198</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>1685.965</v>
       </c>
       <c r="G14" t="n">
-        <v>10875.35380198</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>116.9356</v>
       </c>
       <c r="G15" t="n">
-        <v>10875.35380198</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>295</v>
       </c>
       <c r="G16" t="n">
-        <v>10875.35380198</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>18.7196</v>
       </c>
       <c r="G17" t="n">
-        <v>10894.07340198</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>33.8381</v>
       </c>
       <c r="G18" t="n">
-        <v>10927.91150198</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>1220.7744</v>
       </c>
       <c r="G19" t="n">
-        <v>9707.137101980001</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>274.5387</v>
       </c>
       <c r="G20" t="n">
-        <v>9432.598401980002</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>836.6199</v>
       </c>
       <c r="G21" t="n">
-        <v>9432.598401980002</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>1775.1937</v>
       </c>
       <c r="G22" t="n">
-        <v>9432.598401980002</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>40</v>
       </c>
       <c r="G23" t="n">
-        <v>9392.598401980002</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>248.9949</v>
       </c>
       <c r="G24" t="n">
-        <v>9143.603501980002</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>0.3001</v>
       </c>
       <c r="G25" t="n">
-        <v>9143.903601980002</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>0.2799</v>
       </c>
       <c r="G26" t="n">
-        <v>9144.183501980002</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>0.285</v>
       </c>
       <c r="G27" t="n">
-        <v>9144.468501980002</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>252.2245</v>
       </c>
       <c r="G28" t="n">
-        <v>9396.693001980002</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>315.5346</v>
       </c>
       <c r="G29" t="n">
-        <v>9712.227601980003</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>74.2222</v>
       </c>
       <c r="G30" t="n">
-        <v>9712.227601980003</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>40.323</v>
       </c>
       <c r="G31" t="n">
-        <v>9671.904601980003</v>
-      </c>
-      <c r="H31" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>1756.822</v>
       </c>
       <c r="G32" t="n">
-        <v>7915.082601980002</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>162.6052</v>
       </c>
       <c r="G33" t="n">
-        <v>7752.477401980002</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>57.45</v>
       </c>
       <c r="G34" t="n">
-        <v>7695.027401980003</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>479.2789</v>
       </c>
       <c r="G35" t="n">
-        <v>8174.306301980003</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>39.4518</v>
       </c>
       <c r="G36" t="n">
-        <v>8213.758101980004</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>253.0844</v>
       </c>
       <c r="G37" t="n">
-        <v>7960.673701980004</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>29.4</v>
       </c>
       <c r="G38" t="n">
-        <v>7931.273701980004</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>46.4982</v>
       </c>
       <c r="G39" t="n">
-        <v>7977.771901980004</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>46.177</v>
       </c>
       <c r="G40" t="n">
-        <v>7977.771901980004</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>0.3019</v>
       </c>
       <c r="G41" t="n">
-        <v>7978.073801980005</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>66.41</v>
       </c>
       <c r="G42" t="n">
-        <v>7911.663801980005</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,21 @@
         <v>45.492</v>
       </c>
       <c r="G43" t="n">
-        <v>7911.663801980005</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1721</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1709,19 @@
         <v>27.7447</v>
       </c>
       <c r="G44" t="n">
-        <v>7911.663801980005</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1743,21 @@
         <v>38.1006</v>
       </c>
       <c r="G45" t="n">
-        <v>7949.764401980005</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1721</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1779,21 @@
         <v>97.5724</v>
       </c>
       <c r="G46" t="n">
-        <v>7852.192001980005</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1730</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1815,19 @@
         <v>89.9999</v>
       </c>
       <c r="G47" t="n">
-        <v>7852.192001980005</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1849,19 @@
         <v>19.3658</v>
       </c>
       <c r="G48" t="n">
-        <v>7852.192001980005</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1883,19 @@
         <v>576.7362000000001</v>
       </c>
       <c r="G49" t="n">
-        <v>8428.928201980005</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1917,19 @@
         <v>260</v>
       </c>
       <c r="G50" t="n">
-        <v>8688.928201980005</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1951,19 @@
         <v>37</v>
       </c>
       <c r="G51" t="n">
-        <v>8688.928201980005</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1985,19 @@
         <v>100.0919</v>
       </c>
       <c r="G52" t="n">
-        <v>8789.020101980004</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2019,19 @@
         <v>28.7551</v>
       </c>
       <c r="G53" t="n">
-        <v>8760.265001980004</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2053,19 @@
         <v>43.7951</v>
       </c>
       <c r="G54" t="n">
-        <v>8760.265001980004</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2087,19 @@
         <v>230</v>
       </c>
       <c r="G55" t="n">
-        <v>8530.265001980004</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2121,21 @@
         <v>20.0001</v>
       </c>
       <c r="G56" t="n">
-        <v>8530.265001980004</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1741</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2157,21 @@
         <v>0.3006</v>
       </c>
       <c r="G57" t="n">
-        <v>8530.565601980004</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1741</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2193,19 @@
         <v>0.3963</v>
       </c>
       <c r="G58" t="n">
-        <v>8530.961901980005</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2227,19 @@
         <v>62.6669</v>
       </c>
       <c r="G59" t="n">
-        <v>8468.295001980005</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2261,19 @@
         <v>0.3009</v>
       </c>
       <c r="G60" t="n">
-        <v>8468.595901980005</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2295,19 @@
         <v>1045</v>
       </c>
       <c r="G61" t="n">
-        <v>9513.595901980005</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2329,19 @@
         <v>685.6097</v>
       </c>
       <c r="G62" t="n">
-        <v>10199.20560198</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2363,19 @@
         <v>28.44141069</v>
       </c>
       <c r="G63" t="n">
-        <v>10199.20560198</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2397,19 @@
         <v>27.3947</v>
       </c>
       <c r="G64" t="n">
-        <v>10199.20560198</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2431,19 @@
         <v>155.2423</v>
       </c>
       <c r="G65" t="n">
-        <v>10199.20560198</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2465,19 @@
         <v>87.7457</v>
       </c>
       <c r="G66" t="n">
-        <v>10199.20560198</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2499,19 @@
         <v>114.06938931</v>
       </c>
       <c r="G67" t="n">
-        <v>10199.20560198</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2533,19 @@
         <v>1337.6306</v>
       </c>
       <c r="G68" t="n">
-        <v>8861.575001980003</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2567,19 @@
         <v>1337.6307</v>
       </c>
       <c r="G69" t="n">
-        <v>7523.944301980004</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2601,19 @@
         <v>31.11</v>
       </c>
       <c r="G70" t="n">
-        <v>7523.944301980004</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2635,19 @@
         <v>260</v>
       </c>
       <c r="G71" t="n">
-        <v>7783.944301980004</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2669,19 @@
         <v>41.4884</v>
       </c>
       <c r="G72" t="n">
-        <v>7742.455901980004</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2703,19 @@
         <v>4.7304</v>
       </c>
       <c r="G73" t="n">
-        <v>7737.725501980003</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2737,19 @@
         <v>260</v>
       </c>
       <c r="G74" t="n">
-        <v>7997.725501980003</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2771,19 @@
         <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>7996.725501980003</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2805,19 @@
         <v>17.7901</v>
       </c>
       <c r="G76" t="n">
-        <v>7978.935401980003</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2839,19 @@
         <v>16.1251</v>
       </c>
       <c r="G77" t="n">
-        <v>7995.060501980003</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2873,19 @@
         <v>152.3095</v>
       </c>
       <c r="G78" t="n">
-        <v>7842.751001980003</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2907,21 @@
         <v>0.5</v>
       </c>
       <c r="G79" t="n">
-        <v>7842.751001980003</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2943,19 @@
         <v>0.0008</v>
       </c>
       <c r="G80" t="n">
-        <v>7842.751801980003</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2977,19 @@
         <v>0.6199</v>
       </c>
       <c r="G81" t="n">
-        <v>7843.371701980002</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +3011,19 @@
         <v>14.6522</v>
       </c>
       <c r="G82" t="n">
-        <v>7858.023901980003</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +3045,19 @@
         <v>32.9868</v>
       </c>
       <c r="G83" t="n">
-        <v>7891.010701980003</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3079,19 @@
         <v>106.1014</v>
       </c>
       <c r="G84" t="n">
-        <v>7997.112101980002</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3113,19 @@
         <v>4.48681996</v>
       </c>
       <c r="G85" t="n">
-        <v>8001.598921940002</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3147,19 @@
         <v>5</v>
       </c>
       <c r="G86" t="n">
-        <v>7996.598921940002</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3181,19 @@
         <v>191.3144</v>
       </c>
       <c r="G87" t="n">
-        <v>8187.913321940002</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3215,19 @@
         <v>44.9058</v>
       </c>
       <c r="G88" t="n">
-        <v>8187.913321940002</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3249,19 @@
         <v>8</v>
       </c>
       <c r="G89" t="n">
-        <v>8179.913321940002</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3283,19 @@
         <v>32.6734</v>
       </c>
       <c r="G90" t="n">
-        <v>8212.586721940002</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3317,19 @@
         <v>12</v>
       </c>
       <c r="G91" t="n">
-        <v>8212.586721940002</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3351,19 @@
         <v>11.8136</v>
       </c>
       <c r="G92" t="n">
-        <v>8224.400321940002</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3385,19 @@
         <v>356.5083</v>
       </c>
       <c r="G93" t="n">
-        <v>8580.908621940001</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3419,19 @@
         <v>195.065</v>
       </c>
       <c r="G94" t="n">
-        <v>8775.973621940002</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3453,19 @@
         <v>42.7369</v>
       </c>
       <c r="G95" t="n">
-        <v>8733.236721940002</v>
-      </c>
-      <c r="H95" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3487,19 @@
         <v>0.5</v>
       </c>
       <c r="G96" t="n">
-        <v>8733.736721940002</v>
-      </c>
-      <c r="H96" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3521,19 @@
         <v>101.3571</v>
       </c>
       <c r="G97" t="n">
-        <v>8632.379621940003</v>
-      </c>
-      <c r="H97" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3555,19 @@
         <v>1801.0884</v>
       </c>
       <c r="G98" t="n">
-        <v>8632.379621940003</v>
-      </c>
-      <c r="H98" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3589,19 @@
         <v>265.8594</v>
       </c>
       <c r="G99" t="n">
-        <v>8898.239021940002</v>
-      </c>
-      <c r="H99" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3623,19 @@
         <v>24.3</v>
       </c>
       <c r="G100" t="n">
-        <v>8873.939021940003</v>
-      </c>
-      <c r="H100" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3657,19 @@
         <v>201.391</v>
       </c>
       <c r="G101" t="n">
-        <v>8672.548021940003</v>
-      </c>
-      <c r="H101" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3691,19 @@
         <v>0.5</v>
       </c>
       <c r="G102" t="n">
-        <v>8673.048021940003</v>
-      </c>
-      <c r="H102" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3725,19 @@
         <v>161.6951</v>
       </c>
       <c r="G103" t="n">
-        <v>8511.352921940002</v>
-      </c>
-      <c r="H103" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3759,19 @@
         <v>12.318</v>
       </c>
       <c r="G104" t="n">
-        <v>8523.670921940002</v>
-      </c>
-      <c r="H104" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3793,19 @@
         <v>0.5</v>
       </c>
       <c r="G105" t="n">
-        <v>8524.170921940002</v>
-      </c>
-      <c r="H105" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3827,19 @@
         <v>3437.0652</v>
       </c>
       <c r="G106" t="n">
-        <v>11961.23612194</v>
-      </c>
-      <c r="H106" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3861,19 @@
         <v>3569.2888</v>
       </c>
       <c r="G107" t="n">
-        <v>8391.947321940001</v>
-      </c>
-      <c r="H107" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3895,19 @@
         <v>1385.8021</v>
       </c>
       <c r="G108" t="n">
-        <v>7006.145221940001</v>
-      </c>
-      <c r="H108" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3929,19 @@
         <v>3449.1592</v>
       </c>
       <c r="G109" t="n">
-        <v>10455.30442194</v>
-      </c>
-      <c r="H109" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3963,19 @@
         <v>546.5786000000001</v>
       </c>
       <c r="G110" t="n">
-        <v>10455.30442194</v>
-      </c>
-      <c r="H110" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3997,19 @@
         <v>463.6061</v>
       </c>
       <c r="G111" t="n">
-        <v>10455.30442194</v>
-      </c>
-      <c r="H111" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +4031,19 @@
         <v>41.4</v>
       </c>
       <c r="G112" t="n">
-        <v>10413.90442194</v>
-      </c>
-      <c r="H112" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +4065,19 @@
         <v>43.6178</v>
       </c>
       <c r="G113" t="n">
-        <v>10370.28662194</v>
-      </c>
-      <c r="H113" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +4099,19 @@
         <v>87.3096</v>
       </c>
       <c r="G114" t="n">
-        <v>10282.97702194</v>
-      </c>
-      <c r="H114" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +4133,19 @@
         <v>460</v>
       </c>
       <c r="G115" t="n">
-        <v>9822.97702194</v>
-      </c>
-      <c r="H115" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +4167,19 @@
         <v>284.6698</v>
       </c>
       <c r="G116" t="n">
-        <v>9538.30722194</v>
-      </c>
-      <c r="H116" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +4201,19 @@
         <v>1721.7753</v>
       </c>
       <c r="G117" t="n">
-        <v>7816.53192194</v>
-      </c>
-      <c r="H117" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +4235,19 @@
         <v>233.7372</v>
       </c>
       <c r="G118" t="n">
-        <v>7816.53192194</v>
-      </c>
-      <c r="H118" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4269,19 @@
         <v>72.4571</v>
       </c>
       <c r="G119" t="n">
-        <v>7888.989021939999</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4303,19 @@
         <v>1.3</v>
       </c>
       <c r="G120" t="n">
-        <v>7890.28902194</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4337,19 @@
         <v>39.4296</v>
       </c>
       <c r="G121" t="n">
-        <v>7850.859421939999</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4371,19 @@
         <v>45</v>
       </c>
       <c r="G122" t="n">
-        <v>7895.859421939999</v>
-      </c>
-      <c r="H122" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4405,19 @@
         <v>784.1191</v>
       </c>
       <c r="G123" t="n">
-        <v>8679.97852194</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4439,19 @@
         <v>2325.316</v>
       </c>
       <c r="G124" t="n">
-        <v>6354.66252194</v>
-      </c>
-      <c r="H124" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4473,19 @@
         <v>11.2935</v>
       </c>
       <c r="G125" t="n">
-        <v>6365.95602194</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4507,19 @@
         <v>15.0707</v>
       </c>
       <c r="G126" t="n">
-        <v>6365.95602194</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4541,19 @@
         <v>276.126</v>
       </c>
       <c r="G127" t="n">
-        <v>6089.83002194</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4575,19 @@
         <v>323</v>
       </c>
       <c r="G128" t="n">
-        <v>6089.83002194</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4609,19 @@
         <v>0.6327</v>
       </c>
       <c r="G129" t="n">
-        <v>6090.46272194</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4643,19 @@
         <v>0.3182</v>
       </c>
       <c r="G130" t="n">
-        <v>6090.14452194</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4677,19 @@
         <v>98.3586</v>
       </c>
       <c r="G131" t="n">
-        <v>5991.785921940001</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4711,19 @@
         <v>839.5242</v>
       </c>
       <c r="G132" t="n">
-        <v>5152.261721940001</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4745,19 @@
         <v>77.1503</v>
       </c>
       <c r="G133" t="n">
-        <v>5075.111421940001</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4779,19 @@
         <v>1558.068</v>
       </c>
       <c r="G134" t="n">
-        <v>6633.179421940001</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4813,19 @@
         <v>19.7155</v>
       </c>
       <c r="G135" t="n">
-        <v>6633.179421940001</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4847,19 @@
         <v>335.7313</v>
       </c>
       <c r="G136" t="n">
-        <v>6297.44812194</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4881,19 @@
         <v>10.8392</v>
       </c>
       <c r="G137" t="n">
-        <v>6286.60892194</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4915,19 @@
         <v>0.28</v>
       </c>
       <c r="G138" t="n">
-        <v>6286.88892194</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4949,19 @@
         <v>784.1191</v>
       </c>
       <c r="G139" t="n">
-        <v>5502.76982194</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4983,19 @@
         <v>1040</v>
       </c>
       <c r="G140" t="n">
-        <v>6542.76982194</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +5017,19 @@
         <v>54.3085</v>
       </c>
       <c r="G141" t="n">
-        <v>6542.76982194</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +5051,19 @@
         <v>0.55463117</v>
       </c>
       <c r="G142" t="n">
-        <v>6543.32445311</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +5085,19 @@
         <v>33.3944</v>
       </c>
       <c r="G143" t="n">
-        <v>6509.93005311</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +5119,19 @@
         <v>1200</v>
       </c>
       <c r="G144" t="n">
-        <v>6509.93005311</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +5153,19 @@
         <v>1017.255</v>
       </c>
       <c r="G145" t="n">
-        <v>5492.67505311</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +5187,19 @@
         <v>29.9699</v>
       </c>
       <c r="G146" t="n">
-        <v>5462.70515311</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +5221,19 @@
         <v>38.9609</v>
       </c>
       <c r="G147" t="n">
-        <v>5462.70515311</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +5255,19 @@
         <v>1166.137</v>
       </c>
       <c r="G148" t="n">
-        <v>4296.56815311</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +5289,19 @@
         <v>126.38</v>
       </c>
       <c r="G149" t="n">
-        <v>4170.18815311</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +5323,19 @@
         <v>69.2132</v>
       </c>
       <c r="G150" t="n">
-        <v>4100.97495311</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +5357,19 @@
         <v>20.1122</v>
       </c>
       <c r="G151" t="n">
-        <v>4100.97495311</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +5391,19 @@
         <v>33.88</v>
       </c>
       <c r="G152" t="n">
-        <v>4067.09495311</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +5425,19 @@
         <v>1.8068</v>
       </c>
       <c r="G153" t="n">
-        <v>4067.09495311</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5459,19 @@
         <v>129.587</v>
       </c>
       <c r="G154" t="n">
-        <v>4196.681953109999</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5493,19 @@
         <v>260</v>
       </c>
       <c r="G155" t="n">
-        <v>3936.681953109999</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5527,19 @@
         <v>1386.2611</v>
       </c>
       <c r="G156" t="n">
-        <v>5322.943053109999</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5561,19 @@
         <v>17.43181818</v>
       </c>
       <c r="G157" t="n">
-        <v>5340.374871289999</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5595,19 @@
         <v>190.16</v>
       </c>
       <c r="G158" t="n">
-        <v>5150.214871289999</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5629,19 @@
         <v>247.2245</v>
       </c>
       <c r="G159" t="n">
-        <v>5150.214871289999</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5663,19 @@
         <v>291.7395</v>
       </c>
       <c r="G160" t="n">
-        <v>4858.475371289999</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5697,19 @@
         <v>218.8623</v>
       </c>
       <c r="G161" t="n">
-        <v>4639.613071289999</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5731,19 @@
         <v>2213.3885</v>
       </c>
       <c r="G162" t="n">
-        <v>2426.224571289999</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5765,19 @@
         <v>486.5321</v>
       </c>
       <c r="G163" t="n">
-        <v>2426.224571289999</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5799,21 @@
         <v>1128.3375</v>
       </c>
       <c r="G164" t="n">
-        <v>1297.887071289999</v>
+        <v>1</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>1719</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5835,21 @@
         <v>534.525</v>
       </c>
       <c r="G165" t="n">
-        <v>763.3620712899993</v>
+        <v>1</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>1717</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5871,21 @@
         <v>1830.6382</v>
       </c>
       <c r="G166" t="n">
-        <v>2594.00027129</v>
+        <v>1</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5907,21 @@
         <v>0.9167999999999999</v>
       </c>
       <c r="G167" t="n">
-        <v>2594.91707129</v>
+        <v>1</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>1723</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5943,19 @@
         <v>285.2936</v>
       </c>
       <c r="G168" t="n">
-        <v>2309.62347129</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,22 +5977,21 @@
         <v>157.3126</v>
       </c>
       <c r="G169" t="n">
-        <v>2309.62347129</v>
+        <v>1</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
         <v>1709</v>
       </c>
-      <c r="J169" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5996,26 +6013,21 @@
         <v>45</v>
       </c>
       <c r="G170" t="n">
-        <v>2309.62347129</v>
+        <v>1</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
         <v>1709</v>
       </c>
-      <c r="J170" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6037,26 +6049,21 @@
         <v>50</v>
       </c>
       <c r="G171" t="n">
-        <v>2309.62347129</v>
+        <v>1</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
         <v>1709</v>
       </c>
-      <c r="J171" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6078,26 +6085,21 @@
         <v>25.4189</v>
       </c>
       <c r="G172" t="n">
-        <v>2284.204571289999</v>
+        <v>1</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
         <v>1709</v>
       </c>
-      <c r="J172" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6119,26 +6121,21 @@
         <v>116.7282</v>
       </c>
       <c r="G173" t="n">
-        <v>2400.932771289999</v>
+        <v>1</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
         <v>1705</v>
       </c>
-      <c r="J173" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6160,26 +6157,21 @@
         <v>260.7987</v>
       </c>
       <c r="G174" t="n">
-        <v>2140.13407129</v>
+        <v>1</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
         <v>1706</v>
       </c>
-      <c r="J174" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6201,26 +6193,21 @@
         <v>49.7884</v>
       </c>
       <c r="G175" t="n">
-        <v>2090.34567129</v>
+        <v>1</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
         <v>1690</v>
       </c>
-      <c r="J175" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6242,26 +6229,21 @@
         <v>33</v>
       </c>
       <c r="G176" t="n">
-        <v>2123.34567129</v>
+        <v>1</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
         <v>1688</v>
       </c>
-      <c r="J176" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6283,26 +6265,21 @@
         <v>0.6463</v>
       </c>
       <c r="G177" t="n">
-        <v>2123.99197129</v>
+        <v>1</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
         <v>1709</v>
       </c>
-      <c r="J177" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6324,26 +6301,21 @@
         <v>1890.9326</v>
       </c>
       <c r="G178" t="n">
-        <v>4014.92457129</v>
+        <v>1</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
         <v>1710</v>
       </c>
-      <c r="J178" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6365,26 +6337,21 @@
         <v>753.6427</v>
       </c>
       <c r="G179" t="n">
-        <v>4768.56727129</v>
+        <v>1</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
         <v>1731</v>
       </c>
-      <c r="J179" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6406,26 +6373,19 @@
         <v>84.396</v>
       </c>
       <c r="G180" t="n">
-        <v>4684.17127129</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>1744</v>
-      </c>
-      <c r="J180" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6447,26 +6407,19 @@
         <v>15.5</v>
       </c>
       <c r="G181" t="n">
-        <v>4699.67127129</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>1724</v>
-      </c>
-      <c r="J181" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6488,26 +6441,19 @@
         <v>196.8085</v>
       </c>
       <c r="G182" t="n">
-        <v>4502.86277129</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>1742</v>
-      </c>
-      <c r="J182" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6529,26 +6475,19 @@
         <v>121.6593</v>
       </c>
       <c r="G183" t="n">
-        <v>4381.203471289999</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>1732</v>
-      </c>
-      <c r="J183" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6570,26 +6509,19 @@
         <v>16.8822</v>
       </c>
       <c r="G184" t="n">
-        <v>4364.321271289999</v>
-      </c>
-      <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>1731</v>
-      </c>
-      <c r="J184" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6611,26 +6543,21 @@
         <v>0.5</v>
       </c>
       <c r="G185" t="n">
-        <v>4364.821271289999</v>
+        <v>1</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
         <v>1721</v>
       </c>
-      <c r="J185" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6652,26 +6579,19 @@
         <v>31.57192174</v>
       </c>
       <c r="G186" t="n">
-        <v>4364.821271289999</v>
-      </c>
-      <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>1738</v>
-      </c>
-      <c r="J186" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6693,26 +6613,19 @@
         <v>1366.3323</v>
       </c>
       <c r="G187" t="n">
-        <v>2998.488971289999</v>
-      </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>1738</v>
-      </c>
-      <c r="J187" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6734,26 +6647,19 @@
         <v>479.4109</v>
       </c>
       <c r="G188" t="n">
-        <v>2998.488971289999</v>
-      </c>
-      <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>1735</v>
-      </c>
-      <c r="J188" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6775,26 +6681,19 @@
         <v>326.17</v>
       </c>
       <c r="G189" t="n">
-        <v>2672.318971289999</v>
-      </c>
-      <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>1735</v>
-      </c>
-      <c r="J189" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6816,26 +6715,19 @@
         <v>0.5</v>
       </c>
       <c r="G190" t="n">
-        <v>2672.818971289999</v>
-      </c>
-      <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>1722</v>
-      </c>
-      <c r="J190" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6857,26 +6749,19 @@
         <v>149.0995</v>
       </c>
       <c r="G191" t="n">
-        <v>2821.918471289999</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>1738</v>
-      </c>
-      <c r="J191" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6898,26 +6783,19 @@
         <v>44.423</v>
       </c>
       <c r="G192" t="n">
-        <v>2777.495471289999</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>1741</v>
-      </c>
-      <c r="J192" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6939,26 +6817,19 @@
         <v>42.1169</v>
       </c>
       <c r="G193" t="n">
-        <v>2819.612371289999</v>
-      </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>1724</v>
-      </c>
-      <c r="J193" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6980,26 +6851,19 @@
         <v>1344.2888</v>
       </c>
       <c r="G194" t="n">
-        <v>1475.323571289999</v>
-      </c>
-      <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>1725</v>
-      </c>
-      <c r="J194" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7021,26 +6885,19 @@
         <v>5493.8386</v>
       </c>
       <c r="G195" t="n">
-        <v>1475.323571289999</v>
-      </c>
-      <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>1723</v>
-      </c>
-      <c r="J195" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7062,26 +6919,19 @@
         <v>1696.7212</v>
       </c>
       <c r="G196" t="n">
-        <v>-221.3976287100011</v>
-      </c>
-      <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>1723</v>
-      </c>
-      <c r="J196" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7103,26 +6953,19 @@
         <v>349.79</v>
       </c>
       <c r="G197" t="n">
-        <v>-221.3976287100011</v>
-      </c>
-      <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>1720</v>
-      </c>
-      <c r="J197" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7144,26 +6987,19 @@
         <v>23.23</v>
       </c>
       <c r="G198" t="n">
-        <v>-221.3976287100011</v>
-      </c>
-      <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>1720</v>
-      </c>
-      <c r="J198" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7185,26 +7021,19 @@
         <v>5309.44775622</v>
       </c>
       <c r="G199" t="n">
-        <v>5088.050127509999</v>
-      </c>
-      <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>1720</v>
-      </c>
-      <c r="J199" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7226,24 +7055,19 @@
         <v>82.56</v>
       </c>
       <c r="G200" t="n">
-        <v>5005.490127509998</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7265,26 +7089,19 @@
         <v>0.3</v>
       </c>
       <c r="G201" t="n">
-        <v>5005.790127509998</v>
-      </c>
-      <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>1726</v>
-      </c>
-      <c r="J201" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7306,24 +7123,19 @@
         <v>35.7392</v>
       </c>
       <c r="G202" t="n">
-        <v>4970.050927509998</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7345,24 +7157,19 @@
         <v>1449.1124</v>
       </c>
       <c r="G203" t="n">
-        <v>3520.938527509998</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7384,24 +7191,19 @@
         <v>0.5</v>
       </c>
       <c r="G204" t="n">
-        <v>3521.438527509998</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7423,24 +7225,19 @@
         <v>117.7821</v>
       </c>
       <c r="G205" t="n">
-        <v>3403.656427509999</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7462,24 +7259,19 @@
         <v>56.56148481</v>
       </c>
       <c r="G206" t="n">
-        <v>3460.217912319999</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7501,24 +7293,19 @@
         <v>17.5323</v>
       </c>
       <c r="G207" t="n">
-        <v>3442.685612319999</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7540,24 +7327,19 @@
         <v>110.6914</v>
       </c>
       <c r="G208" t="n">
-        <v>3331.994212319998</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7579,24 +7361,19 @@
         <v>625.9045</v>
       </c>
       <c r="G209" t="n">
-        <v>3331.994212319998</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7618,24 +7395,19 @@
         <v>0.5</v>
       </c>
       <c r="G210" t="n">
-        <v>3332.494212319998</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7657,24 +7429,19 @@
         <v>82.179</v>
       </c>
       <c r="G211" t="n">
-        <v>3250.315212319998</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7696,24 +7463,19 @@
         <v>0.2883</v>
       </c>
       <c r="G212" t="n">
-        <v>3250.603512319999</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7735,24 +7497,19 @@
         <v>309.4296</v>
       </c>
       <c r="G213" t="n">
-        <v>3560.033112319999</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7774,24 +7531,19 @@
         <v>3822.6844</v>
       </c>
       <c r="G214" t="n">
-        <v>-262.6512876800016</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7813,24 +7565,19 @@
         <v>3120.7014</v>
       </c>
       <c r="G215" t="n">
-        <v>2858.050112319998</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7852,24 +7599,19 @@
         <v>79.3229</v>
       </c>
       <c r="G216" t="n">
-        <v>2778.727212319998</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7891,24 +7633,19 @@
         <v>873.0547</v>
       </c>
       <c r="G217" t="n">
-        <v>3651.781912319998</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7930,24 +7667,19 @@
         <v>262.085</v>
       </c>
       <c r="G218" t="n">
-        <v>3389.696912319998</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7969,24 +7701,19 @@
         <v>0.5</v>
       </c>
       <c r="G219" t="n">
-        <v>3390.196912319998</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8008,24 +7735,19 @@
         <v>1082.8493</v>
       </c>
       <c r="G220" t="n">
-        <v>4473.046212319999</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8047,24 +7769,19 @@
         <v>282.6302</v>
       </c>
       <c r="G221" t="n">
-        <v>4473.046212319999</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8086,24 +7803,19 @@
         <v>809.35</v>
       </c>
       <c r="G222" t="n">
-        <v>5282.396212319999</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8125,24 +7837,19 @@
         <v>133.407</v>
       </c>
       <c r="G223" t="n">
-        <v>5148.989212319999</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8164,24 +7871,19 @@
         <v>21.4</v>
       </c>
       <c r="G224" t="n">
-        <v>5127.589212319999</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8203,24 +7905,19 @@
         <v>1052.0531</v>
       </c>
       <c r="G225" t="n">
-        <v>4075.536112319999</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8242,24 +7939,19 @@
         <v>0.5</v>
       </c>
       <c r="G226" t="n">
-        <v>4076.036112319999</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8281,24 +7973,19 @@
         <v>18</v>
       </c>
       <c r="G227" t="n">
-        <v>4058.036112319999</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8320,24 +8007,19 @@
         <v>87.1069</v>
       </c>
       <c r="G228" t="n">
-        <v>4145.143012319999</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8359,24 +8041,19 @@
         <v>49.8065</v>
       </c>
       <c r="G229" t="n">
-        <v>4194.949512319999</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8398,24 +8075,19 @@
         <v>65.80159999999999</v>
       </c>
       <c r="G230" t="n">
-        <v>4194.949512319999</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8437,24 +8109,19 @@
         <v>78.73099999999999</v>
       </c>
       <c r="G231" t="n">
-        <v>4194.949512319999</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8476,24 +8143,19 @@
         <v>604.3737</v>
       </c>
       <c r="G232" t="n">
-        <v>4194.949512319999</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8515,24 +8177,19 @@
         <v>649.172</v>
       </c>
       <c r="G233" t="n">
-        <v>4194.949512319999</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8554,24 +8211,19 @@
         <v>131.3007</v>
       </c>
       <c r="G234" t="n">
-        <v>4326.250212319998</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8593,24 +8245,19 @@
         <v>0.5</v>
       </c>
       <c r="G235" t="n">
-        <v>4326.750212319998</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8632,24 +8279,19 @@
         <v>50.6701</v>
       </c>
       <c r="G236" t="n">
-        <v>4276.080112319998</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8671,24 +8313,19 @@
         <v>12.5</v>
       </c>
       <c r="G237" t="n">
-        <v>4288.580112319998</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8710,24 +8347,19 @@
         <v>0.5</v>
       </c>
       <c r="G238" t="n">
-        <v>4289.080112319998</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8749,24 +8381,19 @@
         <v>33.3827</v>
       </c>
       <c r="G239" t="n">
-        <v>4289.080112319998</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8788,24 +8415,19 @@
         <v>0.5</v>
       </c>
       <c r="G240" t="n">
-        <v>4289.580112319998</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8827,24 +8449,19 @@
         <v>1.818</v>
       </c>
       <c r="G241" t="n">
-        <v>4287.762112319998</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8866,24 +8483,19 @@
         <v>509.3367</v>
       </c>
       <c r="G242" t="n">
-        <v>4797.098812319998</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>1709</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
